--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiocruzbr-my.sharepoint.com/personal/alessandro_jatoba_fiocruz_br/Documents/Livro 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{29158766-2F8B-4E06-A254-6E7BC628017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{405F404B-8F7C-CE42-9AD3-AAEBE15D2EFA}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{29158766-2F8B-4E06-A254-6E7BC628017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7231B67E-D956-F245-AEDF-C583FA29BC93}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="3" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2024" sheetId="2" r:id="rId1"/>
     <sheet name="2022" sheetId="4" r:id="rId2"/>
     <sheet name="CANCER MAMA" sheetId="12" r:id="rId3"/>
-    <sheet name="Base de dados" sheetId="17" r:id="rId4"/>
+    <sheet name="cancer_de_mama" sheetId="17" r:id="rId4"/>
     <sheet name="Planilha" sheetId="16" r:id="rId5"/>
     <sheet name="Planilha1" sheetId="13" r:id="rId6"/>
     <sheet name="Planilha2" sheetId="14" r:id="rId7"/>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855CF003-4C96-494E-8A40-5502C165E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1D34C-3A8F-3144-A00E-4E53CC063E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>Mamografo com Comando Simples</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Em uso SUS</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t>pc_estabelecimentos_MAMOGRAFIA</t>
@@ -1059,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF925095-FDBA-2A4A-8C4D-A3D9CBF7441D}">
   <dimension ref="A1:BS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1075,217 +1069,217 @@
   <sheetData>
     <row r="1" spans="1:71" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AJ1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AL1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AM1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS1" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="BJ1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="BR1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS1" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="6" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -1313,12 +1307,8 @@
       <c r="H2" s="15">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="15">
         <v>62</v>
       </c>
@@ -1527,9 +1517,7 @@
       <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="J3" s="14"/>
       <c r="K3" s="14">
         <v>94</v>
       </c>
@@ -1735,12 +1723,8 @@
       <c r="H4" s="15">
         <v>2</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="15">
         <v>112</v>
       </c>
@@ -2350,12 +2334,8 @@
       <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="14">
         <v>72</v>
       </c>
@@ -2570,12 +2550,8 @@
       <c r="H8" s="15">
         <v>3</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="15">
         <v>105</v>
       </c>
@@ -2790,12 +2766,8 @@
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="14">
         <v>129</v>
       </c>
@@ -3233,9 +3205,7 @@
       <c r="I11" s="14">
         <v>3</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="17">
         <v>1922</v>
       </c>
@@ -3617,30 +3587,14 @@
       <c r="BJ12" s="23">
         <v>94</v>
       </c>
-      <c r="BK12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR12" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="12"/>
+      <c r="BR12" s="12"/>
       <c r="BS12" s="7">
         <v>109374409</v>
       </c>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1D34C-3A8F-3144-A00E-4E53CC063E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B8128-BD7F-2346-83E8-F7C17B6D9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,9 +477,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,9 +508,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1051,234 +1045,234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF925095-FDBA-2A4A-8C4D-A3D9CBF7441D}">
-  <dimension ref="A1:BS13"/>
+  <dimension ref="A1:BS12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" style="25"/>
-    <col min="39" max="39" width="10.83203125" style="25"/>
-    <col min="41" max="41" width="10.83203125" style="25"/>
-    <col min="58" max="63" width="10.83203125" style="25"/>
+    <col min="37" max="37" width="10.83203125" style="23"/>
+    <col min="39" max="39" width="10.83203125" style="23"/>
+    <col min="41" max="41" width="10.83203125" style="23"/>
+    <col min="58" max="63" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:71" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AS1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AU1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AV1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AW1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AX1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AY1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BA1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BB1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BE1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BF1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BG1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BH1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BI1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BK1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BL1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BM1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BN1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BO1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BP1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BQ1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BR1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BS1" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1295,27 +1289,27 @@
       <c r="D2" s="6">
         <v>693</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>1</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14">
         <v>62</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>9</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>5</v>
       </c>
       <c r="N2" s="6">
@@ -1367,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="AD2" s="6">
-        <f t="shared" ref="AD2:AG12" si="0">R2+V2+Z2</f>
+        <f t="shared" ref="AD2:AG11" si="0">R2+V2+Z2</f>
         <v>201</v>
       </c>
       <c r="AE2" s="6">
@@ -1391,19 +1385,19 @@
       <c r="AJ2" s="11">
         <v>5013</v>
       </c>
-      <c r="AK2" s="23">
+      <c r="AK2" s="22">
         <v>19388</v>
       </c>
       <c r="AL2" s="9">
         <v>436230</v>
       </c>
-      <c r="AM2" s="23">
+      <c r="AM2" s="22">
         <v>88145</v>
       </c>
       <c r="AN2" s="9">
         <v>3966525</v>
       </c>
-      <c r="AO2" s="23">
+      <c r="AO2" s="22">
         <v>853</v>
       </c>
       <c r="AP2" s="10">
@@ -1454,23 +1448,23 @@
       <c r="BE2" s="10">
         <v>18</v>
       </c>
-      <c r="BF2" s="23">
+      <c r="BF2" s="22">
         <v>6</v>
       </c>
-      <c r="BG2" s="23">
+      <c r="BG2" s="22">
         <v>76</v>
       </c>
-      <c r="BH2" s="23">
+      <c r="BH2" s="22">
         <f>BG2+BF2+AM2</f>
         <v>88227</v>
       </c>
-      <c r="BI2" s="23">
+      <c r="BI2" s="22">
         <v>1009</v>
       </c>
-      <c r="BJ2" s="23">
+      <c r="BJ2" s="22">
         <v>238</v>
       </c>
-      <c r="BK2" s="23">
+      <c r="BK2" s="22">
         <v>960</v>
       </c>
       <c r="BL2" s="6">
@@ -1511,20 +1505,20 @@
       <c r="D3" s="6">
         <v>1319</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>9</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>1</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
         <v>94</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>8</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>3</v>
       </c>
       <c r="N3" s="6">
@@ -1600,19 +1594,19 @@
       <c r="AJ3" s="6">
         <v>5261</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="22">
         <v>21218</v>
       </c>
       <c r="AL3" s="9">
         <v>477405</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AM3" s="22">
         <v>91272</v>
       </c>
       <c r="AN3" s="9">
         <v>4107240</v>
       </c>
-      <c r="AO3" s="26">
+      <c r="AO3" s="24">
         <v>1314</v>
       </c>
       <c r="AP3" s="10">
@@ -1663,23 +1657,23 @@
       <c r="BE3" s="6">
         <v>26</v>
       </c>
-      <c r="BF3" s="23">
+      <c r="BF3" s="22">
         <v>10</v>
       </c>
-      <c r="BG3" s="23">
+      <c r="BG3" s="22">
         <v>105</v>
       </c>
-      <c r="BH3" s="23">
+      <c r="BH3" s="22">
         <f>BG3+BF3+AM3</f>
         <v>91387</v>
       </c>
-      <c r="BI3" s="23">
+      <c r="BI3" s="22">
         <v>1047</v>
       </c>
-      <c r="BJ3" s="23">
+      <c r="BJ3" s="22">
         <v>211</v>
       </c>
-      <c r="BK3" s="23">
+      <c r="BK3" s="22">
         <v>955</v>
       </c>
       <c r="BL3" s="6">
@@ -1720,18 +1714,18 @@
       <c r="D4" s="6">
         <v>1287</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <v>112</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>6</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>4</v>
       </c>
       <c r="N4" s="6">
@@ -1807,19 +1801,19 @@
       <c r="AJ4" s="11">
         <v>5417</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="22">
         <v>18653</v>
       </c>
       <c r="AL4" s="9">
         <v>419692.5</v>
       </c>
-      <c r="AM4" s="23">
+      <c r="AM4" s="22">
         <v>88839</v>
       </c>
       <c r="AN4" s="9">
         <v>3997755</v>
       </c>
-      <c r="AO4" s="26">
+      <c r="AO4" s="24">
         <v>1456</v>
       </c>
       <c r="AP4" s="10">
@@ -1870,23 +1864,23 @@
       <c r="BE4" s="6">
         <v>23</v>
       </c>
-      <c r="BF4" s="23">
+      <c r="BF4" s="22">
         <v>2</v>
       </c>
-      <c r="BG4" s="23">
+      <c r="BG4" s="22">
         <v>122</v>
       </c>
-      <c r="BH4" s="23">
-        <f t="shared" ref="BH4:BH12" si="1">BG4+BF4+AM4</f>
+      <c r="BH4" s="22">
+        <f t="shared" ref="BH4:BH11" si="1">BG4+BF4+AM4</f>
         <v>88963</v>
       </c>
-      <c r="BI4" s="23">
+      <c r="BI4" s="22">
         <v>997</v>
       </c>
-      <c r="BJ4" s="23">
+      <c r="BJ4" s="22">
         <v>263</v>
       </c>
-      <c r="BK4" s="23">
+      <c r="BK4" s="22">
         <v>1074</v>
       </c>
       <c r="BL4" s="6">
@@ -1927,13 +1921,13 @@
       <c r="D5" s="6">
         <v>1555</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>84</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>3</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>2</v>
       </c>
       <c r="N5" s="6">
@@ -2009,19 +2003,19 @@
       <c r="AJ5" s="6">
         <v>5109</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="22">
         <v>21249</v>
       </c>
       <c r="AL5" s="9">
         <v>478102.5</v>
       </c>
-      <c r="AM5" s="23">
+      <c r="AM5" s="22">
         <v>93730</v>
       </c>
       <c r="AN5" s="9">
         <v>4217850</v>
       </c>
-      <c r="AO5" s="26">
+      <c r="AO5" s="24">
         <v>1920</v>
       </c>
       <c r="AP5" s="10">
@@ -2072,23 +2066,23 @@
       <c r="BE5" s="6">
         <v>27</v>
       </c>
-      <c r="BF5" s="23">
+      <c r="BF5" s="22">
         <v>0</v>
       </c>
-      <c r="BG5" s="23">
+      <c r="BG5" s="22">
         <v>89</v>
       </c>
-      <c r="BH5" s="23">
+      <c r="BH5" s="22">
         <f t="shared" si="1"/>
         <v>93819</v>
       </c>
-      <c r="BI5" s="23">
+      <c r="BI5" s="22">
         <v>1019</v>
       </c>
-      <c r="BJ5" s="23">
+      <c r="BJ5" s="22">
         <v>238</v>
       </c>
-      <c r="BK5" s="23">
+      <c r="BK5" s="22">
         <v>1159</v>
       </c>
       <c r="BL5" s="6">
@@ -2129,13 +2123,13 @@
       <c r="D6" s="6">
         <v>1274</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>58</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>26</v>
       </c>
       <c r="N6" s="6">
@@ -2211,19 +2205,19 @@
       <c r="AJ6" s="11">
         <v>4974</v>
       </c>
-      <c r="AK6" s="23">
+      <c r="AK6" s="22">
         <v>19989</v>
       </c>
       <c r="AL6" s="9">
         <v>449752.5</v>
       </c>
-      <c r="AM6" s="23">
+      <c r="AM6" s="22">
         <v>78686</v>
       </c>
       <c r="AN6" s="9">
         <v>3540870</v>
       </c>
-      <c r="AO6" s="26">
+      <c r="AO6" s="24">
         <v>2961</v>
       </c>
       <c r="AP6" s="6">
@@ -2274,23 +2268,23 @@
       <c r="BE6" s="6">
         <v>34</v>
       </c>
-      <c r="BF6" s="23">
+      <c r="BF6" s="22">
         <v>0</v>
       </c>
-      <c r="BG6" s="23">
+      <c r="BG6" s="22">
         <v>88</v>
       </c>
-      <c r="BH6" s="23">
+      <c r="BH6" s="22">
         <f t="shared" si="1"/>
         <v>78774</v>
       </c>
-      <c r="BI6" s="23">
+      <c r="BI6" s="22">
         <v>1078</v>
       </c>
-      <c r="BJ6" s="23">
+      <c r="BJ6" s="22">
         <v>168</v>
       </c>
-      <c r="BK6" s="23">
+      <c r="BK6" s="22">
         <v>1067</v>
       </c>
       <c r="BL6" s="6">
@@ -2331,18 +2325,18 @@
       <c r="D7" s="6">
         <v>1146</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>2</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13">
         <v>72</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>7</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>1</v>
       </c>
       <c r="N7" s="6">
@@ -2418,19 +2412,19 @@
       <c r="AJ7" s="6">
         <v>5075</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AK7" s="22">
         <v>12503</v>
       </c>
       <c r="AL7" s="9">
         <v>281317.5</v>
       </c>
-      <c r="AM7" s="23">
+      <c r="AM7" s="22">
         <v>37292</v>
       </c>
       <c r="AN7" s="9">
         <v>1678140</v>
       </c>
-      <c r="AO7" s="26">
+      <c r="AO7" s="24">
         <v>2509</v>
       </c>
       <c r="AP7" s="6">
@@ -2481,23 +2475,23 @@
       <c r="BE7" s="6">
         <v>31</v>
       </c>
-      <c r="BF7" s="23">
+      <c r="BF7" s="22">
         <v>2</v>
       </c>
-      <c r="BG7" s="23">
+      <c r="BG7" s="22">
         <v>80</v>
       </c>
-      <c r="BH7" s="23">
+      <c r="BH7" s="22">
         <f t="shared" si="1"/>
         <v>37374</v>
       </c>
-      <c r="BI7" s="23">
+      <c r="BI7" s="22">
         <v>861</v>
       </c>
-      <c r="BJ7" s="23">
+      <c r="BJ7" s="22">
         <v>82</v>
       </c>
-      <c r="BK7" s="23">
+      <c r="BK7" s="22">
         <v>983</v>
       </c>
       <c r="BL7" s="6">
@@ -2538,27 +2532,27 @@
       <c r="D8" s="6">
         <v>1344</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>2045</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>974</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>62</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>3</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
         <v>105</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>13</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>9</v>
       </c>
       <c r="N8" s="6">
@@ -2634,19 +2628,19 @@
       <c r="AJ8" s="11">
         <v>5393</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AK8" s="22">
         <v>16757</v>
       </c>
       <c r="AL8" s="9">
         <v>377032.5</v>
       </c>
-      <c r="AM8" s="23">
+      <c r="AM8" s="22">
         <v>61057</v>
       </c>
       <c r="AN8" s="9">
         <v>2747565</v>
       </c>
-      <c r="AO8" s="26">
+      <c r="AO8" s="24">
         <v>7855</v>
       </c>
       <c r="AP8" s="6">
@@ -2697,23 +2691,23 @@
       <c r="BE8" s="6">
         <v>49</v>
       </c>
-      <c r="BF8" s="23">
+      <c r="BF8" s="22">
         <v>3</v>
       </c>
-      <c r="BG8" s="23">
+      <c r="BG8" s="22">
         <v>127</v>
       </c>
-      <c r="BH8" s="23">
+      <c r="BH8" s="22">
         <f t="shared" si="1"/>
         <v>61187</v>
       </c>
-      <c r="BI8" s="23">
+      <c r="BI8" s="22">
         <v>758</v>
       </c>
-      <c r="BJ8" s="23">
+      <c r="BJ8" s="22">
         <v>87</v>
       </c>
-      <c r="BK8" s="23">
+      <c r="BK8" s="22">
         <v>952</v>
       </c>
       <c r="BL8" s="6">
@@ -2754,27 +2748,27 @@
       <c r="D9" s="6">
         <v>1314</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>10920</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>12522</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>13661</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
         <v>129</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>4</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>1</v>
       </c>
       <c r="N9" s="6">
@@ -2850,19 +2844,19 @@
       <c r="AJ9" s="6">
         <v>5511</v>
       </c>
-      <c r="AK9" s="23">
+      <c r="AK9" s="22">
         <v>18134</v>
       </c>
       <c r="AL9" s="9">
         <v>408015</v>
       </c>
-      <c r="AM9" s="23">
+      <c r="AM9" s="22">
         <v>65905</v>
       </c>
       <c r="AN9" s="9">
         <v>2965725</v>
       </c>
-      <c r="AO9" s="26">
+      <c r="AO9" s="24">
         <v>42900</v>
       </c>
       <c r="AP9" s="6">
@@ -2913,23 +2907,23 @@
       <c r="BE9" s="6">
         <v>157</v>
       </c>
-      <c r="BF9" s="23">
+      <c r="BF9" s="22">
         <v>1</v>
       </c>
-      <c r="BG9" s="23">
+      <c r="BG9" s="22">
         <v>134</v>
       </c>
-      <c r="BH9" s="23">
+      <c r="BH9" s="22">
         <f t="shared" si="1"/>
         <v>66040</v>
       </c>
-      <c r="BI9" s="23">
+      <c r="BI9" s="22">
         <v>696</v>
       </c>
-      <c r="BJ9" s="23">
+      <c r="BJ9" s="22">
         <v>109</v>
       </c>
-      <c r="BK9" s="23">
+      <c r="BK9" s="22">
         <v>1046</v>
       </c>
       <c r="BL9" s="6">
@@ -2970,31 +2964,31 @@
       <c r="D10" s="6">
         <v>1357</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>22199</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>32191</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>39630</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>5</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>5</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>7</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>281</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>36</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>87</v>
       </c>
       <c r="N10" s="6">
@@ -3070,19 +3064,19 @@
       <c r="AJ10" s="11">
         <v>5980</v>
       </c>
-      <c r="AK10" s="23">
+      <c r="AK10" s="22">
         <v>14726</v>
       </c>
       <c r="AL10" s="9">
         <v>331335</v>
       </c>
-      <c r="AM10" s="23">
+      <c r="AM10" s="22">
         <v>89966</v>
       </c>
       <c r="AN10" s="9">
         <v>4048470</v>
       </c>
-      <c r="AO10" s="26">
+      <c r="AO10" s="24">
         <v>97760</v>
       </c>
       <c r="AP10" s="6">
@@ -3133,23 +3127,23 @@
       <c r="BE10" s="6">
         <v>458</v>
       </c>
-      <c r="BF10" s="23">
+      <c r="BF10" s="22">
         <v>17</v>
       </c>
-      <c r="BG10" s="23">
+      <c r="BG10" s="22">
         <v>404</v>
       </c>
-      <c r="BH10" s="23">
+      <c r="BH10" s="22">
         <f t="shared" si="1"/>
         <v>90387</v>
       </c>
-      <c r="BI10" s="23">
+      <c r="BI10" s="22">
         <v>533</v>
       </c>
-      <c r="BJ10" s="23">
+      <c r="BJ10" s="22">
         <v>93</v>
       </c>
-      <c r="BK10" s="23">
+      <c r="BK10" s="22">
         <v>1133</v>
       </c>
       <c r="BL10" s="6">
@@ -3190,29 +3184,29 @@
       <c r="D11" s="6">
         <v>1564</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>20198</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>42450</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>40505</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>3</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17">
+      <c r="J11" s="13"/>
+      <c r="K11" s="16">
         <v>1922</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>483</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>151</v>
       </c>
       <c r="N11" s="6">
@@ -3288,19 +3282,19 @@
       <c r="AJ11" s="6">
         <v>6567</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AK11" s="22">
         <v>17180</v>
       </c>
       <c r="AL11" s="9">
         <v>386550</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AM11" s="22">
         <v>102288</v>
       </c>
       <c r="AN11" s="9">
         <v>4602960</v>
       </c>
-      <c r="AO11" s="26">
+      <c r="AO11" s="24">
         <v>106827</v>
       </c>
       <c r="AP11" s="6">
@@ -3351,23 +3345,23 @@
       <c r="BE11" s="6">
         <v>403</v>
       </c>
-      <c r="BF11" s="23">
+      <c r="BF11" s="22">
         <v>6</v>
       </c>
-      <c r="BG11" s="23">
+      <c r="BG11" s="22">
         <v>2556</v>
       </c>
-      <c r="BH11" s="23">
+      <c r="BH11" s="22">
         <f t="shared" si="1"/>
         <v>104850</v>
       </c>
-      <c r="BI11" s="23">
+      <c r="BI11" s="22">
         <v>545</v>
       </c>
-      <c r="BJ11" s="23">
+      <c r="BJ11" s="22">
         <v>107</v>
       </c>
-      <c r="BK11" s="23">
+      <c r="BK11" s="22">
         <v>1121</v>
       </c>
       <c r="BL11" s="6">
@@ -3395,224 +3389,20 @@
         <v>108921464</v>
       </c>
     </row>
-    <row r="12" spans="1:71" s="6" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>2025</v>
-      </c>
-      <c r="B12" s="6">
-        <v>91</v>
-      </c>
-      <c r="C12" s="6">
-        <v>75</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1107</v>
-      </c>
-      <c r="E12" s="16">
-        <v>15145</v>
-      </c>
-      <c r="F12" s="16">
-        <v>20733</v>
-      </c>
-      <c r="G12" s="16">
-        <v>28087</v>
-      </c>
-      <c r="H12" s="15">
-        <v>6</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
-      <c r="J12" s="15">
-        <v>98</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1012</v>
-      </c>
-      <c r="L12" s="15">
-        <v>421</v>
-      </c>
-      <c r="M12" s="15">
-        <v>64</v>
-      </c>
-      <c r="N12" s="6">
-        <v>107</v>
-      </c>
-      <c r="O12" s="8">
-        <v>5</v>
-      </c>
-      <c r="P12" s="8">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>84</v>
-      </c>
-      <c r="R12" s="6">
-        <v>135</v>
-      </c>
-      <c r="S12" s="6">
-        <v>127</v>
-      </c>
-      <c r="T12" s="6">
-        <v>13</v>
-      </c>
-      <c r="U12" s="6">
-        <v>10</v>
-      </c>
-      <c r="V12" s="6">
-        <v>28</v>
-      </c>
-      <c r="W12" s="6">
-        <v>26</v>
-      </c>
-      <c r="X12" s="6">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>90</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>18</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="6">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="AE12" s="6">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="AF12" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="AG12" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>2775</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>131</v>
-      </c>
-      <c r="AJ12" s="6">
-        <v>7460</v>
-      </c>
-      <c r="AK12" s="23">
-        <v>15884</v>
-      </c>
-      <c r="AL12" s="9">
-        <v>357390</v>
-      </c>
-      <c r="AM12" s="23">
-        <v>62589</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>2816505</v>
-      </c>
-      <c r="AO12" s="26">
-        <v>65402</v>
-      </c>
-      <c r="AP12" s="6">
-        <v>16</v>
-      </c>
-      <c r="AQ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="6">
-        <v>39</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>109</v>
-      </c>
-      <c r="AT12" s="6">
-        <v>218</v>
-      </c>
-      <c r="AU12" s="6">
-        <v>523</v>
-      </c>
-      <c r="AV12" s="6">
-        <v>1031</v>
-      </c>
-      <c r="AW12" s="6">
-        <v>2698</v>
-      </c>
-      <c r="AX12" s="6">
-        <v>3896</v>
-      </c>
-      <c r="AY12" s="6">
-        <v>16191</v>
-      </c>
-      <c r="AZ12" s="6">
-        <v>14755</v>
-      </c>
-      <c r="BA12" s="6">
-        <v>14312</v>
-      </c>
-      <c r="BB12" s="6">
-        <v>9058</v>
-      </c>
-      <c r="BC12" s="6">
-        <v>1597</v>
-      </c>
-      <c r="BD12" s="6">
-        <v>632</v>
-      </c>
-      <c r="BE12" s="6">
-        <v>327</v>
-      </c>
-      <c r="BF12" s="23">
-        <v>114</v>
-      </c>
-      <c r="BG12" s="23">
-        <v>1497</v>
-      </c>
-      <c r="BH12" s="23">
-        <f t="shared" si="1"/>
-        <v>64200</v>
-      </c>
-      <c r="BI12" s="23">
-        <v>403</v>
-      </c>
-      <c r="BJ12" s="23">
-        <v>94</v>
-      </c>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="12"/>
-      <c r="BM12" s="12"/>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="12"/>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="12"/>
-      <c r="BR12" s="12"/>
-      <c r="BS12" s="7">
-        <v>109374409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" s="6" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="AH13" s="7"/>
-      <c r="AK13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="23"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="23"/>
-      <c r="BH13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BS13" s="7"/>
+    <row r="12" spans="1:71" s="6" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="AH12" s="7"/>
+      <c r="AK12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BS12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B8128-BD7F-2346-83E8-F7C17B6D9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D609BA-4CF6-C64C-B412-165B388B634B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -221,36 +221,24 @@
     <t>t_tempo_ate_inicio_tratamento_ate_30_dias</t>
   </si>
   <si>
-    <t>t_tempo_ate_inicio_tratamento_31-60_dias</t>
-  </si>
-  <si>
     <t>t_tempo_ate_inicio_tratamento_mais_de_60_dias</t>
   </si>
   <si>
     <t>t_tempo_mamografia_ate_30_dias</t>
   </si>
   <si>
-    <t>t_tempo_mamografia_31-60_dias</t>
-  </si>
-  <si>
     <t>t_tempo_mamografia_mais_de_60_dias</t>
   </si>
   <si>
     <t>t_tempo_citopatologico_ate_30_dias</t>
   </si>
   <si>
-    <t>t_tempo_citopatologico_31-60_dias</t>
-  </si>
-  <si>
     <t>t_tempo_citopatologico_mais_de_60_dias</t>
   </si>
   <si>
     <t>t_tempo_histopatologico_ate_30_dias</t>
   </si>
   <si>
-    <t>t_tempo_histopatologico_31-60_dias</t>
-  </si>
-  <si>
     <t>t_tempo_histopatologico_mais_de_60_dias</t>
   </si>
   <si>
@@ -273,6 +261,18 @@
   </si>
   <si>
     <t>s_exames_rastreio_totais</t>
+  </si>
+  <si>
+    <t>t_tempo_ate_inicio_tratamento_31_60_dias</t>
+  </si>
+  <si>
+    <t>t_tempo_mamografia_31_60_dias</t>
+  </si>
+  <si>
+    <t>t_tempo_citopatologico_31_60_dias</t>
+  </si>
+  <si>
+    <t>t_tempo_histopatologico_31_60_dias</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:BS12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,43 +1063,43 @@
   <sheetData>
     <row r="1" spans="1:71" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>8</v>
@@ -1162,13 +1162,13 @@
         <v>27</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="21" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>31</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AP1" s="18" t="s">
         <v>32</v>
@@ -1240,7 +1240,7 @@
         <v>49</v>
       </c>
       <c r="BH1" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BI1" s="21" t="s">
         <v>48</v>
@@ -1273,7 +1273,7 @@
         <v>59</v>
       </c>
       <c r="BS1" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="6" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECA1AA6-F9A3-944A-B2B7-C56FC98B0BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD062181-4A06-F948-9622-6E6869799216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="3" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -1695,6 +1695,26 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,32 +1739,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2354,71 +2354,71 @@
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="56" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="58" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="59"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AA1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="61" t="s">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
       <c r="AW1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2434,35 +2434,35 @@
       <c r="BA1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="58" t="s">
+      <c r="BB1" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="58" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="58" t="s">
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="58" t="s">
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="59"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="55"/>
       <c r="BU1" s="15" t="s">
         <v>86</v>
       </c>
@@ -2492,30 +2492,30 @@
       <c r="E2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="53" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="17" t="s">
         <v>143</v>
       </c>
@@ -5665,14 +5665,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AQ1:AV1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="R1:U1"/>
@@ -5682,6 +5674,14 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AQ1:AV1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5692,14 +5692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA02A8-E350-DF48-B179-85AF1BE36AFE}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="67"/>
+    <col min="15" max="15" width="10.83203125" style="52"/>
     <col min="17" max="17" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
@@ -5746,7 +5746,7 @@
       <c r="N1" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="50" t="s">
         <v>222</v>
       </c>
       <c r="P1" s="43" t="s">
@@ -5797,14 +5797,14 @@
         <v>27</v>
       </c>
       <c r="M2" s="24">
-        <f>G2+I2+K2</f>
+        <f t="shared" ref="M2:M12" si="0">G2+I2+K2</f>
         <v>201</v>
       </c>
       <c r="N2" s="24">
-        <f>H2+J2+L2</f>
+        <f t="shared" ref="N2:N12" si="1">H2+J2+L2</f>
         <v>196</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="51">
         <f>N2*100/M2</f>
         <v>97.512437810945272</v>
       </c>
@@ -5850,15 +5850,15 @@
         <v>29</v>
       </c>
       <c r="M3" s="24">
-        <f>G3+I3+K3</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="N3" s="24">
-        <f>H3+J3+L3</f>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="O3" s="66">
-        <f t="shared" ref="O3:O12" si="0">N3*100/M3</f>
+      <c r="O3" s="51">
+        <f t="shared" ref="O3:O12" si="2">N3*100/M3</f>
         <v>97.101449275362313</v>
       </c>
       <c r="P3" s="24">
@@ -5903,15 +5903,15 @@
         <v>36</v>
       </c>
       <c r="M4" s="24">
-        <f>G4+I4+K4</f>
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="N4" s="24">
-        <f>H4+J4+L4</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="O4" s="66">
-        <f t="shared" si="0"/>
+      <c r="O4" s="51">
+        <f t="shared" si="2"/>
         <v>97.64150943396227</v>
       </c>
       <c r="P4" s="29">
@@ -5956,15 +5956,15 @@
         <v>43</v>
       </c>
       <c r="M5" s="24">
-        <f>G5+I5+K5</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="N5" s="24">
-        <f>H5+J5+L5</f>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="O5" s="66">
-        <f t="shared" si="0"/>
+      <c r="O5" s="51">
+        <f t="shared" si="2"/>
         <v>94.247787610619469</v>
       </c>
       <c r="P5" s="24">
@@ -6009,15 +6009,15 @@
         <v>54</v>
       </c>
       <c r="M6" s="24">
-        <f>G6+I6+K6</f>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="N6" s="24">
-        <f>H6+J6+L6</f>
+        <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="O6" s="66">
-        <f t="shared" si="0"/>
+      <c r="O6" s="51">
+        <f t="shared" si="2"/>
         <v>92.531120331950206</v>
       </c>
       <c r="P6" s="29">
@@ -6062,15 +6062,15 @@
         <v>57</v>
       </c>
       <c r="M7" s="24">
-        <f>G7+I7+K7</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="N7" s="24">
-        <f>H7+J7+L7</f>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="O7" s="66">
-        <f t="shared" si="0"/>
+      <c r="O7" s="51">
+        <f t="shared" si="2"/>
         <v>92.462311557788951</v>
       </c>
       <c r="P7" s="24">
@@ -6121,15 +6121,15 @@
         <v>66</v>
       </c>
       <c r="M8" s="24">
-        <f>G8+I8+K8</f>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="N8" s="24">
-        <f>H8+J8+L8</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="O8" s="66">
-        <f t="shared" si="0"/>
+      <c r="O8" s="51">
+        <f t="shared" si="2"/>
         <v>94.117647058823536</v>
       </c>
       <c r="P8" s="29">
@@ -6180,15 +6180,15 @@
         <v>76</v>
       </c>
       <c r="M9" s="24">
-        <f>G9+I9+K9</f>
+        <f t="shared" si="0"/>
         <v>237</v>
       </c>
       <c r="N9" s="24">
-        <f>H9+J9+L9</f>
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="O9" s="66">
-        <f t="shared" si="0"/>
+      <c r="O9" s="51">
+        <f t="shared" si="2"/>
         <v>93.248945147679322</v>
       </c>
       <c r="P9" s="24">
@@ -6239,15 +6239,15 @@
         <v>74</v>
       </c>
       <c r="M10" s="24">
-        <f>G10+I10+K10</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="N10" s="24">
-        <f>H10+J10+L10</f>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="O10" s="66">
-        <f t="shared" si="0"/>
+      <c r="O10" s="51">
+        <f t="shared" si="2"/>
         <v>94.117647058823536</v>
       </c>
       <c r="P10" s="29">
@@ -6298,15 +6298,15 @@
         <v>79</v>
       </c>
       <c r="M11" s="24">
-        <f>G11+I11+K11</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="N11" s="24">
-        <f>H11+J11+L11</f>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="O11" s="66">
-        <f t="shared" si="0"/>
+      <c r="O11" s="51">
+        <f t="shared" si="2"/>
         <v>94.672131147540981</v>
       </c>
       <c r="P11" s="24">
@@ -6357,15 +6357,15 @@
         <v>84</v>
       </c>
       <c r="M12" s="24">
-        <f>G12+I12+K12</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="N12" s="24">
-        <f>H12+J12+L12</f>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="O12" s="66">
-        <f t="shared" si="0"/>
+      <c r="O12" s="51">
+        <f t="shared" si="2"/>
         <v>93.675889328063235</v>
       </c>
       <c r="P12" s="24">
@@ -6380,7 +6380,7 @@
     </row>
     <row r="13" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="51"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="25"/>
     </row>
@@ -9812,14 +9812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="6" t="s">
         <v>58</v>
       </c>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD062181-4A06-F948-9622-6E6869799216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225D186-CB19-744B-94A6-4BA7DC983A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="3" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -1700,21 +1700,6 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1723,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2354,71 +2354,71 @@
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="64" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="53" t="s">
+      <c r="W1" s="60"/>
+      <c r="X1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="55"/>
+      <c r="Y1" s="62"/>
       <c r="Z1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="56" t="s">
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
       <c r="AW1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2434,35 +2434,35 @@
       <c r="BA1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="53" t="s">
+      <c r="BB1" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="53" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="53" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="53" t="s">
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="54"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="53" t="s">
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="55"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="62"/>
       <c r="BU1" s="15" t="s">
         <v>86</v>
       </c>
@@ -2492,30 +2492,30 @@
       <c r="E2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="61" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="17" t="s">
         <v>143</v>
       </c>
@@ -5665,6 +5665,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AQ1:AV1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="R1:U1"/>
@@ -5674,14 +5682,6 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AQ1:AV1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5690,10 +5690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA02A8-E350-DF48-B179-85AF1BE36AFE}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5797,11 +5797,11 @@
         <v>27</v>
       </c>
       <c r="M2" s="24">
-        <f t="shared" ref="M2:M12" si="0">G2+I2+K2</f>
+        <f t="shared" ref="M2:M11" si="0">G2+I2+K2</f>
         <v>201</v>
       </c>
       <c r="N2" s="24">
-        <f t="shared" ref="N2:N12" si="1">H2+J2+L2</f>
+        <f t="shared" ref="N2:N11" si="1">H2+J2+L2</f>
         <v>196</v>
       </c>
       <c r="O2" s="51">
@@ -5858,7 +5858,7 @@
         <v>201</v>
       </c>
       <c r="O3" s="51">
-        <f t="shared" ref="O3:O12" si="2">N3*100/M3</f>
+        <f t="shared" ref="O3:O11" si="2">N3*100/M3</f>
         <v>97.101449275362313</v>
       </c>
       <c r="P3" s="24">
@@ -6319,70 +6319,11 @@
         <v>108921464</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
-        <v>2025</v>
-      </c>
-      <c r="B12" s="24">
-        <v>91</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1107</v>
-      </c>
-      <c r="D12" s="39">
-        <v>15145</v>
-      </c>
-      <c r="E12" s="39">
-        <v>28087</v>
-      </c>
-      <c r="F12" s="24">
-        <v>107</v>
-      </c>
-      <c r="G12" s="24">
-        <v>135</v>
-      </c>
-      <c r="H12" s="24">
-        <v>127</v>
-      </c>
-      <c r="I12" s="24">
-        <v>28</v>
-      </c>
-      <c r="J12" s="24">
-        <v>26</v>
-      </c>
-      <c r="K12" s="24">
-        <v>90</v>
-      </c>
-      <c r="L12" s="24">
-        <v>84</v>
-      </c>
-      <c r="M12" s="24">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-      <c r="O12" s="51">
-        <f t="shared" si="2"/>
-        <v>93.675889328063235</v>
-      </c>
-      <c r="P12" s="24">
-        <v>7460</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>62589</v>
-      </c>
-      <c r="R12" s="25">
-        <v>109374409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="O13" s="51"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="25"/>
+    <row r="12" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="O12" s="51"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6394,7 +6335,7 @@
   <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225D186-CB19-744B-94A6-4BA7DC983A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B76B2-520F-844A-9001-977C8F66C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="3" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -1586,7 +1586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1700,6 +1700,21 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,26 +1739,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2354,71 +2364,71 @@
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="59" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="60"/>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="62"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="AA1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="64" t="s">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
       <c r="AW1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2434,35 +2444,35 @@
       <c r="BA1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="61" t="s">
+      <c r="BB1" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="61" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="61" t="s">
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="61" t="s">
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="61" t="s">
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="62"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="55"/>
       <c r="BU1" s="15" t="s">
         <v>86</v>
       </c>
@@ -2492,30 +2502,30 @@
       <c r="E2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="56" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="17" t="s">
         <v>143</v>
       </c>
@@ -5665,14 +5675,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="AQ1:AV1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="R1:U1"/>
@@ -5682,6 +5684,14 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AQ1:AV1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5692,8 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA02A8-E350-DF48-B179-85AF1BE36AFE}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5759,563 +5769,563 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:18" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
         <v>2015</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="69">
         <v>366</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="69">
         <v>693</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="70">
         <v>5</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="70">
         <v>9</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="69">
         <v>60</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="69">
         <v>142</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="69">
         <v>138</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="69">
         <v>32</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="69">
         <v>31</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="69">
         <v>27</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="69">
         <v>27</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="69">
         <f t="shared" ref="M2:M11" si="0">G2+I2+K2</f>
         <v>201</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="69">
         <f t="shared" ref="N2:N11" si="1">H2+J2+L2</f>
         <v>196</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="69">
         <f>N2*100/M2</f>
         <v>97.512437810945272</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="71">
         <v>5013</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="72">
         <v>88145</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="69">
         <v>103476277</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
+    <row r="3" spans="1:18" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A3" s="68">
         <v>2016</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="69">
         <v>410</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="69">
         <v>1319</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="69">
         <v>61</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="69">
         <v>148</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="69">
         <v>143</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="69">
         <v>30</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="69">
         <v>29</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="69">
         <v>29</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="69">
         <v>29</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="69">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="69">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="69">
         <f t="shared" ref="O3:O11" si="2">N3*100/M3</f>
         <v>97.101449275362313</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="69">
         <v>5261</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="72">
         <v>91272</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="69">
         <v>104241004</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
+    <row r="4" spans="1:18" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A4" s="68">
         <v>2017</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="69">
         <v>474</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="69">
         <v>1287</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="69">
         <v>67</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="69">
         <v>144</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="69">
         <v>140</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="69">
         <v>32</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="69">
         <v>31</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="69">
         <v>36</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="69">
         <v>36</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="69">
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="69">
         <f t="shared" si="2"/>
         <v>97.64150943396227</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="71">
         <v>5417</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="72">
         <v>88839</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="69">
         <v>104943736</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A5" s="26">
+    <row r="5" spans="1:18" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A5" s="68">
         <v>2018</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="69">
         <v>586</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="69">
         <v>1555</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="69">
         <v>84</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="69">
         <v>148</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="69">
         <v>138</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="69">
         <v>34</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="69">
         <v>32</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="69">
         <v>44</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="69">
         <v>43</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="69">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="69">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="69">
         <f t="shared" si="2"/>
         <v>94.247787610619469</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="69">
         <v>5109</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="72">
         <v>93730</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="69">
         <v>105633483</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
+    <row r="6" spans="1:18" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A6" s="68">
         <v>2019</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="69">
         <v>629</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="69">
         <v>1274</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="69">
         <v>104</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="69">
         <v>151</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="69">
         <v>139</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="69">
         <v>33</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="69">
         <v>30</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="69">
         <v>57</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="69">
         <v>54</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="69">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="69">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="69">
         <f t="shared" si="2"/>
         <v>92.531120331950206</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="71">
         <v>4974</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="72">
         <v>78686</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="69">
         <v>106348865</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="24" customFormat="1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A7" s="26">
+    <row r="7" spans="1:18" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A7" s="68">
         <v>2020</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="69">
         <v>452</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="69">
         <v>1146</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="69">
         <v>93</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="69">
         <v>110</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="69">
         <v>99</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="69">
         <v>30</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="69">
         <v>28</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="69">
         <v>59</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="69">
         <v>57</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="69">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="69">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="69">
         <f t="shared" si="2"/>
         <v>92.462311557788951</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="69">
         <v>5075</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="72">
         <v>37292</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="69">
         <v>107023935</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:18" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
         <v>2021</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="69">
         <v>502</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="69">
         <v>1344</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="73">
         <v>2045</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="73">
         <v>62</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="69">
         <v>94</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="69">
         <v>120</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="69">
         <v>114</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="69">
         <v>30</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="69">
         <v>28</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="69">
         <v>71</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="69">
         <v>66</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="69">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="69">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="69">
         <f t="shared" si="2"/>
         <v>94.117647058823536</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="71">
         <v>5393</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="72">
         <v>61057</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="69">
         <v>107552789</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+    <row r="9" spans="1:18" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="68">
         <v>2022</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="69">
         <v>313</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="69">
         <v>1314</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="70">
         <v>10920</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="70">
         <v>13661</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="69">
         <v>96</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="69">
         <v>125</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="69">
         <v>119</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="69">
         <v>30</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="69">
         <v>26</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="69">
         <v>82</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="69">
         <v>76</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="69">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="69">
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="69">
         <f t="shared" si="2"/>
         <v>93.248945147679322</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="69">
         <v>5511</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="72">
         <v>65905</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="69">
         <v>107987869</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+    <row r="10" spans="1:18" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
         <v>2023</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="69">
         <v>353</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="69">
         <v>1357</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="70">
         <v>22199</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="70">
         <v>39630</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="69">
         <v>100</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="69">
         <v>126</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="69">
         <v>120</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="69">
         <v>32</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="69">
         <v>30</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="69">
         <v>80</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="69">
         <v>74</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="69">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="69">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="69">
         <f t="shared" si="2"/>
         <v>94.117647058823536</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="71">
         <v>5980</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="72">
         <v>89966</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="69">
         <v>108443605</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="24" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+    <row r="11" spans="1:18" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68">
         <v>2024</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="69">
         <v>251</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="69">
         <v>1564</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="73">
         <v>20198</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="73">
         <v>40505</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="69">
         <v>104</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="69">
         <v>130</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="69">
         <v>123</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="69">
         <v>30</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="69">
         <v>29</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="69">
         <v>84</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="69">
         <v>79</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="69">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="69">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="69">
         <f t="shared" si="2"/>
         <v>94.672131147540981</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="69">
         <v>6567</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="72">
         <v>102288</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="69">
         <v>108921464</v>
       </c>
     </row>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B76B2-520F-844A-9001-977C8F66C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF57408-7F8C-6F48-98A6-F8519F9D8CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="3" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F838E5A-AE32-8240-8E00-67992C6BEFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F031EA-9E71-3E44-8E53-6388F67673C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="98">
   <si>
     <t>Mamografo com Comando Simples</t>
   </si>
@@ -1295,11 +1295,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6937F887-9FCB-4051-9CDF-E572BB71B3A7}">
-  <dimension ref="A1:X120"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A121" sqref="A121:XFD149"/>
+      <selection pane="topRight" activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2550,98 +2550,76 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="19">
-        <f>SUM(C4:C17)</f>
-        <v>1090</v>
-      </c>
-      <c r="D18" s="19">
-        <f>SUM(D4:D17)</f>
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="19">
-        <f>SUM(E2:E17)</f>
-        <v>976</v>
+        <v>13</v>
       </c>
       <c r="F18" s="19">
-        <f>SUM(F2:F17)</f>
-        <v>1271</v>
-      </c>
-      <c r="G18" s="19">
-        <f>SUM(G4:G17)</f>
-        <v>3273</v>
-      </c>
-      <c r="H18" s="19">
-        <f>SUM(H4:H17)</f>
-        <v>3127</v>
-      </c>
-      <c r="I18" s="19">
-        <f>SUM(I5:I17)</f>
-        <v>5262</v>
-      </c>
-      <c r="J18" s="19">
-        <f t="shared" ref="J18:K18" si="0">SUM(J7:J17)</f>
-        <v>3143</v>
-      </c>
-      <c r="K18" s="19">
-        <f t="shared" si="0"/>
-        <v>14781</v>
-      </c>
-      <c r="L18" s="19">
-        <f>SUM(L6:L17)</f>
-        <v>73335</v>
-      </c>
-      <c r="M18" s="19">
-        <f t="shared" ref="M18:N18" si="1">SUM(M6:M17)</f>
-        <v>110061</v>
-      </c>
-      <c r="N18" s="19">
-        <f t="shared" si="1"/>
-        <v>126434</v>
-      </c>
-      <c r="O18" s="19">
-        <f>SUM(O6:O17)</f>
-        <v>46</v>
-      </c>
-      <c r="P18" s="19">
-        <f t="shared" ref="P18:Q18" si="2">SUM(P6:P17)</f>
-        <v>19</v>
-      </c>
-      <c r="Q18" s="19">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="R18" s="19">
-        <f>SUM(R6:R17)</f>
-        <v>4071</v>
-      </c>
-      <c r="S18" s="19">
-        <f t="shared" ref="S18:T18" si="3">SUM(S6:S17)</f>
-        <v>1133</v>
-      </c>
-      <c r="T18" s="19">
-        <f t="shared" si="3"/>
-        <v>411</v>
+        <v>31</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U18" s="20">
-        <f>SUM(U2:U17)</f>
-        <v>57164823</v>
+        <v>551462</v>
       </c>
       <c r="V18" s="19">
-        <f>SUM(V2:V17)</f>
-        <v>27121</v>
+        <v>74</v>
       </c>
       <c r="W18" s="19">
-        <f>SUM(W2:W17)</f>
-        <v>1935</v>
+        <v>3</v>
       </c>
       <c r="X18" s="19">
-        <f>SUM(X2:X17)</f>
-        <v>16911</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
@@ -2649,7 +2627,7 @@
         <v>68</v>
       </c>
       <c r="B19" s="23">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>12</v>
@@ -2657,11 +2635,11 @@
       <c r="D19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="19">
-        <v>13</v>
-      </c>
-      <c r="F19" s="19">
-        <v>31</v>
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>12</v>
@@ -2706,16 +2684,16 @@
         <v>25</v>
       </c>
       <c r="U19" s="20">
-        <v>551462</v>
+        <v>550616</v>
       </c>
       <c r="V19" s="19">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X19" s="19">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
@@ -2723,25 +2701,25 @@
         <v>68</v>
       </c>
       <c r="B20" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>12</v>
+        <v>2012</v>
+      </c>
+      <c r="C20" s="19">
+        <v>8</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>12</v>
+      <c r="E20" s="19">
+        <v>12</v>
+      </c>
+      <c r="F20" s="19">
+        <v>36</v>
+      </c>
+      <c r="G20" s="19">
+        <v>21</v>
+      </c>
+      <c r="H20" s="19">
+        <v>21</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>25</v>
@@ -2780,16 +2758,16 @@
         <v>25</v>
       </c>
       <c r="U20" s="20">
-        <v>550616</v>
+        <v>548668</v>
       </c>
       <c r="V20" s="19">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="W20" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X20" s="19">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
@@ -2797,7 +2775,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="23">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -2809,13 +2787,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" s="19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -2854,16 +2832,16 @@
         <v>25</v>
       </c>
       <c r="U21" s="20">
-        <v>548668</v>
+        <v>546182</v>
       </c>
       <c r="V21" s="19">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="W21" s="19">
         <v>1</v>
       </c>
       <c r="X21" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
@@ -2871,7 +2849,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="23">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C22" s="19">
         <v>8</v>
@@ -2880,16 +2858,16 @@
         <v>12</v>
       </c>
       <c r="E22" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="19">
         <v>37</v>
       </c>
       <c r="G22" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>25</v>
@@ -2900,14 +2878,14 @@
       <c r="K22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>25</v>
+      <c r="L22" s="19">
+        <v>224</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1185</v>
+      </c>
+      <c r="N22" s="19">
+        <v>2319</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>25</v>
@@ -2928,27 +2906,27 @@
         <v>25</v>
       </c>
       <c r="U22" s="20">
-        <v>546182</v>
+        <v>543740</v>
       </c>
       <c r="V22" s="19">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" s="19">
         <v>1</v>
       </c>
       <c r="X22" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="23">
-        <v>2014</v>
+      <c r="B23" s="21">
+        <v>2015</v>
       </c>
       <c r="C23" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>12</v>
@@ -2960,10 +2938,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H23" s="19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>25</v>
@@ -2975,13 +2953,13 @@
         <v>25</v>
       </c>
       <c r="L23" s="19">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="M23" s="19">
-        <v>1185</v>
+        <v>1897</v>
       </c>
       <c r="N23" s="19">
-        <v>2319</v>
+        <v>3176</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>25</v>
@@ -3002,16 +2980,16 @@
         <v>25</v>
       </c>
       <c r="U23" s="20">
-        <v>543740</v>
+        <v>541319</v>
       </c>
       <c r="V23" s="19">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="W23" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23" s="19">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
@@ -3019,73 +2997,73 @@
         <v>68</v>
       </c>
       <c r="B24" s="21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C24" s="19">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="19">
         <v>9</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="19">
-        <v>11</v>
       </c>
       <c r="F24" s="19">
         <v>37</v>
       </c>
       <c r="G24" s="19">
+        <v>30</v>
+      </c>
+      <c r="H24" s="19">
+        <v>30</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="19">
+        <v>626</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2838</v>
+      </c>
+      <c r="N24" s="19">
+        <v>2358</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="20">
+        <v>538527</v>
+      </c>
+      <c r="V24" s="19">
+        <v>75</v>
+      </c>
+      <c r="W24" s="19">
+        <v>2</v>
+      </c>
+      <c r="X24" s="19">
         <v>27</v>
-      </c>
-      <c r="H24" s="19">
-        <v>27</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="19">
-        <v>322</v>
-      </c>
-      <c r="M24" s="19">
-        <v>1897</v>
-      </c>
-      <c r="N24" s="19">
-        <v>3176</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="20">
-        <v>541319</v>
-      </c>
-      <c r="V24" s="19">
-        <v>68</v>
-      </c>
-      <c r="W24" s="19">
-        <v>3</v>
-      </c>
-      <c r="X24" s="19">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
@@ -3093,25 +3071,25 @@
         <v>68</v>
       </c>
       <c r="B25" s="21">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C25" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="19">
         <v>37</v>
       </c>
       <c r="G25" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>25</v>
@@ -3123,13 +3101,13 @@
         <v>25</v>
       </c>
       <c r="L25" s="19">
-        <v>626</v>
+        <v>1611</v>
       </c>
       <c r="M25" s="19">
-        <v>2838</v>
+        <v>367</v>
       </c>
       <c r="N25" s="19">
-        <v>2358</v>
+        <v>12</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>25</v>
@@ -3150,16 +3128,16 @@
         <v>25</v>
       </c>
       <c r="U25" s="20">
-        <v>538527</v>
+        <v>535342</v>
       </c>
       <c r="V25" s="19">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W25" s="19">
         <v>2</v>
       </c>
       <c r="X25" s="19">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
@@ -3167,25 +3145,25 @@
         <v>68</v>
       </c>
       <c r="B26" s="21">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C26" s="19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="19">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H26" s="19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>25</v>
@@ -3197,13 +3175,13 @@
         <v>25</v>
       </c>
       <c r="L26" s="19">
-        <v>1611</v>
+        <v>3975</v>
       </c>
       <c r="M26" s="19">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="N26" s="19">
-        <v>12</v>
+        <v>1826</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>25</v>
@@ -3224,16 +3202,16 @@
         <v>25</v>
       </c>
       <c r="U26" s="20">
-        <v>535342</v>
+        <v>531965</v>
       </c>
       <c r="V26" s="19">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="W26" s="19">
         <v>2</v>
       </c>
       <c r="X26" s="19">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
@@ -3241,7 +3219,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C27" s="19">
         <v>13</v>
@@ -3250,16 +3228,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" s="19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>25</v>
@@ -3271,13 +3249,13 @@
         <v>25</v>
       </c>
       <c r="L27" s="19">
-        <v>3975</v>
+        <v>9182</v>
       </c>
       <c r="M27" s="19">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="N27" s="19">
-        <v>1826</v>
+        <v>4598</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>25</v>
@@ -3298,16 +3276,16 @@
         <v>25</v>
       </c>
       <c r="U27" s="20">
-        <v>531965</v>
+        <v>528556</v>
       </c>
       <c r="V27" s="19">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W27" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" s="19">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
@@ -3315,25 +3293,25 @@
         <v>68</v>
       </c>
       <c r="B28" s="21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C28" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H28" s="19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>25</v>
@@ -3345,13 +3323,13 @@
         <v>25</v>
       </c>
       <c r="L28" s="19">
-        <v>9182</v>
+        <v>6978</v>
       </c>
       <c r="M28" s="19">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="N28" s="19">
-        <v>4598</v>
+        <v>3190</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>25</v>
@@ -3372,10 +3350,10 @@
         <v>25</v>
       </c>
       <c r="U28" s="20">
-        <v>528556</v>
+        <v>524809</v>
       </c>
       <c r="V28" s="19">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W28" s="19">
         <v>1</v>
@@ -3389,22 +3367,22 @@
         <v>68</v>
       </c>
       <c r="B29" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C29" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="19">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G29" s="19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="19">
         <v>27</v>
@@ -3419,13 +3397,13 @@
         <v>25</v>
       </c>
       <c r="L29" s="19">
-        <v>6978</v>
+        <v>3364</v>
       </c>
       <c r="M29" s="19">
-        <v>283</v>
+        <v>1269</v>
       </c>
       <c r="N29" s="19">
-        <v>3190</v>
+        <v>972</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>25</v>
@@ -3446,42 +3424,42 @@
         <v>25</v>
       </c>
       <c r="U29" s="20">
-        <v>524809</v>
+        <v>520249</v>
       </c>
       <c r="V29" s="19">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="W29" s="19">
         <v>1</v>
       </c>
       <c r="X29" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C30" s="19">
-        <v>9</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="19">
         <v>34</v>
       </c>
       <c r="G30" s="19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H30" s="19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>25</v>
@@ -3493,13 +3471,13 @@
         <v>25</v>
       </c>
       <c r="L30" s="19">
-        <v>3364</v>
+        <v>15321</v>
       </c>
       <c r="M30" s="19">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="N30" s="19">
-        <v>972</v>
+        <v>638</v>
       </c>
       <c r="O30" s="19" t="s">
         <v>25</v>
@@ -3520,16 +3498,16 @@
         <v>25</v>
       </c>
       <c r="U30" s="20">
-        <v>520249</v>
+        <v>515418</v>
       </c>
       <c r="V30" s="19">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="W30" s="19">
         <v>1</v>
       </c>
       <c r="X30" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -3537,25 +3515,25 @@
         <v>68</v>
       </c>
       <c r="B31" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C31" s="19">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G31" s="19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H31" s="19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>25</v>
@@ -3567,13 +3545,13 @@
         <v>25</v>
       </c>
       <c r="L31" s="19">
-        <v>15321</v>
+        <v>11727</v>
       </c>
       <c r="M31" s="19">
-        <v>1280</v>
+        <v>5063</v>
       </c>
       <c r="N31" s="19">
-        <v>638</v>
+        <v>3304</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>25</v>
@@ -3594,16 +3572,16 @@
         <v>25</v>
       </c>
       <c r="U31" s="20">
-        <v>515418</v>
+        <v>510745</v>
       </c>
       <c r="V31" s="19">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="W31" s="19">
         <v>1</v>
       </c>
       <c r="X31" s="19">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -3611,25 +3589,25 @@
         <v>68</v>
       </c>
       <c r="B32" s="21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C32" s="19">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G32" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>25</v>
@@ -3641,13 +3619,13 @@
         <v>25</v>
       </c>
       <c r="L32" s="19">
-        <v>11727</v>
+        <v>9122</v>
       </c>
       <c r="M32" s="19">
-        <v>5063</v>
+        <v>5654</v>
       </c>
       <c r="N32" s="19">
-        <v>3304</v>
+        <v>2470</v>
       </c>
       <c r="O32" s="19" t="s">
         <v>25</v>
@@ -3668,16 +3646,16 @@
         <v>25</v>
       </c>
       <c r="U32" s="20">
-        <v>510745</v>
+        <v>506119</v>
       </c>
       <c r="V32" s="19">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="W32" s="19">
         <v>1</v>
       </c>
       <c r="X32" s="19">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -3685,99 +3663,99 @@
         <v>68</v>
       </c>
       <c r="B33" s="21">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C33" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" s="19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33" s="19">
+        <v>34</v>
+      </c>
+      <c r="H33" s="19">
+        <v>33</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="19">
+        <v>5761</v>
+      </c>
+      <c r="M33" s="19">
+        <v>4761</v>
+      </c>
+      <c r="N33" s="19">
+        <v>1686</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="19">
         <v>23</v>
       </c>
-      <c r="H33" s="19">
-        <v>23</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="19">
-        <v>9122</v>
-      </c>
-      <c r="M33" s="19">
-        <v>5654</v>
-      </c>
-      <c r="N33" s="19">
-        <v>2470</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>25</v>
+      <c r="S33" s="19">
+        <v>179</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U33" s="20">
-        <v>506119</v>
+        <v>505967</v>
       </c>
       <c r="V33" s="19">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="W33" s="19">
         <v>1</v>
       </c>
       <c r="X33" s="19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="21">
-        <v>2025</v>
-      </c>
-      <c r="C34" s="19">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="B34" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E34" s="19">
         <v>7</v>
       </c>
       <c r="F34" s="19">
-        <v>23</v>
-      </c>
-      <c r="G34" s="19">
-        <v>34</v>
-      </c>
-      <c r="H34" s="19">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>25</v>
@@ -3788,14 +3766,14 @@
       <c r="K34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="19">
-        <v>5761</v>
-      </c>
-      <c r="M34" s="19">
-        <v>4761</v>
-      </c>
-      <c r="N34" s="19">
-        <v>1686</v>
+      <c r="L34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>25</v>
@@ -3806,112 +3784,100 @@
       <c r="Q34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R34" s="19">
-        <v>23</v>
-      </c>
-      <c r="S34" s="19">
-        <v>179</v>
+      <c r="R34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U34" s="20">
-        <v>505967</v>
+        <v>465048</v>
       </c>
       <c r="V34" s="19">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="W34" s="19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X34" s="19">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="20">
+        <v>465201</v>
+      </c>
+      <c r="V35" s="19">
+        <v>84</v>
+      </c>
+      <c r="W35" s="19">
         <v>9</v>
       </c>
-      <c r="C35" s="19">
-        <f>SUM(C21:C34)</f>
-        <v>146</v>
-      </c>
-      <c r="D35" s="19">
-        <v>10</v>
-      </c>
-      <c r="E35" s="19">
-        <f>SUM(E19:E34)</f>
-        <v>132</v>
-      </c>
-      <c r="F35" s="19">
-        <f>SUM(F19:F34)</f>
-        <v>512</v>
-      </c>
-      <c r="G35" s="19">
-        <f>SUM(G21:G34)</f>
-        <v>373</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" ref="H35" si="4">SUM(H21:H34)</f>
-        <v>368</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="19">
-        <f>SUM(L23:L34)</f>
-        <v>68213</v>
-      </c>
-      <c r="M35" s="19">
-        <f t="shared" ref="M35:N35" si="5">SUM(M23:M34)</f>
-        <v>24810</v>
-      </c>
-      <c r="N35" s="19">
-        <f t="shared" si="5"/>
-        <v>26549</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" s="19">
-        <v>23</v>
-      </c>
-      <c r="S35" s="19">
-        <v>179</v>
-      </c>
-      <c r="T35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" s="20">
-        <f>SUM(U19:U34)</f>
-        <v>8499684</v>
-      </c>
-      <c r="V35" s="19">
-        <f>SUM(V19:V34)</f>
-        <v>1431</v>
-      </c>
-      <c r="W35" s="19">
-        <f>SUM(W19:W34)</f>
-        <v>26</v>
-      </c>
       <c r="X35" s="19">
-        <f>SUM(X19:X34)</f>
-        <v>548</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
@@ -3919,25 +3885,25 @@
         <v>69</v>
       </c>
       <c r="B36" s="23">
-        <v>2010</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>12</v>
+        <v>2012</v>
+      </c>
+      <c r="C36" s="19">
+        <v>5</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="19">
-        <v>10</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G36" s="19">
+        <v>11</v>
+      </c>
+      <c r="H36" s="19">
+        <v>9</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>25</v>
@@ -3976,16 +3942,16 @@
         <v>25</v>
       </c>
       <c r="U36" s="20">
-        <v>465048</v>
+        <v>465173</v>
       </c>
       <c r="V36" s="19">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="W36" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X36" s="19">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
@@ -3993,25 +3959,25 @@
         <v>69</v>
       </c>
       <c r="B37" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>12</v>
+        <v>2013</v>
+      </c>
+      <c r="C37" s="19">
+        <v>5</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>12</v>
+      <c r="E37" s="19">
+        <v>7</v>
+      </c>
+      <c r="F37" s="19">
+        <v>11</v>
+      </c>
+      <c r="G37" s="19">
+        <v>10</v>
+      </c>
+      <c r="H37" s="19">
+        <v>8</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>25</v>
@@ -4050,16 +4016,16 @@
         <v>25</v>
       </c>
       <c r="U37" s="20">
-        <v>465201</v>
+        <v>465087</v>
       </c>
       <c r="V37" s="19">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="W37" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X37" s="19">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
@@ -4067,10 +4033,10 @@
         <v>69</v>
       </c>
       <c r="B38" s="23">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C38" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>12</v>
@@ -4079,13 +4045,13 @@
         <v>6</v>
       </c>
       <c r="F38" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>25</v>
@@ -4124,27 +4090,27 @@
         <v>25</v>
       </c>
       <c r="U38" s="20">
-        <v>465173</v>
+        <v>465103</v>
       </c>
       <c r="V38" s="19">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="W38" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X38" s="19">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="23">
-        <v>2013</v>
+      <c r="B39" s="21">
+        <v>2015</v>
       </c>
       <c r="C39" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>12</v>
@@ -4153,22 +4119,22 @@
         <v>7</v>
       </c>
       <c r="F39" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="19">
+        <v>12</v>
+      </c>
+      <c r="H39" s="19">
         <v>10</v>
       </c>
-      <c r="H39" s="19">
-        <v>8</v>
-      </c>
       <c r="I39" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="19" t="s">
-        <v>25</v>
+      <c r="K39" s="19">
+        <v>1</v>
       </c>
       <c r="L39" s="19" t="s">
         <v>25</v>
@@ -4198,24 +4164,24 @@
         <v>25</v>
       </c>
       <c r="U39" s="20">
-        <v>465087</v>
+        <v>465159</v>
       </c>
       <c r="V39" s="19">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="W39" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X39" s="19">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="23">
-        <v>2014</v>
+      <c r="B40" s="21">
+        <v>2016</v>
       </c>
       <c r="C40" s="19">
         <v>6</v>
@@ -4224,16 +4190,16 @@
         <v>12</v>
       </c>
       <c r="E40" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>25</v>
@@ -4272,42 +4238,42 @@
         <v>25</v>
       </c>
       <c r="U40" s="20">
-        <v>465103</v>
+        <v>464849</v>
       </c>
       <c r="V40" s="19">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="W40" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="19">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="21">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C41" s="19">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
         <v>6</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="19">
-        <v>7</v>
-      </c>
       <c r="F41" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H41" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>25</v>
@@ -4315,8 +4281,8 @@
       <c r="J41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="19">
-        <v>1</v>
+      <c r="K41" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>25</v>
@@ -4346,42 +4312,42 @@
         <v>25</v>
       </c>
       <c r="U41" s="20">
-        <v>465159</v>
+        <v>464128</v>
       </c>
       <c r="V41" s="19">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="W41" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="19">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="21">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C42" s="19">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19">
         <v>6</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="19">
-        <v>7</v>
-      </c>
       <c r="F42" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H42" s="19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>25</v>
@@ -4420,10 +4386,10 @@
         <v>25</v>
       </c>
       <c r="U42" s="20">
-        <v>464849</v>
+        <v>463208</v>
       </c>
       <c r="V42" s="19">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W42" s="19">
         <v>0</v>
@@ -4437,10 +4403,10 @@
         <v>69</v>
       </c>
       <c r="B43" s="21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4455,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>25</v>
@@ -4466,14 +4432,14 @@
       <c r="K43" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>25</v>
+      <c r="L43" s="19">
+        <v>9</v>
+      </c>
+      <c r="M43" s="19">
+        <v>300</v>
+      </c>
+      <c r="N43" s="19">
+        <v>510</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>25</v>
@@ -4494,16 +4460,16 @@
         <v>25</v>
       </c>
       <c r="U43" s="20">
-        <v>464128</v>
+        <v>462202</v>
       </c>
       <c r="V43" s="19">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="W43" s="19">
         <v>0</v>
       </c>
       <c r="X43" s="19">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -4511,10 +4477,10 @@
         <v>69</v>
       </c>
       <c r="B44" s="21">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C44" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4523,13 +4489,13 @@
         <v>6</v>
       </c>
       <c r="F44" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H44" s="19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>25</v>
@@ -4540,14 +4506,14 @@
       <c r="K44" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="19" t="s">
-        <v>25</v>
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
+        <v>0</v>
+      </c>
+      <c r="N44" s="19">
+        <v>2735</v>
       </c>
       <c r="O44" s="19" t="s">
         <v>25</v>
@@ -4568,16 +4534,16 @@
         <v>25</v>
       </c>
       <c r="U44" s="20">
-        <v>463208</v>
+        <v>460883</v>
       </c>
       <c r="V44" s="19">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W44" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="19">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -4585,25 +4551,25 @@
         <v>69</v>
       </c>
       <c r="B45" s="21">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C45" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H45" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>25</v>
@@ -4615,13 +4581,13 @@
         <v>25</v>
       </c>
       <c r="L45" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N45" s="19">
-        <v>510</v>
+        <v>6559</v>
       </c>
       <c r="O45" s="19" t="s">
         <v>25</v>
@@ -4642,42 +4608,42 @@
         <v>25</v>
       </c>
       <c r="U45" s="20">
-        <v>462202</v>
+        <v>458840</v>
       </c>
       <c r="V45" s="19">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="W45" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="19">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="19">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E46" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H46" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>25</v>
@@ -4689,13 +4655,13 @@
         <v>25</v>
       </c>
       <c r="L46" s="19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M46" s="19">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="N46" s="19">
-        <v>2735</v>
+        <v>6318</v>
       </c>
       <c r="O46" s="19" t="s">
         <v>25</v>
@@ -4716,42 +4682,42 @@
         <v>25</v>
       </c>
       <c r="U46" s="20">
-        <v>460883</v>
+        <v>456430</v>
       </c>
       <c r="V46" s="19">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="W46" s="19">
         <v>1</v>
       </c>
       <c r="X46" s="19">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="21">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C47" s="19">
-        <v>7</v>
-      </c>
-      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="19">
         <v>1</v>
       </c>
       <c r="E47" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" s="19">
         <v>11</v>
       </c>
       <c r="G47" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" s="19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>25</v>
@@ -4763,13 +4729,13 @@
         <v>25</v>
       </c>
       <c r="L47" s="19">
-        <v>0</v>
+        <v>4437</v>
       </c>
       <c r="M47" s="19">
-        <v>0</v>
+        <v>5026</v>
       </c>
       <c r="N47" s="19">
-        <v>6559</v>
+        <v>2505</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>25</v>
@@ -4790,16 +4756,16 @@
         <v>25</v>
       </c>
       <c r="U47" s="20">
-        <v>458840</v>
+        <v>454038</v>
       </c>
       <c r="V47" s="19">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="W47" s="19">
         <v>1</v>
       </c>
       <c r="X47" s="19">
-        <v>196</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
@@ -4807,10 +4773,10 @@
         <v>69</v>
       </c>
       <c r="B48" s="21">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C48" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>12</v>
@@ -4819,13 +4785,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="19">
         <v>12</v>
       </c>
       <c r="H48" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>25</v>
@@ -4833,17 +4799,17 @@
       <c r="J48" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="19" t="s">
-        <v>25</v>
+      <c r="K48" s="19">
+        <v>1</v>
       </c>
       <c r="L48" s="19">
-        <v>15</v>
+        <v>752</v>
       </c>
       <c r="M48" s="19">
-        <v>233</v>
+        <v>2542</v>
       </c>
       <c r="N48" s="19">
-        <v>6318</v>
+        <v>7093</v>
       </c>
       <c r="O48" s="19" t="s">
         <v>25</v>
@@ -4864,16 +4830,16 @@
         <v>25</v>
       </c>
       <c r="U48" s="20">
-        <v>456430</v>
+        <v>451688</v>
       </c>
       <c r="V48" s="19">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W48" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X48" s="19">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
@@ -4881,99 +4847,99 @@
         <v>69</v>
       </c>
       <c r="B49" s="21">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C49" s="19">
-        <v>10</v>
-      </c>
-      <c r="D49" s="19">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E49" s="19">
+        <v>5</v>
+      </c>
+      <c r="F49" s="19">
+        <v>9</v>
+      </c>
+      <c r="G49" s="19">
+        <v>14</v>
+      </c>
+      <c r="H49" s="19">
+        <v>12</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="19">
+        <v>822</v>
+      </c>
+      <c r="M49" s="19">
+        <v>2035</v>
+      </c>
+      <c r="N49" s="19">
+        <v>2724</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="20">
+        <v>451712</v>
+      </c>
+      <c r="V49" s="19">
+        <v>141</v>
+      </c>
+      <c r="W49" s="19">
         <v>4</v>
       </c>
-      <c r="F49" s="19">
-        <v>11</v>
-      </c>
-      <c r="G49" s="19">
-        <v>13</v>
-      </c>
-      <c r="H49" s="19">
-        <v>13</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="19">
-        <v>4437</v>
-      </c>
-      <c r="M49" s="19">
-        <v>5026</v>
-      </c>
-      <c r="N49" s="19">
-        <v>2505</v>
-      </c>
-      <c r="O49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U49" s="20">
-        <v>454038</v>
-      </c>
-      <c r="V49" s="19">
-        <v>155</v>
-      </c>
-      <c r="W49" s="19">
-        <v>1</v>
-      </c>
       <c r="X49" s="19">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="21">
-        <v>2024</v>
-      </c>
-      <c r="C50" s="19">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="B50" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F50" s="19">
-        <v>10</v>
-      </c>
-      <c r="G50" s="19">
-        <v>12</v>
-      </c>
-      <c r="H50" s="19">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>25</v>
@@ -4981,17 +4947,17 @@
       <c r="J50" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="19">
-        <v>1</v>
-      </c>
-      <c r="L50" s="19">
-        <v>752</v>
-      </c>
-      <c r="M50" s="19">
-        <v>2542</v>
-      </c>
-      <c r="N50" s="19">
-        <v>7093</v>
+      <c r="K50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>25</v>
@@ -5012,41 +4978,41 @@
         <v>25</v>
       </c>
       <c r="U50" s="20">
-        <v>451688</v>
+        <v>425757</v>
       </c>
       <c r="V50" s="19">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="W50" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X50" s="19">
-        <v>262</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="21">
-        <v>2025</v>
-      </c>
-      <c r="C51" s="19">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="B51" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="19">
-        <v>5</v>
-      </c>
-      <c r="F51" s="19">
-        <v>9</v>
-      </c>
-      <c r="G51" s="19">
-        <v>14</v>
-      </c>
-      <c r="H51" s="19">
+      <c r="E51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="19" t="s">
@@ -5058,14 +5024,14 @@
       <c r="K51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="19">
-        <v>822</v>
-      </c>
-      <c r="M51" s="19">
-        <v>2035</v>
-      </c>
-      <c r="N51" s="19">
-        <v>2724</v>
+      <c r="L51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O51" s="19" t="s">
         <v>25</v>
@@ -5086,47 +5052,42 @@
         <v>25</v>
       </c>
       <c r="U51" s="20">
-        <v>451712</v>
+        <v>426679</v>
       </c>
       <c r="V51" s="19">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="W51" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X51" s="19">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="B52" s="23">
+        <v>2012</v>
       </c>
       <c r="C52" s="19">
-        <f>SUM(C38:C51)</f>
-        <v>102</v>
-      </c>
-      <c r="D52" s="19">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E52" s="19">
-        <f>SUM(E36:E51)</f>
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F52" s="19">
-        <f>SUM(F36:F51)</f>
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="G52" s="19">
-        <f>SUM(G38:G51)</f>
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" ref="H52" si="6">SUM(H38:H51)</f>
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>25</v>
@@ -5137,17 +5098,14 @@
       <c r="K52" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="19">
-        <f>SUM(L45:L51)</f>
-        <v>6035</v>
-      </c>
-      <c r="M52" s="19">
-        <f t="shared" ref="M52:N52" si="7">SUM(M45:M51)</f>
-        <v>10136</v>
-      </c>
-      <c r="N52" s="19">
-        <f t="shared" si="7"/>
-        <v>28444</v>
+      <c r="L52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O52" s="19" t="s">
         <v>25</v>
@@ -5168,20 +5126,16 @@
         <v>25</v>
       </c>
       <c r="U52" s="20">
-        <f>SUM(U36:U51)</f>
-        <v>7378749</v>
+        <v>428279</v>
       </c>
       <c r="V52" s="19">
-        <f>SUM(V36:V51)</f>
-        <v>1733</v>
+        <v>65</v>
       </c>
       <c r="W52" s="19">
-        <f>SUM(W36:W51)</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="X52" s="19">
-        <f>SUM(X36:X51)</f>
-        <v>3070</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.15">
@@ -5189,34 +5143,34 @@
         <v>70</v>
       </c>
       <c r="B53" s="23">
-        <v>2010</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>12</v>
+        <v>2013</v>
+      </c>
+      <c r="C53" s="19">
+        <v>4</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" s="19">
-        <v>22</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G53" s="19">
+        <v>17</v>
+      </c>
+      <c r="H53" s="19">
+        <v>16</v>
+      </c>
+      <c r="I53" s="19">
+        <v>3</v>
+      </c>
+      <c r="J53" s="19">
+        <v>1</v>
+      </c>
+      <c r="K53" s="19">
+        <v>6</v>
       </c>
       <c r="L53" s="19" t="s">
         <v>25</v>
@@ -5246,16 +5200,16 @@
         <v>25</v>
       </c>
       <c r="U53" s="20">
-        <v>425757</v>
+        <v>430209</v>
       </c>
       <c r="V53" s="19">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W53" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X53" s="19">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.15">
@@ -5263,43 +5217,43 @@
         <v>70</v>
       </c>
       <c r="B54" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>12</v>
+        <v>2014</v>
+      </c>
+      <c r="C54" s="19">
+        <v>5</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>25</v>
+      <c r="E54" s="19">
+        <v>10</v>
+      </c>
+      <c r="F54" s="19">
+        <v>24</v>
+      </c>
+      <c r="G54" s="19">
+        <v>18</v>
+      </c>
+      <c r="H54" s="19">
+        <v>17</v>
+      </c>
+      <c r="I54" s="19">
+        <v>2</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0</v>
+      </c>
+      <c r="K54" s="19">
+        <v>55</v>
+      </c>
+      <c r="L54" s="19">
+        <v>9262</v>
+      </c>
+      <c r="M54" s="19">
+        <v>192</v>
+      </c>
+      <c r="N54" s="19">
+        <v>10</v>
       </c>
       <c r="O54" s="19" t="s">
         <v>25</v>
@@ -5320,27 +5274,27 @@
         <v>25</v>
       </c>
       <c r="U54" s="20">
-        <v>426679</v>
+        <v>432194</v>
       </c>
       <c r="V54" s="19">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="W54" s="19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X54" s="19">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="23">
-        <v>2012</v>
+      <c r="B55" s="21">
+        <v>2015</v>
       </c>
       <c r="C55" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>12</v>
@@ -5349,32 +5303,32 @@
         <v>10</v>
       </c>
       <c r="F55" s="19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G55" s="19">
+        <v>18</v>
+      </c>
+      <c r="H55" s="19">
         <v>17</v>
       </c>
-      <c r="H55" s="19">
+      <c r="I55" s="19">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0</v>
+      </c>
+      <c r="K55" s="19">
+        <v>53</v>
+      </c>
+      <c r="L55" s="19">
+        <v>7453</v>
+      </c>
+      <c r="M55" s="19">
+        <v>222</v>
+      </c>
+      <c r="N55" s="19">
         <v>16</v>
       </c>
-      <c r="I55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="O55" s="19" t="s">
         <v>25</v>
       </c>
@@ -5394,60 +5348,60 @@
         <v>25</v>
       </c>
       <c r="U55" s="20">
-        <v>428279</v>
+        <v>434204</v>
       </c>
       <c r="V55" s="19">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="W55" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X55" s="19">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="23">
-        <v>2013</v>
+      <c r="B56" s="21">
+        <v>2016</v>
       </c>
       <c r="C56" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56" s="19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G56" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="19">
-        <v>6</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="L56" s="19">
+        <v>9612</v>
+      </c>
+      <c r="M56" s="19">
+        <v>171</v>
+      </c>
+      <c r="N56" s="19">
+        <v>18</v>
       </c>
       <c r="O56" s="19" t="s">
         <v>25</v>
@@ -5468,24 +5422,24 @@
         <v>25</v>
       </c>
       <c r="U56" s="20">
-        <v>430209</v>
+        <v>435883</v>
       </c>
       <c r="V56" s="19">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W56" s="19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X56" s="19">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="23">
-        <v>2014</v>
+      <c r="B57" s="21">
+        <v>2017</v>
       </c>
       <c r="C57" s="19">
         <v>5</v>
@@ -5500,58 +5454,58 @@
         <v>24</v>
       </c>
       <c r="G57" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H57" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I57" s="19">
         <v>2</v>
       </c>
       <c r="J57" s="19">
+        <v>2</v>
+      </c>
+      <c r="K57" s="19">
+        <v>34</v>
+      </c>
+      <c r="L57" s="19">
+        <v>7592</v>
+      </c>
+      <c r="M57" s="19">
+        <v>238</v>
+      </c>
+      <c r="N57" s="19">
+        <v>13</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="20">
+        <v>437176</v>
+      </c>
+      <c r="V57" s="19">
+        <v>82</v>
+      </c>
+      <c r="W57" s="19">
         <v>0</v>
       </c>
-      <c r="K57" s="19">
-        <v>55</v>
-      </c>
-      <c r="L57" s="19">
-        <v>9262</v>
-      </c>
-      <c r="M57" s="19">
-        <v>192</v>
-      </c>
-      <c r="N57" s="19">
-        <v>10</v>
-      </c>
-      <c r="O57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U57" s="20">
-        <v>432194</v>
-      </c>
-      <c r="V57" s="19">
-        <v>90</v>
-      </c>
-      <c r="W57" s="19">
-        <v>3</v>
-      </c>
       <c r="X57" s="19">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.15">
@@ -5559,19 +5513,19 @@
         <v>70</v>
       </c>
       <c r="B58" s="21">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C58" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G58" s="19">
         <v>18</v>
@@ -5580,22 +5534,22 @@
         <v>17</v>
       </c>
       <c r="I58" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J58" s="19">
         <v>0</v>
       </c>
       <c r="K58" s="19">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L58" s="19">
-        <v>7453</v>
+        <v>5646</v>
       </c>
       <c r="M58" s="19">
-        <v>222</v>
+        <v>1287</v>
       </c>
       <c r="N58" s="19">
-        <v>16</v>
+        <v>409</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>25</v>
@@ -5616,16 +5570,16 @@
         <v>25</v>
       </c>
       <c r="U58" s="20">
-        <v>434204</v>
+        <v>438271</v>
       </c>
       <c r="V58" s="19">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="W58" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X58" s="19">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.15">
@@ -5633,43 +5587,43 @@
         <v>70</v>
       </c>
       <c r="B59" s="21">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C59" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F59" s="19">
+        <v>22</v>
+      </c>
+      <c r="G59" s="19">
+        <v>25</v>
+      </c>
+      <c r="H59" s="19">
         <v>24</v>
       </c>
-      <c r="G59" s="19">
-        <v>16</v>
-      </c>
-      <c r="H59" s="19">
-        <v>15</v>
-      </c>
       <c r="I59" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J59" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="19">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L59" s="19">
-        <v>9612</v>
+        <v>8109</v>
       </c>
       <c r="M59" s="19">
-        <v>171</v>
+        <v>2587</v>
       </c>
       <c r="N59" s="19">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>25</v>
@@ -5690,16 +5644,16 @@
         <v>25</v>
       </c>
       <c r="U59" s="20">
-        <v>435883</v>
+        <v>439289</v>
       </c>
       <c r="V59" s="19">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="W59" s="19">
         <v>0</v>
       </c>
       <c r="X59" s="19">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.15">
@@ -5707,43 +5661,43 @@
         <v>70</v>
       </c>
       <c r="B60" s="21">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C60" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" s="19">
+        <v>21</v>
+      </c>
+      <c r="G60" s="19">
+        <v>26</v>
+      </c>
+      <c r="H60" s="19">
         <v>24</v>
       </c>
-      <c r="G60" s="19">
-        <v>16</v>
-      </c>
-      <c r="H60" s="19">
-        <v>15</v>
-      </c>
       <c r="I60" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L60" s="19">
-        <v>7592</v>
+        <v>6107</v>
       </c>
       <c r="M60" s="19">
-        <v>238</v>
+        <v>967</v>
       </c>
       <c r="N60" s="19">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="O60" s="19" t="s">
         <v>25</v>
@@ -5764,16 +5718,16 @@
         <v>25</v>
       </c>
       <c r="U60" s="20">
-        <v>437176</v>
+        <v>440007</v>
       </c>
       <c r="V60" s="19">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W60" s="19">
         <v>0</v>
       </c>
       <c r="X60" s="19">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.15">
@@ -5781,43 +5735,43 @@
         <v>70</v>
       </c>
       <c r="B61" s="21">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C61" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G61" s="19">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H61" s="19">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I61" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J61" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K61" s="19">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L61" s="19">
-        <v>5646</v>
+        <v>3399</v>
       </c>
       <c r="M61" s="19">
-        <v>1287</v>
+        <v>1315</v>
       </c>
       <c r="N61" s="19">
-        <v>409</v>
+        <v>1734</v>
       </c>
       <c r="O61" s="19" t="s">
         <v>25</v>
@@ -5838,16 +5792,16 @@
         <v>25</v>
       </c>
       <c r="U61" s="20">
-        <v>438271</v>
+        <v>440053</v>
       </c>
       <c r="V61" s="19">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="W61" s="19">
         <v>0</v>
       </c>
       <c r="X61" s="19">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
@@ -5855,43 +5809,43 @@
         <v>70</v>
       </c>
       <c r="B62" s="21">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C62" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" s="19">
+        <v>20</v>
+      </c>
+      <c r="G62" s="19">
         <v>22</v>
       </c>
-      <c r="G62" s="19">
-        <v>25</v>
-      </c>
       <c r="H62" s="19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I62" s="19">
         <v>7</v>
       </c>
       <c r="J62" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="19">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L62" s="19">
-        <v>8109</v>
+        <v>2108</v>
       </c>
       <c r="M62" s="19">
-        <v>2587</v>
+        <v>3673</v>
       </c>
       <c r="N62" s="19">
-        <v>403</v>
+        <v>2912</v>
       </c>
       <c r="O62" s="19" t="s">
         <v>25</v>
@@ -5912,16 +5866,16 @@
         <v>25</v>
       </c>
       <c r="U62" s="20">
-        <v>439289</v>
+        <v>439785</v>
       </c>
       <c r="V62" s="19">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="W62" s="19">
         <v>0</v>
       </c>
       <c r="X62" s="19">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.15">
@@ -5929,43 +5883,43 @@
         <v>70</v>
       </c>
       <c r="B63" s="21">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C63" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="19">
+        <v>17</v>
+      </c>
+      <c r="G63" s="19">
+        <v>23</v>
+      </c>
+      <c r="H63" s="19">
         <v>21</v>
       </c>
-      <c r="G63" s="19">
+      <c r="I63" s="19">
         <v>26</v>
       </c>
-      <c r="H63" s="19">
-        <v>24</v>
-      </c>
-      <c r="I63" s="19">
-        <v>4</v>
-      </c>
       <c r="J63" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63" s="19">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="L63" s="19">
-        <v>6107</v>
+        <v>3932</v>
       </c>
       <c r="M63" s="19">
-        <v>967</v>
+        <v>2649</v>
       </c>
       <c r="N63" s="19">
-        <v>79</v>
+        <v>3750</v>
       </c>
       <c r="O63" s="19" t="s">
         <v>25</v>
@@ -5986,16 +5940,16 @@
         <v>25</v>
       </c>
       <c r="U63" s="20">
-        <v>440007</v>
+        <v>439605</v>
       </c>
       <c r="V63" s="19">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="W63" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="19">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.15">
@@ -6003,7 +5957,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="21">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C64" s="19">
         <v>10</v>
@@ -6012,34 +5966,34 @@
         <v>12</v>
       </c>
       <c r="E64" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G64" s="19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H64" s="19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I64" s="19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J64" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" s="19">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="L64" s="19">
-        <v>3399</v>
+        <v>7570</v>
       </c>
       <c r="M64" s="19">
-        <v>1315</v>
+        <v>8068</v>
       </c>
       <c r="N64" s="19">
-        <v>1734</v>
+        <v>1752</v>
       </c>
       <c r="O64" s="19" t="s">
         <v>25</v>
@@ -6060,16 +6014,16 @@
         <v>25</v>
       </c>
       <c r="U64" s="20">
-        <v>440053</v>
+        <v>439376</v>
       </c>
       <c r="V64" s="19">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="W64" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="19">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.15">
@@ -6077,43 +6031,43 @@
         <v>70</v>
       </c>
       <c r="B65" s="21">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C65" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F65" s="19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G65" s="19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H65" s="19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I65" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J65" s="19">
         <v>0</v>
       </c>
       <c r="K65" s="19">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L65" s="19">
-        <v>2108</v>
+        <v>5932</v>
       </c>
       <c r="M65" s="19">
-        <v>3673</v>
+        <v>2504</v>
       </c>
       <c r="N65" s="19">
-        <v>2912</v>
+        <v>356</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>25</v>
@@ -6134,327 +6088,240 @@
         <v>25</v>
       </c>
       <c r="U65" s="20">
-        <v>439785</v>
+        <v>439467</v>
       </c>
       <c r="V65" s="19">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W65" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="19">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="21">
-        <v>2023</v>
-      </c>
-      <c r="C66" s="19">
-        <v>10</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="B66" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="19">
+        <v>5</v>
       </c>
       <c r="E66" s="19">
         <v>9</v>
       </c>
       <c r="F66" s="19">
-        <v>17</v>
-      </c>
-      <c r="G66" s="19">
-        <v>23</v>
-      </c>
-      <c r="H66" s="19">
-        <v>21</v>
-      </c>
-      <c r="I66" s="19">
-        <v>26</v>
-      </c>
-      <c r="J66" s="19">
-        <v>5</v>
-      </c>
-      <c r="K66" s="19">
-        <v>121</v>
-      </c>
-      <c r="L66" s="19">
-        <v>3932</v>
-      </c>
-      <c r="M66" s="19">
-        <v>2649</v>
-      </c>
-      <c r="N66" s="19">
-        <v>3750</v>
-      </c>
-      <c r="O66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T66" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U66" s="20">
-        <v>439605</v>
+        <v>246190</v>
       </c>
       <c r="V66" s="19">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="W66" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X66" s="19">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="21">
-        <v>2024</v>
-      </c>
-      <c r="C67" s="19">
-        <v>10</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="19">
-        <v>9</v>
-      </c>
-      <c r="F67" s="19">
-        <v>17</v>
-      </c>
-      <c r="G67" s="19">
-        <v>26</v>
-      </c>
-      <c r="H67" s="19">
-        <v>24</v>
-      </c>
-      <c r="I67" s="19">
-        <v>18</v>
-      </c>
-      <c r="J67" s="19">
-        <v>3</v>
-      </c>
-      <c r="K67" s="19">
-        <v>86</v>
-      </c>
-      <c r="L67" s="19">
-        <v>7570</v>
-      </c>
-      <c r="M67" s="19">
-        <v>8068</v>
-      </c>
-      <c r="N67" s="19">
-        <v>1752</v>
-      </c>
-      <c r="O67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T67" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="19">
+        <v>5</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U67" s="20">
-        <v>439376</v>
+        <v>248112</v>
       </c>
       <c r="V67" s="19">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="W67" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X67" s="19">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="21">
-        <v>2025</v>
+        <v>71</v>
+      </c>
+      <c r="B68" s="23">
+        <v>2012</v>
       </c>
       <c r="C68" s="19">
-        <v>10</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D68" s="19">
+        <v>5</v>
       </c>
       <c r="E68" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G68" s="19">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H68" s="19">
-        <v>27</v>
-      </c>
-      <c r="I68" s="19">
-        <v>4</v>
-      </c>
-      <c r="J68" s="19">
-        <v>0</v>
-      </c>
-      <c r="K68" s="19">
-        <v>0</v>
-      </c>
-      <c r="L68" s="19">
-        <v>5932</v>
-      </c>
-      <c r="M68" s="19">
-        <v>2504</v>
-      </c>
-      <c r="N68" s="19">
-        <v>356</v>
-      </c>
-      <c r="O68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T68" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U68" s="20">
-        <v>439467</v>
+        <v>250216</v>
       </c>
       <c r="V68" s="19">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="W68" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X68" s="19">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="23">
+        <v>2013</v>
+      </c>
+      <c r="C69" s="19">
         <v>9</v>
       </c>
-      <c r="C69" s="19">
-        <f>SUM(C55:C68)</f>
-        <v>98</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>12</v>
+      <c r="D69" s="19">
+        <v>5</v>
       </c>
       <c r="E69" s="19">
-        <f>SUM(E53:E68)</f>
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="F69" s="19">
-        <f>SUM(F53:F68)</f>
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="G69" s="19">
-        <f>SUM(G55:G68)</f>
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" ref="H69" si="8">SUM(H55:H68)</f>
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I69" s="19">
-        <f>SUM(I56:I68)</f>
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J69" s="19">
-        <f t="shared" ref="J69:K69" si="9">SUM(J56:J68)</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="9"/>
-        <v>659</v>
-      </c>
-      <c r="L69" s="19">
-        <f>SUM(L57:L68)</f>
-        <v>76722</v>
-      </c>
-      <c r="M69" s="19">
-        <f t="shared" ref="M69:N69" si="10">SUM(M57:M68)</f>
-        <v>23873</v>
-      </c>
-      <c r="N69" s="19">
-        <f t="shared" si="10"/>
-        <v>11452</v>
-      </c>
-      <c r="O69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T69" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U69" s="20">
-        <f>SUM(U53:U68)</f>
-        <v>6966234</v>
+        <v>252401</v>
       </c>
       <c r="V69" s="19">
-        <f>SUM(V53:V68)</f>
-        <v>1373</v>
+        <v>83</v>
       </c>
       <c r="W69" s="19">
-        <f>SUM(W53:W68)</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="X69" s="19">
-        <f>SUM(X53:X68)</f>
-        <v>1322</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.15">
@@ -6462,10 +6329,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="23">
-        <v>2010</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>12</v>
+        <v>2014</v>
+      </c>
+      <c r="C70" s="19">
+        <v>9</v>
       </c>
       <c r="D70" s="19">
         <v>5</v>
@@ -6476,76 +6343,76 @@
       <c r="F70" s="19">
         <v>11</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>25</v>
+      <c r="G70" s="19">
+        <v>18</v>
+      </c>
+      <c r="H70" s="19">
+        <v>18</v>
+      </c>
+      <c r="I70" s="19">
+        <v>30</v>
+      </c>
+      <c r="J70" s="19">
+        <v>20</v>
+      </c>
+      <c r="K70" s="19">
+        <v>102</v>
+      </c>
+      <c r="L70" s="19">
+        <v>315</v>
+      </c>
+      <c r="M70" s="19">
+        <v>448</v>
+      </c>
+      <c r="N70" s="19">
+        <v>409</v>
       </c>
       <c r="U70" s="20">
-        <v>246190</v>
+        <v>254639</v>
       </c>
       <c r="V70" s="19">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="W70" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X70" s="19">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>12</v>
+      <c r="B71" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C71" s="19">
+        <v>9</v>
       </c>
       <c r="D71" s="19">
         <v>5</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>25</v>
+      <c r="E71" s="19">
+        <v>9</v>
+      </c>
+      <c r="F71" s="19">
+        <v>12</v>
+      </c>
+      <c r="G71" s="19">
+        <v>18</v>
+      </c>
+      <c r="H71" s="19">
+        <v>17</v>
+      </c>
+      <c r="I71" s="19">
+        <v>36</v>
+      </c>
+      <c r="J71" s="19">
+        <v>22</v>
+      </c>
+      <c r="K71" s="19">
+        <v>107</v>
       </c>
       <c r="L71" s="19" t="s">
         <v>25</v>
@@ -6557,51 +6424,51 @@
         <v>25</v>
       </c>
       <c r="U71" s="20">
-        <v>248112</v>
+        <v>256889</v>
       </c>
       <c r="V71" s="19">
         <v>94</v>
       </c>
       <c r="W71" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X71" s="19">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="23">
-        <v>2012</v>
+      <c r="B72" s="21">
+        <v>2016</v>
       </c>
       <c r="C72" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="19">
         <v>5</v>
       </c>
       <c r="E72" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H72" s="19">
-        <v>17</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="I72" s="19">
+        <v>22</v>
+      </c>
+      <c r="J72" s="19">
+        <v>23</v>
+      </c>
+      <c r="K72" s="19">
+        <v>108</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>25</v>
@@ -6613,24 +6480,24 @@
         <v>25</v>
       </c>
       <c r="U72" s="20">
-        <v>250216</v>
+        <v>258944</v>
       </c>
       <c r="V72" s="19">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="W72" s="19">
         <v>5</v>
       </c>
       <c r="X72" s="19">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="23">
-        <v>2013</v>
+      <c r="B73" s="21">
+        <v>2017</v>
       </c>
       <c r="C73" s="19">
         <v>9</v>
@@ -6639,25 +6506,25 @@
         <v>5</v>
       </c>
       <c r="E73" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="19">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J73" s="19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K73" s="19">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="L73" s="19" t="s">
         <v>25</v>
@@ -6669,24 +6536,24 @@
         <v>25</v>
       </c>
       <c r="U73" s="20">
-        <v>252401</v>
+        <v>260773</v>
       </c>
       <c r="V73" s="19">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="W73" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X73" s="19">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="23">
-        <v>2014</v>
+      <c r="B74" s="21">
+        <v>2018</v>
       </c>
       <c r="C74" s="19">
         <v>9</v>
@@ -6695,46 +6562,46 @@
         <v>5</v>
       </c>
       <c r="E74" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" s="19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G74" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74" s="19">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J74" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K74" s="19">
-        <v>102</v>
-      </c>
-      <c r="L74" s="19">
-        <v>315</v>
-      </c>
-      <c r="M74" s="19">
-        <v>448</v>
-      </c>
-      <c r="N74" s="19">
-        <v>409</v>
+        <v>129</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U74" s="20">
-        <v>254639</v>
+        <v>262512</v>
       </c>
       <c r="V74" s="19">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="W74" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X74" s="19">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
@@ -6742,7 +6609,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="21">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="19">
         <v>9</v>
@@ -6757,40 +6624,58 @@
         <v>12</v>
       </c>
       <c r="G75" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" s="19">
+        <v>19</v>
+      </c>
+      <c r="I75" s="19">
+        <v>32</v>
+      </c>
+      <c r="J75" s="19">
+        <v>24</v>
+      </c>
+      <c r="K75" s="19">
+        <v>158</v>
+      </c>
+      <c r="L75" s="19">
+        <v>141</v>
+      </c>
+      <c r="M75" s="19">
+        <v>69</v>
+      </c>
+      <c r="N75" s="19">
+        <v>74</v>
+      </c>
+      <c r="O75" s="19">
+        <v>0</v>
+      </c>
+      <c r="P75" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>0</v>
+      </c>
+      <c r="R75" s="19">
+        <v>2</v>
+      </c>
+      <c r="S75" s="19">
+        <v>1</v>
+      </c>
+      <c r="T75" s="19">
         <v>17</v>
       </c>
-      <c r="I75" s="19">
-        <v>36</v>
-      </c>
-      <c r="J75" s="19">
-        <v>22</v>
-      </c>
-      <c r="K75" s="19">
-        <v>107</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M75" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U75" s="20">
-        <v>256889</v>
+        <v>264201</v>
       </c>
       <c r="V75" s="19">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="W75" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X75" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
@@ -6798,55 +6683,73 @@
         <v>71</v>
       </c>
       <c r="B76" s="21">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C76" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="19">
         <v>5</v>
       </c>
       <c r="E76" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" s="19">
         <v>12</v>
       </c>
       <c r="G76" s="19">
+        <v>21</v>
+      </c>
+      <c r="H76" s="19">
+        <v>21</v>
+      </c>
+      <c r="I76" s="19">
+        <v>27</v>
+      </c>
+      <c r="J76" s="19">
         <v>18</v>
       </c>
-      <c r="H76" s="19">
-        <v>18</v>
-      </c>
-      <c r="I76" s="19">
-        <v>22</v>
-      </c>
-      <c r="J76" s="19">
-        <v>23</v>
-      </c>
       <c r="K76" s="19">
-        <v>108</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="19" t="s">
-        <v>25</v>
+        <v>137</v>
+      </c>
+      <c r="L76" s="19">
+        <v>986</v>
+      </c>
+      <c r="M76" s="19">
+        <v>291</v>
+      </c>
+      <c r="N76" s="19">
+        <v>1522</v>
+      </c>
+      <c r="O76" s="19">
+        <v>12</v>
+      </c>
+      <c r="P76" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>0</v>
+      </c>
+      <c r="R76" s="19">
+        <v>2</v>
+      </c>
+      <c r="S76" s="19">
+        <v>11</v>
+      </c>
+      <c r="T76" s="19">
+        <v>29</v>
       </c>
       <c r="U76" s="20">
-        <v>258944</v>
+        <v>265676</v>
       </c>
       <c r="V76" s="19">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="W76" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X76" s="19">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
@@ -6854,7 +6757,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="21">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C77" s="19">
         <v>9</v>
@@ -6863,46 +6766,64 @@
         <v>5</v>
       </c>
       <c r="E77" s="19">
+        <v>9</v>
+      </c>
+      <c r="F77" s="19">
+        <v>12</v>
+      </c>
+      <c r="G77" s="19">
+        <v>20</v>
+      </c>
+      <c r="H77" s="19">
+        <v>20</v>
+      </c>
+      <c r="I77" s="19">
+        <v>30</v>
+      </c>
+      <c r="J77" s="19">
+        <v>43</v>
+      </c>
+      <c r="K77" s="19">
+        <v>141</v>
+      </c>
+      <c r="L77" s="19">
+        <v>6901</v>
+      </c>
+      <c r="M77" s="19">
+        <v>780</v>
+      </c>
+      <c r="N77" s="19">
+        <v>1142</v>
+      </c>
+      <c r="O77" s="19">
+        <v>18</v>
+      </c>
+      <c r="P77" s="19">
         <v>10</v>
       </c>
-      <c r="F77" s="19">
-        <v>12</v>
-      </c>
-      <c r="G77" s="19">
-        <v>16</v>
-      </c>
-      <c r="H77" s="19">
-        <v>16</v>
-      </c>
-      <c r="I77" s="19">
-        <v>23</v>
-      </c>
-      <c r="J77" s="19">
-        <v>39</v>
-      </c>
-      <c r="K77" s="19">
-        <v>156</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M77" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="19" t="s">
-        <v>25</v>
+      <c r="Q77" s="19">
+        <v>5</v>
+      </c>
+      <c r="R77" s="19">
+        <v>103</v>
+      </c>
+      <c r="S77" s="19">
+        <v>124</v>
+      </c>
+      <c r="T77" s="19">
+        <v>85</v>
       </c>
       <c r="U77" s="20">
-        <v>260773</v>
+        <v>266747</v>
       </c>
       <c r="V77" s="19">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W77" s="19">
         <v>4</v>
       </c>
       <c r="X77" s="19">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.15">
@@ -6910,55 +6831,73 @@
         <v>71</v>
       </c>
       <c r="B78" s="21">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C78" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="19">
         <v>5</v>
       </c>
       <c r="E78" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G78" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I78" s="19">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J78" s="19">
         <v>25</v>
       </c>
       <c r="K78" s="19">
-        <v>129</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M78" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N78" s="19" t="s">
-        <v>25</v>
+        <v>165</v>
+      </c>
+      <c r="L78" s="19">
+        <v>10931</v>
+      </c>
+      <c r="M78" s="19">
+        <v>1046</v>
+      </c>
+      <c r="N78" s="19">
+        <v>1221</v>
+      </c>
+      <c r="O78" s="19">
+        <v>18</v>
+      </c>
+      <c r="P78" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>4</v>
+      </c>
+      <c r="R78" s="19">
+        <v>230</v>
+      </c>
+      <c r="S78" s="19">
+        <v>168</v>
+      </c>
+      <c r="T78" s="19">
+        <v>13</v>
       </c>
       <c r="U78" s="20">
-        <v>262512</v>
+        <v>267683</v>
       </c>
       <c r="V78" s="19">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="W78" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X78" s="19">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
@@ -6966,10 +6905,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="21">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C79" s="19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79" s="19">
         <v>5</v>
@@ -6978,7 +6917,7 @@
         <v>9</v>
       </c>
       <c r="F79" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="19">
         <v>19</v>
@@ -6987,52 +6926,52 @@
         <v>19</v>
       </c>
       <c r="I79" s="19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J79" s="19">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K79" s="19">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="L79" s="19">
-        <v>141</v>
+        <v>9686</v>
       </c>
       <c r="M79" s="19">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="N79" s="19">
-        <v>74</v>
+        <v>650</v>
       </c>
       <c r="O79" s="19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P79" s="19">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q79" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R79" s="19">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="S79" s="19">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="T79" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U79" s="20">
-        <v>264201</v>
+        <v>268771</v>
       </c>
       <c r="V79" s="19">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="W79" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X79" s="19">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.15">
@@ -7040,10 +6979,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="21">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C80" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="19">
         <v>5</v>
@@ -7052,61 +6991,61 @@
         <v>9</v>
       </c>
       <c r="F80" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H80" s="19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I80" s="19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J80" s="19">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K80" s="19">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="L80" s="19">
-        <v>986</v>
+        <v>6915</v>
       </c>
       <c r="M80" s="19">
-        <v>291</v>
+        <v>1513</v>
       </c>
       <c r="N80" s="19">
-        <v>1522</v>
+        <v>2029</v>
       </c>
       <c r="O80" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P80" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="19">
         <v>1</v>
       </c>
-      <c r="Q80" s="19">
-        <v>0</v>
-      </c>
       <c r="R80" s="19">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="S80" s="19">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="T80" s="19">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="U80" s="20">
-        <v>265676</v>
+        <v>269810</v>
       </c>
       <c r="V80" s="19">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="W80" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X80" s="19">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.15">
@@ -7114,476 +7053,454 @@
         <v>71</v>
       </c>
       <c r="B81" s="21">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C81" s="19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" s="19">
         <v>5</v>
       </c>
       <c r="E81" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" s="19">
         <v>12</v>
       </c>
       <c r="G81" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J81" s="19">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K81" s="19">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L81" s="19">
-        <v>6901</v>
+        <v>2323</v>
       </c>
       <c r="M81" s="19">
-        <v>780</v>
+        <v>1022</v>
       </c>
       <c r="N81" s="19">
-        <v>1142</v>
+        <v>3304</v>
       </c>
       <c r="O81" s="19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P81" s="19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q81" s="19">
         <v>5</v>
       </c>
       <c r="R81" s="19">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="S81" s="19">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="T81" s="19">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="U81" s="20">
-        <v>266747</v>
+        <v>269934</v>
       </c>
       <c r="V81" s="19">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="W81" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X81" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="21">
-        <v>2022</v>
-      </c>
-      <c r="C82" s="19">
-        <v>10</v>
-      </c>
-      <c r="D82" s="19">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="B82" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E82" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F82" s="19">
-        <v>11</v>
-      </c>
-      <c r="G82" s="19">
-        <v>18</v>
-      </c>
-      <c r="H82" s="19">
-        <v>18</v>
-      </c>
-      <c r="I82" s="19">
-        <v>43</v>
-      </c>
-      <c r="J82" s="19">
-        <v>25</v>
-      </c>
-      <c r="K82" s="19">
-        <v>165</v>
-      </c>
-      <c r="L82" s="19">
-        <v>10931</v>
-      </c>
-      <c r="M82" s="19">
-        <v>1046</v>
-      </c>
-      <c r="N82" s="19">
-        <v>1221</v>
-      </c>
-      <c r="O82" s="19">
-        <v>18</v>
-      </c>
-      <c r="P82" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q82" s="19">
         <v>4</v>
       </c>
-      <c r="R82" s="19">
-        <v>230</v>
-      </c>
-      <c r="S82" s="19">
-        <v>168</v>
-      </c>
-      <c r="T82" s="19">
-        <v>13</v>
+      <c r="G82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U82" s="20">
-        <v>267683</v>
+        <v>258270</v>
       </c>
       <c r="V82" s="19">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="W82" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X82" s="19">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="21">
-        <v>2023</v>
-      </c>
-      <c r="C83" s="19">
-        <v>11</v>
-      </c>
-      <c r="D83" s="19">
-        <v>5</v>
-      </c>
-      <c r="E83" s="19">
-        <v>9</v>
-      </c>
-      <c r="F83" s="19">
-        <v>11</v>
-      </c>
-      <c r="G83" s="19">
-        <v>19</v>
-      </c>
-      <c r="H83" s="19">
-        <v>19</v>
-      </c>
-      <c r="I83" s="19">
-        <v>42</v>
-      </c>
-      <c r="J83" s="19">
+        <v>72</v>
+      </c>
+      <c r="B83" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U83" s="20">
+        <v>259186</v>
+      </c>
+      <c r="V83" s="19">
+        <v>51</v>
+      </c>
+      <c r="W83" s="19">
+        <v>4</v>
+      </c>
+      <c r="X83" s="19">
         <v>30</v>
-      </c>
-      <c r="K83" s="19">
-        <v>198</v>
-      </c>
-      <c r="L83" s="19">
-        <v>9686</v>
-      </c>
-      <c r="M83" s="19">
-        <v>472</v>
-      </c>
-      <c r="N83" s="19">
-        <v>650</v>
-      </c>
-      <c r="O83" s="19">
-        <v>11</v>
-      </c>
-      <c r="P83" s="19">
-        <v>21</v>
-      </c>
-      <c r="Q83" s="19">
-        <v>4</v>
-      </c>
-      <c r="R83" s="19">
-        <v>223</v>
-      </c>
-      <c r="S83" s="19">
-        <v>138</v>
-      </c>
-      <c r="T83" s="19">
-        <v>18</v>
-      </c>
-      <c r="U83" s="20">
-        <v>268771</v>
-      </c>
-      <c r="V83" s="19">
-        <v>140</v>
-      </c>
-      <c r="W83" s="19">
-        <v>5</v>
-      </c>
-      <c r="X83" s="19">
-        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="21">
-        <v>2024</v>
+        <v>72</v>
+      </c>
+      <c r="B84" s="23">
+        <v>2012</v>
       </c>
       <c r="C84" s="19">
-        <v>11</v>
-      </c>
-      <c r="D84" s="19">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E84" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F84" s="19">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G84" s="19">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H84" s="19">
-        <v>19</v>
-      </c>
-      <c r="I84" s="19">
-        <v>19</v>
-      </c>
-      <c r="J84" s="19">
-        <v>30</v>
-      </c>
-      <c r="K84" s="19">
-        <v>214</v>
-      </c>
-      <c r="L84" s="19">
-        <v>6915</v>
-      </c>
-      <c r="M84" s="19">
-        <v>1513</v>
-      </c>
-      <c r="N84" s="19">
-        <v>2029</v>
-      </c>
-      <c r="O84" s="19">
-        <v>15</v>
-      </c>
-      <c r="P84" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q84" s="19">
-        <v>1</v>
-      </c>
-      <c r="R84" s="19">
-        <v>103</v>
-      </c>
-      <c r="S84" s="19">
-        <v>265</v>
-      </c>
-      <c r="T84" s="19">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U84" s="20">
-        <v>269810</v>
+        <v>260393</v>
       </c>
       <c r="V84" s="19">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="W84" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X84" s="19">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="21">
-        <v>2025</v>
+        <v>72</v>
+      </c>
+      <c r="B85" s="23">
+        <v>2013</v>
       </c>
       <c r="C85" s="19">
-        <v>11</v>
-      </c>
-      <c r="D85" s="19">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E85" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F85" s="19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G85" s="19">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H85" s="19">
-        <v>19</v>
-      </c>
-      <c r="I85" s="19">
-        <v>10</v>
-      </c>
-      <c r="J85" s="19">
-        <v>26</v>
-      </c>
-      <c r="K85" s="19">
-        <v>145</v>
-      </c>
-      <c r="L85" s="19">
-        <v>2323</v>
-      </c>
-      <c r="M85" s="19">
-        <v>1022</v>
-      </c>
-      <c r="N85" s="19">
-        <v>3304</v>
-      </c>
-      <c r="O85" s="19">
-        <v>11</v>
-      </c>
-      <c r="P85" s="19">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="19">
-        <v>5</v>
-      </c>
-      <c r="R85" s="19">
-        <v>50</v>
-      </c>
-      <c r="S85" s="19">
-        <v>252</v>
-      </c>
-      <c r="T85" s="19">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T85" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U85" s="20">
-        <v>269934</v>
+        <v>261723</v>
       </c>
       <c r="V85" s="19">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="W85" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X85" s="19">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="B86" s="23">
+        <v>2014</v>
       </c>
       <c r="C86" s="19">
-        <f>SUM(C72:C85)</f>
-        <v>133</v>
-      </c>
-      <c r="D86" s="19">
-        <f>SUM(D70:D85)</f>
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E86" s="19">
-        <f>SUM(E70:E85)</f>
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="F86" s="19">
-        <f>SUM(F70:F85)</f>
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="G86" s="19">
-        <f>SUM(G72:G85)</f>
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="H86" s="19">
-        <f t="shared" ref="H86" si="11">SUM(H72:H85)</f>
-        <v>256</v>
-      </c>
-      <c r="I86" s="19">
-        <f>SUM(I73:I85)</f>
-        <v>384</v>
-      </c>
-      <c r="J86" s="19">
-        <f t="shared" ref="J86:K86" si="12">SUM(J73:J85)</f>
-        <v>366</v>
-      </c>
-      <c r="K86" s="19">
-        <f t="shared" si="12"/>
-        <v>1827</v>
-      </c>
-      <c r="L86" s="19">
-        <f>SUM(L74:L85)</f>
-        <v>38198</v>
-      </c>
-      <c r="M86" s="19">
-        <f t="shared" ref="M86:N86" si="13">SUM(M74:M85)</f>
-        <v>5641</v>
-      </c>
-      <c r="N86" s="19">
-        <f t="shared" si="13"/>
-        <v>10351</v>
-      </c>
-      <c r="O86" s="19">
-        <f>SUM(O79:O85)</f>
-        <v>85</v>
-      </c>
-      <c r="P86" s="19">
-        <f t="shared" ref="P86:Q86" si="14">SUM(P79:P85)</f>
-        <v>83</v>
-      </c>
-      <c r="Q86" s="19">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="R86" s="19">
-        <f>SUM(R79:R85)</f>
-        <v>713</v>
-      </c>
-      <c r="S86" s="19">
-        <f t="shared" ref="S86:T86" si="15">SUM(S79:S85)</f>
-        <v>959</v>
-      </c>
-      <c r="T86" s="19">
-        <f t="shared" si="15"/>
-        <v>320</v>
+        <v>4</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="U86" s="20">
-        <f>SUM(U70:U85)</f>
-        <v>4163498</v>
+        <v>263093</v>
       </c>
       <c r="V86" s="19">
-        <f>SUM(V70:V85)</f>
-        <v>1802</v>
+        <v>52</v>
       </c>
       <c r="W86" s="19">
-        <f>SUM(W70:W85)</f>
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="X86" s="19">
-        <f>SUM(X70:X85)</f>
-        <v>1855</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="23">
-        <v>2010</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>12</v>
+      <c r="B87" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C87" s="19">
+        <v>3</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>12</v>
@@ -7592,13 +7509,13 @@
         <v>2</v>
       </c>
       <c r="F87" s="19">
-        <v>4</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="18" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G87" s="19">
+        <v>6</v>
+      </c>
+      <c r="H87" s="19">
+        <v>6</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>25</v>
@@ -7637,42 +7554,42 @@
         <v>25</v>
       </c>
       <c r="U87" s="20">
-        <v>258270</v>
+        <v>264492</v>
       </c>
       <c r="V87" s="19">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="W87" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X87" s="19">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>12</v>
+      <c r="B88" s="21">
+        <v>2016</v>
+      </c>
+      <c r="C88" s="19">
+        <v>4</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>12</v>
+      <c r="E88" s="19">
+        <v>3</v>
+      </c>
+      <c r="F88" s="19">
+        <v>5</v>
+      </c>
+      <c r="G88" s="19">
+        <v>6</v>
+      </c>
+      <c r="H88" s="19">
+        <v>6</v>
       </c>
       <c r="I88" s="19" t="s">
         <v>25</v>
@@ -7711,42 +7628,42 @@
         <v>25</v>
       </c>
       <c r="U88" s="20">
-        <v>259186</v>
+        <v>265663</v>
       </c>
       <c r="V88" s="19">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="W88" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X88" s="19">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A89" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="23">
-        <v>2012</v>
+      <c r="B89" s="21">
+        <v>2017</v>
       </c>
       <c r="C89" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89" s="19">
         <v>4</v>
       </c>
       <c r="G89" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H89" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I89" s="19" t="s">
         <v>25</v>
@@ -7785,42 +7702,42 @@
         <v>25</v>
       </c>
       <c r="U89" s="20">
-        <v>260393</v>
+        <v>266568</v>
       </c>
       <c r="V89" s="19">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="W89" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X89" s="19">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="23">
-        <v>2013</v>
+      <c r="B90" s="21">
+        <v>2018</v>
       </c>
       <c r="C90" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G90" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H90" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I90" s="19" t="s">
         <v>25</v>
@@ -7859,42 +7776,42 @@
         <v>25</v>
       </c>
       <c r="U90" s="20">
-        <v>261723</v>
+        <v>267318</v>
       </c>
       <c r="V90" s="19">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W90" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X90" s="19">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="23">
-        <v>2014</v>
+      <c r="B91" s="21">
+        <v>2019</v>
       </c>
       <c r="C91" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G91" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H91" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I91" s="19" t="s">
         <v>25</v>
@@ -7905,14 +7822,14 @@
       <c r="K91" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N91" s="19" t="s">
-        <v>25</v>
+      <c r="L91" s="19">
+        <v>92</v>
+      </c>
+      <c r="M91" s="19">
+        <v>810</v>
+      </c>
+      <c r="N91" s="19">
+        <v>478</v>
       </c>
       <c r="O91" s="19" t="s">
         <v>25</v>
@@ -7933,16 +7850,16 @@
         <v>25</v>
       </c>
       <c r="U91" s="20">
-        <v>263093</v>
+        <v>267971</v>
       </c>
       <c r="V91" s="19">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="W91" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X91" s="19">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.15">
@@ -7950,25 +7867,25 @@
         <v>72</v>
       </c>
       <c r="B92" s="21">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C92" s="19">
+        <v>8</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="19">
         <v>3</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="19">
-        <v>2</v>
-      </c>
       <c r="F92" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G92" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H92" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I92" s="19" t="s">
         <v>25</v>
@@ -7979,14 +7896,14 @@
       <c r="K92" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" s="19" t="s">
-        <v>25</v>
+      <c r="L92" s="19">
+        <v>69</v>
+      </c>
+      <c r="M92" s="19">
+        <v>277</v>
+      </c>
+      <c r="N92" s="19">
+        <v>1462</v>
       </c>
       <c r="O92" s="19" t="s">
         <v>25</v>
@@ -8007,16 +7924,16 @@
         <v>25</v>
       </c>
       <c r="U92" s="20">
-        <v>264492</v>
+        <v>268441</v>
       </c>
       <c r="V92" s="19">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="W92" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X92" s="19">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.15">
@@ -8024,25 +7941,25 @@
         <v>72</v>
       </c>
       <c r="B93" s="21">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C93" s="19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G93" s="19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H93" s="19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I93" s="19" t="s">
         <v>25</v>
@@ -8053,14 +7970,14 @@
       <c r="K93" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="19" t="s">
-        <v>25</v>
+      <c r="L93" s="19">
+        <v>5509</v>
+      </c>
+      <c r="M93" s="19">
+        <v>12</v>
+      </c>
+      <c r="N93" s="19">
+        <v>131</v>
       </c>
       <c r="O93" s="19" t="s">
         <v>25</v>
@@ -8081,16 +7998,16 @@
         <v>25</v>
       </c>
       <c r="U93" s="20">
-        <v>265663</v>
+        <v>268509</v>
       </c>
       <c r="V93" s="19">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="W93" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X93" s="19">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.15">
@@ -8098,25 +8015,25 @@
         <v>72</v>
       </c>
       <c r="B94" s="21">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C94" s="19">
-        <v>4</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D94" s="19">
+        <v>1</v>
       </c>
       <c r="E94" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G94" s="19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H94" s="19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I94" s="19" t="s">
         <v>25</v>
@@ -8127,14 +8044,14 @@
       <c r="K94" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N94" s="19" t="s">
-        <v>25</v>
+      <c r="L94" s="19">
+        <v>6356</v>
+      </c>
+      <c r="M94" s="19">
+        <v>646</v>
+      </c>
+      <c r="N94" s="19">
+        <v>203</v>
       </c>
       <c r="O94" s="19" t="s">
         <v>25</v>
@@ -8155,16 +8072,16 @@
         <v>25</v>
       </c>
       <c r="U94" s="20">
-        <v>266568</v>
+        <v>268394</v>
       </c>
       <c r="V94" s="19">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="W94" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94" s="19">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.15">
@@ -8172,25 +8089,25 @@
         <v>72</v>
       </c>
       <c r="B95" s="21">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C95" s="19">
-        <v>6</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D95" s="19">
+        <v>1</v>
       </c>
       <c r="E95" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G95" s="19">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H95" s="19">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I95" s="19" t="s">
         <v>25</v>
@@ -8201,14 +8118,14 @@
       <c r="K95" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N95" s="19" t="s">
-        <v>25</v>
+      <c r="L95" s="19">
+        <v>1431</v>
+      </c>
+      <c r="M95" s="19">
+        <v>353</v>
+      </c>
+      <c r="N95" s="19">
+        <v>938</v>
       </c>
       <c r="O95" s="19" t="s">
         <v>25</v>
@@ -8229,16 +8146,16 @@
         <v>25</v>
       </c>
       <c r="U95" s="20">
-        <v>267318</v>
+        <v>268309</v>
       </c>
       <c r="V95" s="19">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W95" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X95" s="19">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.15">
@@ -8246,25 +8163,25 @@
         <v>72</v>
       </c>
       <c r="B96" s="21">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C96" s="19">
-        <v>6</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D96" s="19">
+        <v>1</v>
       </c>
       <c r="E96" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G96" s="19">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H96" s="19">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I96" s="19" t="s">
         <v>25</v>
@@ -8276,13 +8193,13 @@
         <v>25</v>
       </c>
       <c r="L96" s="19">
-        <v>92</v>
+        <v>621</v>
       </c>
       <c r="M96" s="19">
-        <v>810</v>
+        <v>727</v>
       </c>
       <c r="N96" s="19">
-        <v>478</v>
+        <v>786</v>
       </c>
       <c r="O96" s="19" t="s">
         <v>25</v>
@@ -8303,16 +8220,16 @@
         <v>25</v>
       </c>
       <c r="U96" s="20">
-        <v>267971</v>
+        <v>268367</v>
       </c>
       <c r="V96" s="19">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="W96" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96" s="19">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.15">
@@ -8320,25 +8237,25 @@
         <v>72</v>
       </c>
       <c r="B97" s="21">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C97" s="19">
-        <v>8</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D97" s="19">
+        <v>1</v>
       </c>
       <c r="E97" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G97" s="19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H97" s="19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I97" s="19" t="s">
         <v>25</v>
@@ -8350,13 +8267,13 @@
         <v>25</v>
       </c>
       <c r="L97" s="19">
-        <v>69</v>
+        <v>653</v>
       </c>
       <c r="M97" s="19">
-        <v>277</v>
+        <v>429</v>
       </c>
       <c r="N97" s="19">
-        <v>1462</v>
+        <v>56</v>
       </c>
       <c r="O97" s="19" t="s">
         <v>25</v>
@@ -8377,42 +8294,42 @@
         <v>25</v>
       </c>
       <c r="U97" s="20">
-        <v>268441</v>
+        <v>268425</v>
       </c>
       <c r="V97" s="19">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="W97" s="19">
         <v>1</v>
       </c>
       <c r="X97" s="19">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="21">
-        <v>2021</v>
-      </c>
-      <c r="C98" s="19">
+        <v>73</v>
+      </c>
+      <c r="B98" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="19">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F98" s="19">
-        <v>6</v>
-      </c>
-      <c r="G98" s="19">
-        <v>15</v>
-      </c>
-      <c r="H98" s="19">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>25</v>
@@ -8423,14 +8340,14 @@
       <c r="K98" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L98" s="19">
-        <v>5509</v>
-      </c>
-      <c r="M98" s="19">
-        <v>12</v>
-      </c>
-      <c r="N98" s="19">
-        <v>131</v>
+      <c r="L98" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O98" s="19" t="s">
         <v>25</v>
@@ -8451,42 +8368,42 @@
         <v>25</v>
       </c>
       <c r="U98" s="20">
-        <v>268509</v>
+        <v>272073</v>
       </c>
       <c r="V98" s="19">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="W98" s="19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X98" s="19">
-        <v>43</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="21">
-        <v>2022</v>
-      </c>
-      <c r="C99" s="19">
-        <v>16</v>
-      </c>
-      <c r="D99" s="19">
-        <v>1</v>
-      </c>
-      <c r="E99" s="19">
-        <v>1</v>
-      </c>
-      <c r="F99" s="19">
-        <v>6</v>
-      </c>
-      <c r="G99" s="19">
-        <v>17</v>
-      </c>
-      <c r="H99" s="19">
-        <v>17</v>
+        <v>73</v>
+      </c>
+      <c r="B99" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>25</v>
@@ -8497,14 +8414,14 @@
       <c r="K99" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L99" s="19">
-        <v>6356</v>
-      </c>
-      <c r="M99" s="19">
-        <v>646</v>
-      </c>
-      <c r="N99" s="19">
-        <v>203</v>
+      <c r="L99" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O99" s="19" t="s">
         <v>25</v>
@@ -8525,42 +8442,42 @@
         <v>25</v>
       </c>
       <c r="U99" s="20">
-        <v>268394</v>
+        <v>272696</v>
       </c>
       <c r="V99" s="19">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="W99" s="19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X99" s="19">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="21">
-        <v>2023</v>
+        <v>73</v>
+      </c>
+      <c r="B100" s="23">
+        <v>2012</v>
       </c>
       <c r="C100" s="19">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D100" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="19">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F100" s="19">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G100" s="19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H100" s="19">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>25</v>
@@ -8571,14 +8488,14 @@
       <c r="K100" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L100" s="19">
-        <v>1431</v>
-      </c>
-      <c r="M100" s="19">
-        <v>353</v>
-      </c>
-      <c r="N100" s="19">
-        <v>938</v>
+      <c r="L100" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O100" s="19" t="s">
         <v>25</v>
@@ -8599,60 +8516,60 @@
         <v>25</v>
       </c>
       <c r="U100" s="20">
-        <v>268309</v>
+        <v>273547</v>
       </c>
       <c r="V100" s="19">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="W100" s="19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X100" s="19">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="21">
-        <v>2024</v>
+        <v>73</v>
+      </c>
+      <c r="B101" s="23">
+        <v>2013</v>
       </c>
       <c r="C101" s="19">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D101" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="19">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F101" s="19">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G101" s="19">
+        <v>32</v>
+      </c>
+      <c r="H101" s="19">
+        <v>30</v>
+      </c>
+      <c r="I101" s="19">
+        <v>41</v>
+      </c>
+      <c r="J101" s="19">
+        <v>21</v>
+      </c>
+      <c r="K101" s="19">
         <v>33</v>
       </c>
-      <c r="H101" s="19">
-        <v>33</v>
-      </c>
-      <c r="I101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L101" s="19">
-        <v>621</v>
-      </c>
-      <c r="M101" s="19">
-        <v>727</v>
-      </c>
-      <c r="N101" s="19">
-        <v>786</v>
+      <c r="L101" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O101" s="19" t="s">
         <v>25</v>
@@ -8673,142 +8590,134 @@
         <v>25</v>
       </c>
       <c r="U101" s="20">
-        <v>268367</v>
+        <v>274553</v>
       </c>
       <c r="V101" s="19">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="W101" s="19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X101" s="19">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B102" s="21">
-        <v>2025</v>
+        <v>73</v>
+      </c>
+      <c r="B102" s="23">
+        <v>2014</v>
       </c>
       <c r="C102" s="19">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D102" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="19">
+        <v>21</v>
+      </c>
+      <c r="F102" s="19">
+        <v>30</v>
+      </c>
+      <c r="G102" s="19">
+        <v>33</v>
+      </c>
+      <c r="H102" s="19">
+        <v>31</v>
+      </c>
+      <c r="I102" s="19">
+        <v>34</v>
+      </c>
+      <c r="J102" s="19">
+        <v>14</v>
+      </c>
+      <c r="K102" s="19">
+        <v>62</v>
+      </c>
+      <c r="L102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U102" s="20">
+        <v>275586</v>
+      </c>
+      <c r="V102" s="19">
+        <v>129</v>
+      </c>
+      <c r="W102" s="19">
+        <v>14</v>
+      </c>
+      <c r="X102" s="19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C103" s="19">
+        <v>4</v>
+      </c>
+      <c r="D103" s="19">
         <v>2</v>
       </c>
-      <c r="F102" s="19">
-        <v>4</v>
-      </c>
-      <c r="G102" s="19">
+      <c r="E103" s="19">
+        <v>19</v>
+      </c>
+      <c r="F103" s="19">
         <v>30</v>
       </c>
-      <c r="H102" s="19">
-        <v>30</v>
-      </c>
-      <c r="I102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L102" s="19">
-        <v>653</v>
-      </c>
-      <c r="M102" s="19">
-        <v>429</v>
-      </c>
-      <c r="N102" s="19">
-        <v>56</v>
-      </c>
-      <c r="O102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U102" s="20">
-        <v>268425</v>
-      </c>
-      <c r="V102" s="19">
-        <v>54</v>
-      </c>
-      <c r="W102" s="19">
-        <v>1</v>
-      </c>
-      <c r="X102" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A103" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="19">
-        <f>SUM(C89:C102)</f>
-        <v>117</v>
-      </c>
-      <c r="D103" s="19">
-        <v>4</v>
-      </c>
-      <c r="E103" s="19">
-        <f>SUM(E87:E102)</f>
+      <c r="G103" s="19">
         <v>31</v>
       </c>
-      <c r="F103" s="19">
-        <f>SUM(F87:F102)</f>
-        <v>74</v>
-      </c>
-      <c r="G103" s="19">
-        <f>SUM(G89:G102)</f>
-        <v>162</v>
-      </c>
       <c r="H103" s="19">
-        <f t="shared" ref="H103" si="16">SUM(H89:H102)</f>
-        <v>162</v>
-      </c>
-      <c r="I103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L103" s="19">
-        <f>SUM(L96:L102)</f>
-        <v>14731</v>
-      </c>
-      <c r="M103" s="19">
-        <f t="shared" ref="M103:N103" si="17">SUM(M96:M102)</f>
-        <v>3254</v>
-      </c>
-      <c r="N103" s="19">
-        <f t="shared" si="17"/>
-        <v>4054</v>
+        <v>29</v>
+      </c>
+      <c r="I103" s="19">
+        <v>15</v>
+      </c>
+      <c r="J103" s="19">
+        <v>19</v>
+      </c>
+      <c r="K103" s="19">
+        <v>63</v>
+      </c>
+      <c r="L103" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>25</v>
@@ -8829,55 +8738,51 @@
         <v>25</v>
       </c>
       <c r="U103" s="20">
-        <f>SUM(U87:U102)</f>
-        <v>4245122</v>
+        <v>276580</v>
       </c>
       <c r="V103" s="19">
-        <f>SUM(V87:V102)</f>
-        <v>775</v>
+        <v>135</v>
       </c>
       <c r="W103" s="19">
-        <f>SUM(W87:W102)</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="X103" s="19">
-        <f>SUM(X87:X102)</f>
-        <v>548</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="23">
-        <v>2010</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>12</v>
+      <c r="B104" s="21">
+        <v>2016</v>
+      </c>
+      <c r="C104" s="19">
+        <v>4</v>
+      </c>
+      <c r="D104" s="19">
+        <v>2</v>
       </c>
       <c r="E104" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F104" s="19">
-        <v>28</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K104" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="G104" s="19">
+        <v>27</v>
+      </c>
+      <c r="H104" s="19">
+        <v>26</v>
+      </c>
+      <c r="I104" s="19">
+        <v>18</v>
+      </c>
+      <c r="J104" s="19">
+        <v>7</v>
+      </c>
+      <c r="K104" s="19">
+        <v>38</v>
       </c>
       <c r="L104" s="19" t="s">
         <v>25</v>
@@ -8907,51 +8812,51 @@
         <v>25</v>
       </c>
       <c r="U104" s="20">
-        <v>272073</v>
+        <v>277382</v>
       </c>
       <c r="V104" s="19">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="W104" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X104" s="19">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A105" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="23">
-        <v>2011</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K105" s="19" t="s">
-        <v>25</v>
+      <c r="B105" s="21">
+        <v>2017</v>
+      </c>
+      <c r="C105" s="19">
+        <v>4</v>
+      </c>
+      <c r="D105" s="19">
+        <v>2</v>
+      </c>
+      <c r="E105" s="19">
+        <v>16</v>
+      </c>
+      <c r="F105" s="19">
+        <v>25</v>
+      </c>
+      <c r="G105" s="19">
+        <v>31</v>
+      </c>
+      <c r="H105" s="19">
+        <v>29</v>
+      </c>
+      <c r="I105" s="19">
+        <v>26</v>
+      </c>
+      <c r="J105" s="19">
+        <v>27</v>
+      </c>
+      <c r="K105" s="19">
+        <v>69</v>
       </c>
       <c r="L105" s="19" t="s">
         <v>25</v>
@@ -8981,24 +8886,24 @@
         <v>25</v>
       </c>
       <c r="U105" s="20">
-        <v>272696</v>
+        <v>277965</v>
       </c>
       <c r="V105" s="19">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="W105" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X105" s="19">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A106" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="23">
-        <v>2012</v>
+      <c r="B106" s="21">
+        <v>2018</v>
       </c>
       <c r="C106" s="19">
         <v>4</v>
@@ -9007,25 +8912,25 @@
         <v>2</v>
       </c>
       <c r="E106" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F106" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G106" s="19">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H106" s="19">
-        <v>29</v>
-      </c>
-      <c r="I106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="I106" s="19">
+        <v>39</v>
+      </c>
+      <c r="J106" s="19">
+        <v>28</v>
+      </c>
+      <c r="K106" s="19">
+        <v>82</v>
       </c>
       <c r="L106" s="19" t="s">
         <v>25</v>
@@ -9055,51 +8960,45 @@
         <v>25</v>
       </c>
       <c r="U106" s="20">
-        <v>273547</v>
+        <v>278480</v>
       </c>
       <c r="V106" s="19">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="W106" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X106" s="19">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A107" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="23">
-        <v>2013</v>
+      <c r="B107" s="21">
+        <v>2019</v>
       </c>
       <c r="C107" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D107" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F107" s="19">
-        <v>30</v>
-      </c>
-      <c r="G107" s="19">
-        <v>32</v>
-      </c>
-      <c r="H107" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I107" s="19">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J107" s="19">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K107" s="19">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="L107" s="19" t="s">
         <v>25</v>
@@ -9129,51 +9028,51 @@
         <v>25</v>
       </c>
       <c r="U107" s="20">
-        <v>274553</v>
+        <v>278960</v>
       </c>
       <c r="V107" s="19">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="W107" s="19">
         <v>11</v>
       </c>
       <c r="X107" s="19">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A108" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B108" s="23">
-        <v>2014</v>
+      <c r="B108" s="21">
+        <v>2020</v>
       </c>
       <c r="C108" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D108" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="19">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F108" s="19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G108" s="19">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H108" s="19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I108" s="19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J108" s="19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K108" s="19">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L108" s="19" t="s">
         <v>25</v>
@@ -9203,69 +9102,69 @@
         <v>25</v>
       </c>
       <c r="U108" s="20">
-        <v>275586</v>
+        <v>279176</v>
       </c>
       <c r="V108" s="19">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="W108" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X108" s="19">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A109" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B109" s="21">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C109" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D109" s="19">
         <v>2</v>
       </c>
       <c r="E109" s="19">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F109" s="19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G109" s="19">
+        <v>13</v>
+      </c>
+      <c r="H109" s="19">
+        <v>11</v>
+      </c>
+      <c r="I109" s="19">
         <v>31</v>
       </c>
-      <c r="H109" s="19">
+      <c r="J109" s="19">
+        <v>26</v>
+      </c>
+      <c r="K109" s="19">
+        <v>97</v>
+      </c>
+      <c r="L109" s="19">
         <v>29</v>
       </c>
-      <c r="I109" s="19">
-        <v>15</v>
-      </c>
-      <c r="J109" s="19">
-        <v>19</v>
-      </c>
-      <c r="K109" s="19">
-        <v>63</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q109" s="19" t="s">
-        <v>25</v>
+      <c r="M109" s="19">
+        <v>165</v>
+      </c>
+      <c r="N109" s="19">
+        <v>231</v>
+      </c>
+      <c r="O109" s="19">
+        <v>0</v>
+      </c>
+      <c r="P109" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="19">
+        <v>1</v>
       </c>
       <c r="R109" s="19" t="s">
         <v>25</v>
@@ -9277,90 +9176,90 @@
         <v>25</v>
       </c>
       <c r="U109" s="20">
-        <v>276580</v>
+        <v>278865</v>
       </c>
       <c r="V109" s="19">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="W109" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X109" s="19">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A110" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B110" s="21">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C110" s="19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D110" s="19">
         <v>2</v>
       </c>
       <c r="E110" s="19">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F110" s="19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G110" s="19">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H110" s="19">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I110" s="19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J110" s="19">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K110" s="19">
-        <v>38</v>
-      </c>
-      <c r="L110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R110" s="19" t="s">
-        <v>25</v>
+        <v>89</v>
+      </c>
+      <c r="L110" s="19">
+        <v>1012</v>
+      </c>
+      <c r="M110" s="19">
+        <v>1140</v>
+      </c>
+      <c r="N110" s="19">
+        <v>2447</v>
+      </c>
+      <c r="O110" s="19">
+        <v>3</v>
+      </c>
+      <c r="P110" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>4</v>
+      </c>
+      <c r="R110" s="19">
+        <v>10</v>
       </c>
       <c r="S110" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T110" s="19" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="T110" s="19">
+        <v>3</v>
       </c>
       <c r="U110" s="20">
-        <v>277382</v>
+        <v>278431</v>
       </c>
       <c r="V110" s="19">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="W110" s="19">
         <v>11</v>
       </c>
       <c r="X110" s="19">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.15">
@@ -9368,73 +9267,73 @@
         <v>73</v>
       </c>
       <c r="B111" s="21">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="C111" s="19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D111" s="19">
+        <v>3</v>
+      </c>
+      <c r="E111" s="19">
+        <v>11</v>
+      </c>
+      <c r="F111" s="19">
+        <v>15</v>
+      </c>
+      <c r="G111" s="19">
+        <v>11</v>
+      </c>
+      <c r="H111" s="19">
+        <v>10</v>
+      </c>
+      <c r="I111" s="19">
+        <v>36</v>
+      </c>
+      <c r="J111" s="19">
+        <v>30</v>
+      </c>
+      <c r="K111" s="19">
+        <v>213</v>
+      </c>
+      <c r="L111" s="19">
+        <v>2579</v>
+      </c>
+      <c r="M111" s="19">
+        <v>2260</v>
+      </c>
+      <c r="N111" s="19">
+        <v>3863</v>
+      </c>
+      <c r="O111" s="19">
         <v>2</v>
       </c>
-      <c r="E111" s="19">
-        <v>16</v>
-      </c>
-      <c r="F111" s="19">
-        <v>25</v>
-      </c>
-      <c r="G111" s="19">
-        <v>31</v>
-      </c>
-      <c r="H111" s="19">
+      <c r="P111" s="19">
+        <v>22</v>
+      </c>
+      <c r="Q111" s="19">
+        <v>20</v>
+      </c>
+      <c r="R111" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S111" s="19">
         <v>29</v>
       </c>
-      <c r="I111" s="19">
-        <v>26</v>
-      </c>
-      <c r="J111" s="19">
-        <v>27</v>
-      </c>
-      <c r="K111" s="19">
-        <v>69</v>
-      </c>
-      <c r="L111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S111" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T111" s="19" t="s">
-        <v>25</v>
+      <c r="T111" s="19">
+        <v>211</v>
       </c>
       <c r="U111" s="20">
-        <v>277965</v>
+        <v>278204</v>
       </c>
       <c r="V111" s="19">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="W111" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X111" s="19">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.15">
@@ -9442,52 +9341,52 @@
         <v>73</v>
       </c>
       <c r="B112" s="21">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="C112" s="19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D112" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" s="19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F112" s="19">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G112" s="19">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H112" s="19">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I112" s="19">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J112" s="19">
         <v>28</v>
       </c>
       <c r="K112" s="19">
-        <v>82</v>
-      </c>
-      <c r="L112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q112" s="19" t="s">
-        <v>25</v>
+        <v>329</v>
+      </c>
+      <c r="L112" s="19">
+        <v>989</v>
+      </c>
+      <c r="M112" s="19">
+        <v>1424</v>
+      </c>
+      <c r="N112" s="19">
+        <v>3187</v>
+      </c>
+      <c r="O112" s="19">
+        <v>3</v>
+      </c>
+      <c r="P112" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="19">
+        <v>6</v>
       </c>
       <c r="R112" s="19" t="s">
         <v>25</v>
@@ -9499,16 +9398,16 @@
         <v>25</v>
       </c>
       <c r="U112" s="20">
-        <v>278480</v>
+        <v>278069</v>
       </c>
       <c r="V112" s="19">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="W112" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X112" s="19">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.15">
@@ -9516,46 +9415,52 @@
         <v>73</v>
       </c>
       <c r="B113" s="21">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="C113" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D113" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="19">
+        <v>12</v>
+      </c>
+      <c r="F113" s="19">
+        <v>16</v>
+      </c>
+      <c r="G113" s="19">
+        <v>11</v>
+      </c>
+      <c r="H113" s="19">
+        <v>9</v>
+      </c>
+      <c r="I113" s="19">
+        <v>19</v>
+      </c>
+      <c r="J113" s="19">
         <v>17</v>
       </c>
-      <c r="F113" s="19">
-        <v>28</v>
-      </c>
-      <c r="I113" s="19">
-        <v>46</v>
-      </c>
-      <c r="J113" s="19">
-        <v>35</v>
-      </c>
       <c r="K113" s="19">
-        <v>91</v>
-      </c>
-      <c r="L113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P113" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q113" s="19" t="s">
-        <v>25</v>
+        <v>217</v>
+      </c>
+      <c r="L113" s="19">
+        <v>762</v>
+      </c>
+      <c r="M113" s="19">
+        <v>833</v>
+      </c>
+      <c r="N113" s="19">
+        <v>3486</v>
+      </c>
+      <c r="O113" s="19">
+        <v>5</v>
+      </c>
+      <c r="P113" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q113" s="19">
+        <v>3</v>
       </c>
       <c r="R113" s="19" t="s">
         <v>25</v>
@@ -9567,556 +9472,16 @@
         <v>25</v>
       </c>
       <c r="U113" s="20">
-        <v>278960</v>
+        <v>278102</v>
       </c>
       <c r="V113" s="19">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="W113" s="19">
         <v>11</v>
       </c>
       <c r="X113" s="19">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A114" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="21">
-        <v>2020</v>
-      </c>
-      <c r="C114" s="19">
-        <v>6</v>
-      </c>
-      <c r="D114" s="19">
-        <v>1</v>
-      </c>
-      <c r="E114" s="19">
-        <v>9</v>
-      </c>
-      <c r="F114" s="19">
-        <v>13</v>
-      </c>
-      <c r="G114" s="19">
-        <v>12</v>
-      </c>
-      <c r="H114" s="19">
-        <v>10</v>
-      </c>
-      <c r="I114" s="19">
-        <v>24</v>
-      </c>
-      <c r="J114" s="19">
-        <v>23</v>
-      </c>
-      <c r="K114" s="19">
-        <v>74</v>
-      </c>
-      <c r="L114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U114" s="20">
-        <v>279176</v>
-      </c>
-      <c r="V114" s="19">
-        <v>205</v>
-      </c>
-      <c r="W114" s="19">
-        <v>12</v>
-      </c>
-      <c r="X114" s="19">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A115" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" s="21">
-        <v>2021</v>
-      </c>
-      <c r="C115" s="19">
-        <v>10</v>
-      </c>
-      <c r="D115" s="19">
-        <v>2</v>
-      </c>
-      <c r="E115" s="19">
-        <v>10</v>
-      </c>
-      <c r="F115" s="19">
-        <v>14</v>
-      </c>
-      <c r="G115" s="19">
-        <v>13</v>
-      </c>
-      <c r="H115" s="19">
-        <v>11</v>
-      </c>
-      <c r="I115" s="19">
-        <v>31</v>
-      </c>
-      <c r="J115" s="19">
-        <v>26</v>
-      </c>
-      <c r="K115" s="19">
-        <v>97</v>
-      </c>
-      <c r="L115" s="19">
-        <v>29</v>
-      </c>
-      <c r="M115" s="19">
-        <v>165</v>
-      </c>
-      <c r="N115" s="19">
-        <v>231</v>
-      </c>
-      <c r="O115" s="19">
-        <v>0</v>
-      </c>
-      <c r="P115" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q115" s="19">
-        <v>1</v>
-      </c>
-      <c r="R115" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S115" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T115" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U115" s="20">
-        <v>278865</v>
-      </c>
-      <c r="V115" s="19">
-        <v>228</v>
-      </c>
-      <c r="W115" s="19">
-        <v>10</v>
-      </c>
-      <c r="X115" s="19">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A116" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="21">
-        <v>2022</v>
-      </c>
-      <c r="C116" s="19">
-        <v>11</v>
-      </c>
-      <c r="D116" s="19">
-        <v>2</v>
-      </c>
-      <c r="E116" s="19">
-        <v>11</v>
-      </c>
-      <c r="F116" s="19">
-        <v>14</v>
-      </c>
-      <c r="G116" s="19">
-        <v>12</v>
-      </c>
-      <c r="H116" s="19">
-        <v>10</v>
-      </c>
-      <c r="I116" s="19">
-        <v>22</v>
-      </c>
-      <c r="J116" s="19">
-        <v>28</v>
-      </c>
-      <c r="K116" s="19">
-        <v>89</v>
-      </c>
-      <c r="L116" s="19">
-        <v>1012</v>
-      </c>
-      <c r="M116" s="19">
-        <v>1140</v>
-      </c>
-      <c r="N116" s="19">
-        <v>2447</v>
-      </c>
-      <c r="O116" s="19">
-        <v>3</v>
-      </c>
-      <c r="P116" s="19">
-        <v>9</v>
-      </c>
-      <c r="Q116" s="19">
-        <v>4</v>
-      </c>
-      <c r="R116" s="19">
-        <v>10</v>
-      </c>
-      <c r="S116" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="T116" s="19">
-        <v>3</v>
-      </c>
-      <c r="U116" s="20">
-        <v>278431</v>
-      </c>
-      <c r="V116" s="19">
-        <v>230</v>
-      </c>
-      <c r="W116" s="19">
-        <v>11</v>
-      </c>
-      <c r="X116" s="19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A117" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="21">
-        <v>2023</v>
-      </c>
-      <c r="C117" s="19">
-        <v>12</v>
-      </c>
-      <c r="D117" s="19">
-        <v>3</v>
-      </c>
-      <c r="E117" s="19">
-        <v>11</v>
-      </c>
-      <c r="F117" s="19">
-        <v>15</v>
-      </c>
-      <c r="G117" s="19">
-        <v>11</v>
-      </c>
-      <c r="H117" s="19">
-        <v>10</v>
-      </c>
-      <c r="I117" s="19">
-        <v>36</v>
-      </c>
-      <c r="J117" s="19">
-        <v>30</v>
-      </c>
-      <c r="K117" s="19">
-        <v>213</v>
-      </c>
-      <c r="L117" s="19">
-        <v>2579</v>
-      </c>
-      <c r="M117" s="19">
-        <v>2260</v>
-      </c>
-      <c r="N117" s="19">
-        <v>3863</v>
-      </c>
-      <c r="O117" s="19">
-        <v>2</v>
-      </c>
-      <c r="P117" s="19">
-        <v>22</v>
-      </c>
-      <c r="Q117" s="19">
-        <v>20</v>
-      </c>
-      <c r="R117" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S117" s="19">
-        <v>29</v>
-      </c>
-      <c r="T117" s="19">
-        <v>211</v>
-      </c>
-      <c r="U117" s="20">
-        <v>278204</v>
-      </c>
-      <c r="V117" s="19">
-        <v>223</v>
-      </c>
-      <c r="W117" s="19">
-        <v>10</v>
-      </c>
-      <c r="X117" s="19">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A118" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" s="21">
-        <v>2024</v>
-      </c>
-      <c r="C118" s="19">
-        <v>11</v>
-      </c>
-      <c r="D118" s="19">
-        <v>3</v>
-      </c>
-      <c r="E118" s="19">
-        <v>12</v>
-      </c>
-      <c r="F118" s="19">
-        <v>15</v>
-      </c>
-      <c r="G118" s="19">
-        <v>11</v>
-      </c>
-      <c r="H118" s="19">
-        <v>10</v>
-      </c>
-      <c r="I118" s="19">
-        <v>22</v>
-      </c>
-      <c r="J118" s="19">
-        <v>28</v>
-      </c>
-      <c r="K118" s="19">
-        <v>329</v>
-      </c>
-      <c r="L118" s="19">
-        <v>989</v>
-      </c>
-      <c r="M118" s="19">
-        <v>1424</v>
-      </c>
-      <c r="N118" s="19">
-        <v>3187</v>
-      </c>
-      <c r="O118" s="19">
-        <v>3</v>
-      </c>
-      <c r="P118" s="19">
-        <v>25</v>
-      </c>
-      <c r="Q118" s="19">
-        <v>6</v>
-      </c>
-      <c r="R118" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S118" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T118" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U118" s="20">
-        <v>278069</v>
-      </c>
-      <c r="V118" s="19">
-        <v>231</v>
-      </c>
-      <c r="W118" s="19">
-        <v>9</v>
-      </c>
-      <c r="X118" s="19">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A119" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B119" s="21">
-        <v>2025</v>
-      </c>
-      <c r="C119" s="19">
-        <v>12</v>
-      </c>
-      <c r="D119" s="19">
-        <v>3</v>
-      </c>
-      <c r="E119" s="19">
-        <v>12</v>
-      </c>
-      <c r="F119" s="19">
-        <v>16</v>
-      </c>
-      <c r="G119" s="19">
-        <v>11</v>
-      </c>
-      <c r="H119" s="19">
-        <v>9</v>
-      </c>
-      <c r="I119" s="19">
-        <v>19</v>
-      </c>
-      <c r="J119" s="19">
-        <v>17</v>
-      </c>
-      <c r="K119" s="19">
-        <v>217</v>
-      </c>
-      <c r="L119" s="19">
-        <v>762</v>
-      </c>
-      <c r="M119" s="19">
-        <v>833</v>
-      </c>
-      <c r="N119" s="19">
-        <v>3486</v>
-      </c>
-      <c r="O119" s="19">
-        <v>5</v>
-      </c>
-      <c r="P119" s="19">
-        <v>14</v>
-      </c>
-      <c r="Q119" s="19">
-        <v>3</v>
-      </c>
-      <c r="R119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U119" s="20">
-        <v>278102</v>
-      </c>
-      <c r="V119" s="19">
-        <v>249</v>
-      </c>
-      <c r="W119" s="19">
-        <v>11</v>
-      </c>
-      <c r="X119" s="19">
         <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A120" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="19">
-        <f>SUM(C106:C119)</f>
-        <v>96</v>
-      </c>
-      <c r="D120" s="19">
-        <f>SUM(D106:D119)</f>
-        <v>29</v>
-      </c>
-      <c r="E120" s="19">
-        <f>SUM(E104:E119)</f>
-        <v>237</v>
-      </c>
-      <c r="F120" s="19">
-        <f>SUM(F104:F119)</f>
-        <v>346</v>
-      </c>
-      <c r="G120" s="19">
-        <f>SUM(G106:G119)</f>
-        <v>278</v>
-      </c>
-      <c r="H120" s="19">
-        <f t="shared" ref="H120" si="18">SUM(H106:H119)</f>
-        <v>255</v>
-      </c>
-      <c r="I120" s="19">
-        <f>SUM(I107:I119)</f>
-        <v>373</v>
-      </c>
-      <c r="J120" s="19">
-        <f t="shared" ref="J120:K120" si="19">SUM(J107:J119)</f>
-        <v>303</v>
-      </c>
-      <c r="K120" s="19">
-        <f t="shared" si="19"/>
-        <v>1457</v>
-      </c>
-      <c r="L120" s="19">
-        <f>SUM(L115:L119)</f>
-        <v>5371</v>
-      </c>
-      <c r="M120" s="19">
-        <f t="shared" ref="M120:N120" si="20">SUM(M115:M119)</f>
-        <v>5822</v>
-      </c>
-      <c r="N120" s="19">
-        <f t="shared" si="20"/>
-        <v>13214</v>
-      </c>
-      <c r="O120" s="19">
-        <f t="shared" ref="O120" si="21">SUM(O115:O119)</f>
-        <v>13</v>
-      </c>
-      <c r="P120" s="19">
-        <f t="shared" ref="P120" si="22">SUM(P115:P119)</f>
-        <v>72</v>
-      </c>
-      <c r="Q120" s="19">
-        <f t="shared" ref="Q120" si="23">SUM(Q115:Q119)</f>
-        <v>34</v>
-      </c>
-      <c r="R120" s="19">
-        <f>SUM(R116:R119)</f>
-        <v>10</v>
-      </c>
-      <c r="S120" s="19">
-        <f t="shared" ref="S120:T120" si="24">SUM(S116:S119)</f>
-        <v>29</v>
-      </c>
-      <c r="T120" s="19">
-        <f t="shared" si="24"/>
-        <v>214</v>
-      </c>
-      <c r="U120" s="20">
-        <f>SUM(U104:U119)</f>
-        <v>4428669</v>
-      </c>
-      <c r="V120" s="19">
-        <f>SUM(V104:V119)</f>
-        <v>2832</v>
-      </c>
-      <c r="W120" s="19">
-        <f>SUM(W104:W119)</f>
-        <v>177</v>
-      </c>
-      <c r="X120" s="19">
-        <f>SUM(X104:X119)</f>
-        <v>2519</v>
       </c>
     </row>
   </sheetData>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F031EA-9E71-3E44-8E53-6388F67673C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85A457-1BBB-6A42-BC46-E989B5002D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A114" sqref="A114:XFD114"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85A457-1BBB-6A42-BC46-E989B5002D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD80489-24AE-8947-894C-AD41FF7E90D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -751,14 +751,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,13 +1303,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="26" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="21" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="21" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="21" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="19" bestFit="1" customWidth="1"/>
@@ -1330,7 +1335,7 @@
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1404,7 +1409,7 @@
       <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="26">
         <v>2010</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -1469,7 +1474,7 @@
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="26">
         <v>2011</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -1534,7 +1539,7 @@
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="26">
         <v>2012</v>
       </c>
       <c r="C4" s="19">
@@ -1599,7 +1604,7 @@
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="26">
         <v>2013</v>
       </c>
       <c r="C5" s="19">
@@ -1664,7 +1669,7 @@
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="26">
         <v>2014</v>
       </c>
       <c r="C6" s="19">
@@ -1738,7 +1743,7 @@
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="26">
         <v>2015</v>
       </c>
       <c r="C7" s="19">
@@ -1812,7 +1817,7 @@
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="26">
         <v>2016</v>
       </c>
       <c r="C8" s="19">
@@ -1886,7 +1891,7 @@
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="26">
         <v>2017</v>
       </c>
       <c r="C9" s="19">
@@ -1960,7 +1965,7 @@
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="26">
         <v>2018</v>
       </c>
       <c r="C10" s="19">
@@ -2034,7 +2039,7 @@
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="26">
         <v>2019</v>
       </c>
       <c r="C11" s="19">
@@ -2108,7 +2113,7 @@
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="26">
         <v>2020</v>
       </c>
       <c r="C12" s="19">
@@ -2182,7 +2187,7 @@
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="26">
         <v>2021</v>
       </c>
       <c r="C13" s="19">
@@ -2256,7 +2261,7 @@
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="26">
         <v>2022</v>
       </c>
       <c r="C14" s="19">
@@ -2330,7 +2335,7 @@
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="26">
         <v>2023</v>
       </c>
       <c r="C15" s="19">
@@ -2404,7 +2409,7 @@
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="26">
         <v>2024</v>
       </c>
       <c r="C16" s="19">
@@ -2478,7 +2483,7 @@
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="26">
         <v>2025</v>
       </c>
       <c r="C17" s="19">
@@ -2552,7 +2557,7 @@
       <c r="A18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="27">
         <v>2010</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -2626,7 +2631,7 @@
       <c r="A19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="27">
         <v>2011</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2700,7 +2705,7 @@
       <c r="A20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="27">
         <v>2012</v>
       </c>
       <c r="C20" s="19">
@@ -2774,7 +2779,7 @@
       <c r="A21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="27">
         <v>2013</v>
       </c>
       <c r="C21" s="19">
@@ -2848,7 +2853,7 @@
       <c r="A22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="27">
         <v>2014</v>
       </c>
       <c r="C22" s="19">
@@ -2922,7 +2927,7 @@
       <c r="A23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="26">
         <v>2015</v>
       </c>
       <c r="C23" s="19">
@@ -2996,7 +3001,7 @@
       <c r="A24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="26">
         <v>2016</v>
       </c>
       <c r="C24" s="19">
@@ -3070,7 +3075,7 @@
       <c r="A25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="26">
         <v>2017</v>
       </c>
       <c r="C25" s="19">
@@ -3144,7 +3149,7 @@
       <c r="A26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="26">
         <v>2018</v>
       </c>
       <c r="C26" s="19">
@@ -3218,7 +3223,7 @@
       <c r="A27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="26">
         <v>2019</v>
       </c>
       <c r="C27" s="19">
@@ -3292,7 +3297,7 @@
       <c r="A28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="26">
         <v>2020</v>
       </c>
       <c r="C28" s="19">
@@ -3366,7 +3371,7 @@
       <c r="A29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="26">
         <v>2021</v>
       </c>
       <c r="C29" s="19">
@@ -3440,7 +3445,7 @@
       <c r="A30" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="26">
         <v>2022</v>
       </c>
       <c r="C30" s="19">
@@ -3514,7 +3519,7 @@
       <c r="A31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="26">
         <v>2023</v>
       </c>
       <c r="C31" s="19">
@@ -3588,7 +3593,7 @@
       <c r="A32" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="26">
         <v>2024</v>
       </c>
       <c r="C32" s="19">
@@ -3662,7 +3667,7 @@
       <c r="A33" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="26">
         <v>2025</v>
       </c>
       <c r="C33" s="19">
@@ -3736,7 +3741,7 @@
       <c r="A34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="27">
         <v>2010</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -3810,7 +3815,7 @@
       <c r="A35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="27">
         <v>2011</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -3884,7 +3889,7 @@
       <c r="A36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="27">
         <v>2012</v>
       </c>
       <c r="C36" s="19">
@@ -3958,7 +3963,7 @@
       <c r="A37" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="27">
         <v>2013</v>
       </c>
       <c r="C37" s="19">
@@ -4032,7 +4037,7 @@
       <c r="A38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="27">
         <v>2014</v>
       </c>
       <c r="C38" s="19">
@@ -4106,7 +4111,7 @@
       <c r="A39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="26">
         <v>2015</v>
       </c>
       <c r="C39" s="19">
@@ -4180,7 +4185,7 @@
       <c r="A40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="26">
         <v>2016</v>
       </c>
       <c r="C40" s="19">
@@ -4254,7 +4259,7 @@
       <c r="A41" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="26">
         <v>2017</v>
       </c>
       <c r="C41" s="19">
@@ -4328,7 +4333,7 @@
       <c r="A42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="26">
         <v>2018</v>
       </c>
       <c r="C42" s="19">
@@ -4402,7 +4407,7 @@
       <c r="A43" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="26">
         <v>2019</v>
       </c>
       <c r="C43" s="19">
@@ -4476,7 +4481,7 @@
       <c r="A44" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="26">
         <v>2020</v>
       </c>
       <c r="C44" s="19">
@@ -4550,7 +4555,7 @@
       <c r="A45" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="26">
         <v>2021</v>
       </c>
       <c r="C45" s="19">
@@ -4624,7 +4629,7 @@
       <c r="A46" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="26">
         <v>2022</v>
       </c>
       <c r="C46" s="19">
@@ -4698,7 +4703,7 @@
       <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="26">
         <v>2023</v>
       </c>
       <c r="C47" s="19">
@@ -4772,7 +4777,7 @@
       <c r="A48" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="26">
         <v>2024</v>
       </c>
       <c r="C48" s="19">
@@ -4846,7 +4851,7 @@
       <c r="A49" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="26">
         <v>2025</v>
       </c>
       <c r="C49" s="19">
@@ -4920,7 +4925,7 @@
       <c r="A50" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="27">
         <v>2010</v>
       </c>
       <c r="C50" s="18" t="s">
@@ -4994,7 +4999,7 @@
       <c r="A51" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="27">
         <v>2011</v>
       </c>
       <c r="C51" s="18" t="s">
@@ -5068,7 +5073,7 @@
       <c r="A52" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="27">
         <v>2012</v>
       </c>
       <c r="C52" s="19">
@@ -5142,7 +5147,7 @@
       <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="27">
         <v>2013</v>
       </c>
       <c r="C53" s="19">
@@ -5216,7 +5221,7 @@
       <c r="A54" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="27">
         <v>2014</v>
       </c>
       <c r="C54" s="19">
@@ -5290,7 +5295,7 @@
       <c r="A55" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="26">
         <v>2015</v>
       </c>
       <c r="C55" s="19">
@@ -5364,7 +5369,7 @@
       <c r="A56" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="26">
         <v>2016</v>
       </c>
       <c r="C56" s="19">
@@ -5438,7 +5443,7 @@
       <c r="A57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="26">
         <v>2017</v>
       </c>
       <c r="C57" s="19">
@@ -5512,7 +5517,7 @@
       <c r="A58" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="26">
         <v>2018</v>
       </c>
       <c r="C58" s="19">
@@ -5586,7 +5591,7 @@
       <c r="A59" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="26">
         <v>2019</v>
       </c>
       <c r="C59" s="19">
@@ -5660,7 +5665,7 @@
       <c r="A60" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="26">
         <v>2020</v>
       </c>
       <c r="C60" s="19">
@@ -5734,7 +5739,7 @@
       <c r="A61" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="26">
         <v>2021</v>
       </c>
       <c r="C61" s="19">
@@ -5808,7 +5813,7 @@
       <c r="A62" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="26">
         <v>2022</v>
       </c>
       <c r="C62" s="19">
@@ -5882,7 +5887,7 @@
       <c r="A63" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="26">
         <v>2023</v>
       </c>
       <c r="C63" s="19">
@@ -5956,7 +5961,7 @@
       <c r="A64" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="26">
         <v>2024</v>
       </c>
       <c r="C64" s="19">
@@ -6030,7 +6035,7 @@
       <c r="A65" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="26">
         <v>2025</v>
       </c>
       <c r="C65" s="19">
@@ -6104,7 +6109,7 @@
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="27">
         <v>2010</v>
       </c>
       <c r="C66" s="18" t="s">
@@ -6160,7 +6165,7 @@
       <c r="A67" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="27">
         <v>2011</v>
       </c>
       <c r="C67" s="18" t="s">
@@ -6216,7 +6221,7 @@
       <c r="A68" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="27">
         <v>2012</v>
       </c>
       <c r="C68" s="19">
@@ -6272,7 +6277,7 @@
       <c r="A69" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="27">
         <v>2013</v>
       </c>
       <c r="C69" s="19">
@@ -6328,7 +6333,7 @@
       <c r="A70" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="27">
         <v>2014</v>
       </c>
       <c r="C70" s="19">
@@ -6384,7 +6389,7 @@
       <c r="A71" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="26">
         <v>2015</v>
       </c>
       <c r="C71" s="19">
@@ -6440,7 +6445,7 @@
       <c r="A72" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="26">
         <v>2016</v>
       </c>
       <c r="C72" s="19">
@@ -6496,7 +6501,7 @@
       <c r="A73" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="26">
         <v>2017</v>
       </c>
       <c r="C73" s="19">
@@ -6552,7 +6557,7 @@
       <c r="A74" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="26">
         <v>2018</v>
       </c>
       <c r="C74" s="19">
@@ -6608,7 +6613,7 @@
       <c r="A75" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="26">
         <v>2019</v>
       </c>
       <c r="C75" s="19">
@@ -6682,7 +6687,7 @@
       <c r="A76" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="26">
         <v>2020</v>
       </c>
       <c r="C76" s="19">
@@ -6756,7 +6761,7 @@
       <c r="A77" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="26">
         <v>2021</v>
       </c>
       <c r="C77" s="19">
@@ -6830,7 +6835,7 @@
       <c r="A78" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="26">
         <v>2022</v>
       </c>
       <c r="C78" s="19">
@@ -6904,7 +6909,7 @@
       <c r="A79" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="26">
         <v>2023</v>
       </c>
       <c r="C79" s="19">
@@ -6978,7 +6983,7 @@
       <c r="A80" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="26">
         <v>2024</v>
       </c>
       <c r="C80" s="19">
@@ -7052,7 +7057,7 @@
       <c r="A81" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="26">
         <v>2025</v>
       </c>
       <c r="C81" s="19">
@@ -7126,7 +7131,7 @@
       <c r="A82" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="27">
         <v>2010</v>
       </c>
       <c r="C82" s="18" t="s">
@@ -7200,7 +7205,7 @@
       <c r="A83" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="27">
         <v>2011</v>
       </c>
       <c r="C83" s="18" t="s">
@@ -7274,7 +7279,7 @@
       <c r="A84" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="27">
         <v>2012</v>
       </c>
       <c r="C84" s="19">
@@ -7348,7 +7353,7 @@
       <c r="A85" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="27">
         <v>2013</v>
       </c>
       <c r="C85" s="19">
@@ -7422,7 +7427,7 @@
       <c r="A86" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="27">
         <v>2014</v>
       </c>
       <c r="C86" s="19">
@@ -7496,7 +7501,7 @@
       <c r="A87" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="26">
         <v>2015</v>
       </c>
       <c r="C87" s="19">
@@ -7570,7 +7575,7 @@
       <c r="A88" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="26">
         <v>2016</v>
       </c>
       <c r="C88" s="19">
@@ -7644,7 +7649,7 @@
       <c r="A89" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="26">
         <v>2017</v>
       </c>
       <c r="C89" s="19">
@@ -7718,7 +7723,7 @@
       <c r="A90" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="26">
         <v>2018</v>
       </c>
       <c r="C90" s="19">
@@ -7792,7 +7797,7 @@
       <c r="A91" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="26">
         <v>2019</v>
       </c>
       <c r="C91" s="19">
@@ -7866,7 +7871,7 @@
       <c r="A92" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="26">
         <v>2020</v>
       </c>
       <c r="C92" s="19">
@@ -7940,7 +7945,7 @@
       <c r="A93" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="26">
         <v>2021</v>
       </c>
       <c r="C93" s="19">
@@ -8014,7 +8019,7 @@
       <c r="A94" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="26">
         <v>2022</v>
       </c>
       <c r="C94" s="19">
@@ -8088,7 +8093,7 @@
       <c r="A95" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="26">
         <v>2023</v>
       </c>
       <c r="C95" s="19">
@@ -8162,7 +8167,7 @@
       <c r="A96" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="26">
         <v>2024</v>
       </c>
       <c r="C96" s="19">
@@ -8236,7 +8241,7 @@
       <c r="A97" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="26">
         <v>2025</v>
       </c>
       <c r="C97" s="19">
@@ -8310,7 +8315,7 @@
       <c r="A98" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="27">
         <v>2010</v>
       </c>
       <c r="C98" s="18" t="s">
@@ -8384,7 +8389,7 @@
       <c r="A99" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="27">
         <v>2011</v>
       </c>
       <c r="C99" s="18" t="s">
@@ -8458,7 +8463,7 @@
       <c r="A100" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="27">
         <v>2012</v>
       </c>
       <c r="C100" s="19">
@@ -8532,7 +8537,7 @@
       <c r="A101" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="27">
         <v>2013</v>
       </c>
       <c r="C101" s="19">
@@ -8606,7 +8611,7 @@
       <c r="A102" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="27">
         <v>2014</v>
       </c>
       <c r="C102" s="19">
@@ -8680,7 +8685,7 @@
       <c r="A103" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="26">
         <v>2015</v>
       </c>
       <c r="C103" s="19">
@@ -8754,7 +8759,7 @@
       <c r="A104" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="26">
         <v>2016</v>
       </c>
       <c r="C104" s="19">
@@ -8828,7 +8833,7 @@
       <c r="A105" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="26">
         <v>2017</v>
       </c>
       <c r="C105" s="19">
@@ -8902,7 +8907,7 @@
       <c r="A106" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="26">
         <v>2018</v>
       </c>
       <c r="C106" s="19">
@@ -8976,7 +8981,7 @@
       <c r="A107" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="21">
+      <c r="B107" s="26">
         <v>2019</v>
       </c>
       <c r="C107" s="19">
@@ -9044,7 +9049,7 @@
       <c r="A108" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B108" s="21">
+      <c r="B108" s="26">
         <v>2020</v>
       </c>
       <c r="C108" s="19">
@@ -9118,7 +9123,7 @@
       <c r="A109" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="21">
+      <c r="B109" s="26">
         <v>2021</v>
       </c>
       <c r="C109" s="19">
@@ -9192,7 +9197,7 @@
       <c r="A110" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B110" s="21">
+      <c r="B110" s="26">
         <v>2022</v>
       </c>
       <c r="C110" s="19">
@@ -9266,7 +9271,7 @@
       <c r="A111" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="26">
         <v>2023</v>
       </c>
       <c r="C111" s="19">
@@ -9340,7 +9345,7 @@
       <c r="A112" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="26">
         <v>2024</v>
       </c>
       <c r="C112" s="19">
@@ -9414,7 +9419,7 @@
       <c r="A113" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="26">
         <v>2025</v>
       </c>
       <c r="C113" s="19">
@@ -9525,14 +9530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6" t="s">
         <v>21</v>
       </c>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD80489-24AE-8947-894C-AD41FF7E90D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D976D00-2567-5A49-A1A1-D847DC9ABFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
   <si>
     <t>Mamografo com Comando Simples</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Mamografia bilateral para rastreamento SIA**</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <r>
@@ -1301,9 +1298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6937F887-9FCB-4051-9CDF-E572BB71B3A7}">
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A114" sqref="A114:XFD114"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC62" sqref="AC62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1333,76 +1330,76 @@
   <sheetData>
     <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="L1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="R1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
@@ -1412,51 +1409,16 @@
       <c r="B2" s="26">
         <v>2010</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="19">
         <v>73</v>
       </c>
       <c r="F2" s="19">
         <v>99</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="U2" s="20">
         <v>3515642</v>
       </c>
@@ -1477,51 +1439,12 @@
       <c r="B3" s="26">
         <v>2011</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="U3" s="20">
         <v>3524260</v>
       </c>
@@ -1560,33 +1483,6 @@
       <c r="H4" s="19">
         <v>261</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U4" s="20">
         <v>3536282</v>
       </c>
@@ -1634,24 +1530,6 @@
       <c r="K5" s="19">
         <v>928</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U5" s="20">
         <v>3549697</v>
       </c>
@@ -1847,15 +1725,6 @@
       <c r="K8" s="19">
         <v>1414</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="O8" s="19">
         <v>9</v>
       </c>
@@ -1921,15 +1790,6 @@
       <c r="K9" s="19">
         <v>1333</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="O9" s="19">
         <v>2</v>
       </c>
@@ -1995,24 +1855,6 @@
       <c r="K10" s="19">
         <v>1582</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="R10" s="19">
         <v>84</v>
       </c>
@@ -2069,24 +1911,6 @@
       <c r="K11" s="19">
         <v>1276</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="R11" s="19">
         <v>58</v>
       </c>
@@ -2143,15 +1967,6 @@
       <c r="K12" s="19">
         <v>1145</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="O12" s="19">
         <v>2</v>
       </c>
@@ -2555,65 +2370,21 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="27">
         <v>2010</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="19">
         <v>13</v>
       </c>
       <c r="F18" s="19">
         <v>31</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="U18" s="20">
         <v>551462</v>
       </c>
@@ -2629,65 +2400,17 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="27">
         <v>2011</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="U19" s="20">
         <v>550616</v>
       </c>
@@ -2703,7 +2426,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="27">
         <v>2012</v>
@@ -2711,9 +2434,7 @@
       <c r="C20" s="19">
         <v>8</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="19">
         <v>12</v>
       </c>
@@ -2726,42 +2447,6 @@
       <c r="H20" s="19">
         <v>21</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U20" s="20">
         <v>548668</v>
       </c>
@@ -2777,7 +2462,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="27">
         <v>2013</v>
@@ -2785,9 +2470,7 @@
       <c r="C21" s="19">
         <v>8</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="18"/>
       <c r="E21" s="19">
         <v>12</v>
       </c>
@@ -2800,42 +2483,6 @@
       <c r="H21" s="19">
         <v>23</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U21" s="20">
         <v>546182</v>
       </c>
@@ -2851,7 +2498,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="27">
         <v>2014</v>
@@ -2859,9 +2506,7 @@
       <c r="C22" s="19">
         <v>8</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="19">
         <v>11</v>
       </c>
@@ -2874,15 +2519,6 @@
       <c r="H22" s="19">
         <v>24</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L22" s="19">
         <v>224</v>
       </c>
@@ -2892,24 +2528,6 @@
       <c r="N22" s="19">
         <v>2319</v>
       </c>
-      <c r="O22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U22" s="20">
         <v>543740</v>
       </c>
@@ -2925,7 +2543,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="26">
         <v>2015</v>
@@ -2933,9 +2551,7 @@
       <c r="C23" s="19">
         <v>9</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="19">
         <v>11</v>
       </c>
@@ -2948,15 +2564,6 @@
       <c r="H23" s="19">
         <v>27</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L23" s="19">
         <v>322</v>
       </c>
@@ -2966,24 +2573,6 @@
       <c r="N23" s="19">
         <v>3176</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U23" s="20">
         <v>541319</v>
       </c>
@@ -2999,7 +2588,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="26">
         <v>2016</v>
@@ -3007,9 +2596,7 @@
       <c r="C24" s="19">
         <v>10</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D24" s="18"/>
       <c r="E24" s="19">
         <v>9</v>
       </c>
@@ -3022,15 +2609,6 @@
       <c r="H24" s="19">
         <v>30</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L24" s="19">
         <v>626</v>
       </c>
@@ -3040,24 +2618,6 @@
       <c r="N24" s="19">
         <v>2358</v>
       </c>
-      <c r="O24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U24" s="20">
         <v>538527</v>
       </c>
@@ -3073,7 +2633,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="26">
         <v>2017</v>
@@ -3081,9 +2641,7 @@
       <c r="C25" s="19">
         <v>11</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="19">
         <v>8</v>
       </c>
@@ -3096,15 +2654,6 @@
       <c r="H25" s="19">
         <v>28</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L25" s="19">
         <v>1611</v>
       </c>
@@ -3114,24 +2663,6 @@
       <c r="N25" s="19">
         <v>12</v>
       </c>
-      <c r="O25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U25" s="20">
         <v>535342</v>
       </c>
@@ -3147,7 +2678,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="26">
         <v>2018</v>
@@ -3155,9 +2686,7 @@
       <c r="C26" s="19">
         <v>13</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="19">
         <v>6</v>
       </c>
@@ -3170,15 +2699,6 @@
       <c r="H26" s="19">
         <v>31</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L26" s="19">
         <v>3975</v>
       </c>
@@ -3188,24 +2708,6 @@
       <c r="N26" s="19">
         <v>1826</v>
       </c>
-      <c r="O26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U26" s="20">
         <v>531965</v>
       </c>
@@ -3221,7 +2723,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="26">
         <v>2019</v>
@@ -3229,9 +2731,7 @@
       <c r="C27" s="19">
         <v>13</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="19">
         <v>8</v>
       </c>
@@ -3244,15 +2744,6 @@
       <c r="H27" s="19">
         <v>29</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L27" s="19">
         <v>9182</v>
       </c>
@@ -3262,24 +2753,6 @@
       <c r="N27" s="19">
         <v>4598</v>
       </c>
-      <c r="O27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T27" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U27" s="20">
         <v>528556</v>
       </c>
@@ -3295,7 +2768,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="26">
         <v>2020</v>
@@ -3303,9 +2776,7 @@
       <c r="C28" s="19">
         <v>12</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="19">
         <v>7</v>
       </c>
@@ -3318,15 +2789,6 @@
       <c r="H28" s="19">
         <v>27</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L28" s="19">
         <v>6978</v>
       </c>
@@ -3336,24 +2798,6 @@
       <c r="N28" s="19">
         <v>3190</v>
       </c>
-      <c r="O28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U28" s="20">
         <v>524809</v>
       </c>
@@ -3369,7 +2813,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="26">
         <v>2021</v>
@@ -3377,9 +2821,7 @@
       <c r="C29" s="19">
         <v>9</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D29" s="18"/>
       <c r="E29" s="19">
         <v>5</v>
       </c>
@@ -3392,15 +2834,6 @@
       <c r="H29" s="19">
         <v>27</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L29" s="19">
         <v>3364</v>
       </c>
@@ -3410,24 +2843,6 @@
       <c r="N29" s="19">
         <v>972</v>
       </c>
-      <c r="O29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U29" s="20">
         <v>520249</v>
       </c>
@@ -3443,7 +2858,7 @@
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="26">
         <v>2022</v>
@@ -3466,15 +2881,6 @@
       <c r="H30" s="19">
         <v>24</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L30" s="19">
         <v>15321</v>
       </c>
@@ -3484,24 +2890,6 @@
       <c r="N30" s="19">
         <v>638</v>
       </c>
-      <c r="O30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U30" s="20">
         <v>515418</v>
       </c>
@@ -3517,7 +2905,7 @@
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="26">
         <v>2023</v>
@@ -3540,15 +2928,6 @@
       <c r="H31" s="19">
         <v>21</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L31" s="19">
         <v>11727</v>
       </c>
@@ -3558,24 +2937,6 @@
       <c r="N31" s="19">
         <v>3304</v>
       </c>
-      <c r="O31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U31" s="20">
         <v>510745</v>
       </c>
@@ -3591,7 +2952,7 @@
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="26">
         <v>2024</v>
@@ -3614,15 +2975,6 @@
       <c r="H32" s="19">
         <v>23</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L32" s="19">
         <v>9122</v>
       </c>
@@ -3632,24 +2984,6 @@
       <c r="N32" s="19">
         <v>2470</v>
       </c>
-      <c r="O32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U32" s="20">
         <v>506119</v>
       </c>
@@ -3665,7 +2999,7 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="26">
         <v>2025</v>
@@ -3688,15 +3022,6 @@
       <c r="H33" s="19">
         <v>33</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L33" s="19">
         <v>5761</v>
       </c>
@@ -3706,24 +3031,12 @@
       <c r="N33" s="19">
         <v>1686</v>
       </c>
-      <c r="O33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="R33" s="19">
         <v>23</v>
       </c>
       <c r="S33" s="19">
         <v>179</v>
       </c>
-      <c r="T33" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U33" s="20">
         <v>505967</v>
       </c>
@@ -3739,65 +3052,21 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="27">
         <v>2010</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="19">
         <v>7</v>
       </c>
       <c r="F34" s="19">
         <v>10</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
       <c r="U34" s="20">
         <v>465048</v>
       </c>
@@ -3813,65 +3082,17 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="27">
         <v>2011</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T35" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
       <c r="U35" s="20">
         <v>465201</v>
       </c>
@@ -3887,7 +3108,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="27">
         <v>2012</v>
@@ -3895,9 +3116,7 @@
       <c r="C36" s="19">
         <v>5</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="19">
         <v>6</v>
       </c>
@@ -3910,42 +3129,6 @@
       <c r="H36" s="19">
         <v>9</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T36" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U36" s="20">
         <v>465173</v>
       </c>
@@ -3961,7 +3144,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="27">
         <v>2013</v>
@@ -3969,9 +3152,7 @@
       <c r="C37" s="19">
         <v>5</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="19">
         <v>7</v>
       </c>
@@ -3984,42 +3165,6 @@
       <c r="H37" s="19">
         <v>8</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U37" s="20">
         <v>465087</v>
       </c>
@@ -4035,7 +3180,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="27">
         <v>2014</v>
@@ -4043,9 +3188,7 @@
       <c r="C38" s="19">
         <v>6</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="19">
         <v>6</v>
       </c>
@@ -4058,42 +3201,6 @@
       <c r="H38" s="19">
         <v>10</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U38" s="20">
         <v>465103</v>
       </c>
@@ -4109,7 +3216,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="26">
         <v>2015</v>
@@ -4117,9 +3224,7 @@
       <c r="C39" s="19">
         <v>6</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="19">
         <v>7</v>
       </c>
@@ -4132,42 +3237,9 @@
       <c r="H39" s="19">
         <v>10</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="K39" s="19">
         <v>1</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U39" s="20">
         <v>465159</v>
       </c>
@@ -4183,7 +3255,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="26">
         <v>2016</v>
@@ -4191,9 +3263,7 @@
       <c r="C40" s="19">
         <v>6</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="19">
         <v>7</v>
       </c>
@@ -4206,42 +3276,6 @@
       <c r="H40" s="19">
         <v>9</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U40" s="20">
         <v>464849</v>
       </c>
@@ -4257,7 +3291,7 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="26">
         <v>2017</v>
@@ -4280,42 +3314,6 @@
       <c r="H41" s="19">
         <v>12</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U41" s="20">
         <v>464128</v>
       </c>
@@ -4331,7 +3329,7 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="26">
         <v>2018</v>
@@ -4354,42 +3352,6 @@
       <c r="H42" s="19">
         <v>14</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T42" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U42" s="20">
         <v>463208</v>
       </c>
@@ -4405,7 +3367,7 @@
     </row>
     <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="26">
         <v>2019</v>
@@ -4428,15 +3390,6 @@
       <c r="H43" s="19">
         <v>13</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L43" s="19">
         <v>9</v>
       </c>
@@ -4446,24 +3399,6 @@
       <c r="N43" s="19">
         <v>510</v>
       </c>
-      <c r="O43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T43" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U43" s="20">
         <v>462202</v>
       </c>
@@ -4479,7 +3414,7 @@
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="26">
         <v>2020</v>
@@ -4502,15 +3437,6 @@
       <c r="H44" s="19">
         <v>9</v>
       </c>
-      <c r="I44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L44" s="19">
         <v>0</v>
       </c>
@@ -4520,24 +3446,6 @@
       <c r="N44" s="19">
         <v>2735</v>
       </c>
-      <c r="O44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U44" s="20">
         <v>460883</v>
       </c>
@@ -4553,7 +3461,7 @@
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="26">
         <v>2021</v>
@@ -4576,15 +3484,6 @@
       <c r="H45" s="19">
         <v>11</v>
       </c>
-      <c r="I45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L45" s="19">
         <v>0</v>
       </c>
@@ -4594,24 +3493,6 @@
       <c r="N45" s="19">
         <v>6559</v>
       </c>
-      <c r="O45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T45" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U45" s="20">
         <v>458840</v>
       </c>
@@ -4627,7 +3508,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="26">
         <v>2022</v>
@@ -4635,9 +3516,7 @@
       <c r="C46" s="19">
         <v>8</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4650,15 +3529,6 @@
       <c r="H46" s="19">
         <v>12</v>
       </c>
-      <c r="I46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L46" s="19">
         <v>15</v>
       </c>
@@ -4668,24 +3538,6 @@
       <c r="N46" s="19">
         <v>6318</v>
       </c>
-      <c r="O46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T46" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U46" s="20">
         <v>456430</v>
       </c>
@@ -4701,7 +3553,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="26">
         <v>2023</v>
@@ -4724,15 +3576,6 @@
       <c r="H47" s="19">
         <v>13</v>
       </c>
-      <c r="I47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L47" s="19">
         <v>4437</v>
       </c>
@@ -4742,24 +3585,6 @@
       <c r="N47" s="19">
         <v>2505</v>
       </c>
-      <c r="O47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T47" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U47" s="20">
         <v>454038</v>
       </c>
@@ -4775,7 +3600,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="26">
         <v>2024</v>
@@ -4783,9 +3608,7 @@
       <c r="C48" s="19">
         <v>9</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="19">
         <v>5</v>
       </c>
@@ -4798,12 +3621,6 @@
       <c r="H48" s="19">
         <v>11</v>
       </c>
-      <c r="I48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="K48" s="19">
         <v>1</v>
       </c>
@@ -4816,24 +3633,6 @@
       <c r="N48" s="19">
         <v>7093</v>
       </c>
-      <c r="O48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T48" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U48" s="20">
         <v>451688</v>
       </c>
@@ -4849,7 +3648,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="26">
         <v>2025</v>
@@ -4857,9 +3656,7 @@
       <c r="C49" s="19">
         <v>9</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="19">
         <v>5</v>
       </c>
@@ -4872,15 +3669,6 @@
       <c r="H49" s="19">
         <v>12</v>
       </c>
-      <c r="I49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L49" s="19">
         <v>822</v>
       </c>
@@ -4890,24 +3678,6 @@
       <c r="N49" s="19">
         <v>2724</v>
       </c>
-      <c r="O49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T49" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U49" s="20">
         <v>451712</v>
       </c>
@@ -4923,65 +3693,21 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="27">
         <v>2010</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="19">
         <v>11</v>
       </c>
       <c r="F50" s="19">
         <v>22</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T50" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="U50" s="20">
         <v>425757</v>
       </c>
@@ -4997,65 +3723,17 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="27">
         <v>2011</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S51" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="U51" s="20">
         <v>426679</v>
       </c>
@@ -5071,7 +3749,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="27">
         <v>2012</v>
@@ -5079,9 +3757,7 @@
       <c r="C52" s="19">
         <v>3</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D52" s="18"/>
       <c r="E52" s="19">
         <v>10</v>
       </c>
@@ -5094,42 +3770,6 @@
       <c r="H52" s="19">
         <v>16</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T52" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U52" s="20">
         <v>428279</v>
       </c>
@@ -5145,7 +3785,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="27">
         <v>2013</v>
@@ -5153,9 +3793,7 @@
       <c r="C53" s="19">
         <v>4</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D53" s="18"/>
       <c r="E53" s="19">
         <v>9</v>
       </c>
@@ -5177,33 +3815,6 @@
       <c r="K53" s="19">
         <v>6</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T53" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U53" s="20">
         <v>430209</v>
       </c>
@@ -5219,7 +3830,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="27">
         <v>2014</v>
@@ -5227,9 +3838,7 @@
       <c r="C54" s="19">
         <v>5</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D54" s="18"/>
       <c r="E54" s="19">
         <v>10</v>
       </c>
@@ -5260,24 +3869,6 @@
       <c r="N54" s="19">
         <v>10</v>
       </c>
-      <c r="O54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S54" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T54" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U54" s="20">
         <v>432194</v>
       </c>
@@ -5293,7 +3884,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="26">
         <v>2015</v>
@@ -5301,9 +3892,7 @@
       <c r="C55" s="19">
         <v>5</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D55" s="18"/>
       <c r="E55" s="19">
         <v>10</v>
       </c>
@@ -5334,24 +3923,6 @@
       <c r="N55" s="19">
         <v>16</v>
       </c>
-      <c r="O55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T55" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U55" s="20">
         <v>434204</v>
       </c>
@@ -5367,7 +3938,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="26">
         <v>2016</v>
@@ -5375,9 +3946,7 @@
       <c r="C56" s="19">
         <v>5</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D56" s="18"/>
       <c r="E56" s="19">
         <v>10</v>
       </c>
@@ -5408,24 +3977,6 @@
       <c r="N56" s="19">
         <v>18</v>
       </c>
-      <c r="O56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U56" s="20">
         <v>435883</v>
       </c>
@@ -5441,7 +3992,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="26">
         <v>2017</v>
@@ -5449,9 +4000,7 @@
       <c r="C57" s="19">
         <v>5</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D57" s="18"/>
       <c r="E57" s="19">
         <v>10</v>
       </c>
@@ -5482,24 +4031,6 @@
       <c r="N57" s="19">
         <v>13</v>
       </c>
-      <c r="O57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T57" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U57" s="20">
         <v>437176</v>
       </c>
@@ -5515,7 +4046,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="26">
         <v>2018</v>
@@ -5523,9 +4054,7 @@
       <c r="C58" s="19">
         <v>7</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="19">
         <v>9</v>
       </c>
@@ -5556,24 +4085,6 @@
       <c r="N58" s="19">
         <v>409</v>
       </c>
-      <c r="O58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T58" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U58" s="20">
         <v>438271</v>
       </c>
@@ -5589,7 +4100,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="26">
         <v>2019</v>
@@ -5597,9 +4108,7 @@
       <c r="C59" s="19">
         <v>7</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D59" s="18"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -5630,24 +4139,6 @@
       <c r="N59" s="19">
         <v>403</v>
       </c>
-      <c r="O59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T59" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U59" s="20">
         <v>439289</v>
       </c>
@@ -5663,7 +4154,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="26">
         <v>2020</v>
@@ -5671,9 +4162,7 @@
       <c r="C60" s="19">
         <v>8</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D60" s="18"/>
       <c r="E60" s="19">
         <v>8</v>
       </c>
@@ -5704,24 +4193,6 @@
       <c r="N60" s="19">
         <v>79</v>
       </c>
-      <c r="O60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U60" s="20">
         <v>440007</v>
       </c>
@@ -5737,7 +4208,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="26">
         <v>2021</v>
@@ -5745,9 +4216,7 @@
       <c r="C61" s="19">
         <v>10</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D61" s="18"/>
       <c r="E61" s="19">
         <v>8</v>
       </c>
@@ -5778,24 +4247,6 @@
       <c r="N61" s="19">
         <v>1734</v>
       </c>
-      <c r="O61" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R61" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S61" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T61" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U61" s="20">
         <v>440053</v>
       </c>
@@ -5811,7 +4262,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="26">
         <v>2022</v>
@@ -5819,9 +4270,7 @@
       <c r="C62" s="19">
         <v>9</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="19">
         <v>10</v>
       </c>
@@ -5852,24 +4301,6 @@
       <c r="N62" s="19">
         <v>2912</v>
       </c>
-      <c r="O62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T62" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U62" s="20">
         <v>439785</v>
       </c>
@@ -5885,7 +4316,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="26">
         <v>2023</v>
@@ -5893,9 +4324,7 @@
       <c r="C63" s="19">
         <v>10</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D63" s="18"/>
       <c r="E63" s="19">
         <v>9</v>
       </c>
@@ -5926,24 +4355,6 @@
       <c r="N63" s="19">
         <v>3750</v>
       </c>
-      <c r="O63" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P63" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R63" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S63" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T63" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U63" s="20">
         <v>439605</v>
       </c>
@@ -5959,7 +4370,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="26">
         <v>2024</v>
@@ -5967,9 +4378,7 @@
       <c r="C64" s="19">
         <v>10</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D64" s="18"/>
       <c r="E64" s="19">
         <v>9</v>
       </c>
@@ -6000,24 +4409,6 @@
       <c r="N64" s="19">
         <v>1752</v>
       </c>
-      <c r="O64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T64" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U64" s="20">
         <v>439376</v>
       </c>
@@ -6033,7 +4424,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="26">
         <v>2025</v>
@@ -6041,9 +4432,7 @@
       <c r="C65" s="19">
         <v>10</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D65" s="18"/>
       <c r="E65" s="19">
         <v>8</v>
       </c>
@@ -6074,24 +4463,6 @@
       <c r="N65" s="19">
         <v>356</v>
       </c>
-      <c r="O65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T65" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U65" s="20">
         <v>439467</v>
       </c>
@@ -6107,14 +4478,12 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="27">
         <v>2010</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C66" s="18"/>
       <c r="D66" s="19">
         <v>5</v>
       </c>
@@ -6124,30 +4493,8 @@
       <c r="F66" s="19">
         <v>11</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
       <c r="U66" s="20">
         <v>246190</v>
       </c>
@@ -6163,47 +4510,19 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="27">
         <v>2011</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="19">
         <v>5</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
       <c r="U67" s="20">
         <v>248112</v>
       </c>
@@ -6219,7 +4538,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="27">
         <v>2012</v>
@@ -6242,24 +4561,6 @@
       <c r="H68" s="19">
         <v>17</v>
       </c>
-      <c r="I68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U68" s="20">
         <v>250216</v>
       </c>
@@ -6275,7 +4576,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="27">
         <v>2013</v>
@@ -6307,15 +4608,6 @@
       <c r="K69" s="19">
         <v>67</v>
       </c>
-      <c r="L69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U69" s="20">
         <v>252401</v>
       </c>
@@ -6331,7 +4623,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="27">
         <v>2014</v>
@@ -6387,7 +4679,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="26">
         <v>2015</v>
@@ -6419,15 +4711,6 @@
       <c r="K71" s="19">
         <v>107</v>
       </c>
-      <c r="L71" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U71" s="20">
         <v>256889</v>
       </c>
@@ -6443,7 +4726,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="26">
         <v>2016</v>
@@ -6475,15 +4758,6 @@
       <c r="K72" s="19">
         <v>108</v>
       </c>
-      <c r="L72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U72" s="20">
         <v>258944</v>
       </c>
@@ -6499,7 +4773,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="26">
         <v>2017</v>
@@ -6531,15 +4805,6 @@
       <c r="K73" s="19">
         <v>156</v>
       </c>
-      <c r="L73" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U73" s="20">
         <v>260773</v>
       </c>
@@ -6555,7 +4820,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="26">
         <v>2018</v>
@@ -6587,15 +4852,6 @@
       <c r="K74" s="19">
         <v>129</v>
       </c>
-      <c r="L74" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N74" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U74" s="20">
         <v>262512</v>
       </c>
@@ -6611,7 +4867,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="26">
         <v>2019</v>
@@ -6685,7 +4941,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="26">
         <v>2020</v>
@@ -6759,7 +5015,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="26">
         <v>2021</v>
@@ -6833,7 +5089,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="26">
         <v>2022</v>
@@ -6907,7 +5163,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="26">
         <v>2023</v>
@@ -6981,7 +5237,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="26">
         <v>2024</v>
@@ -7055,7 +5311,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="26">
         <v>2025</v>
@@ -7129,65 +5385,21 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="27">
         <v>2010</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
       <c r="F82" s="19">
         <v>4</v>
       </c>
-      <c r="G82" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T82" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
       <c r="U82" s="20">
         <v>258270</v>
       </c>
@@ -7203,65 +5415,17 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="27">
         <v>2011</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S83" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T83" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
       <c r="U83" s="20">
         <v>259186</v>
       </c>
@@ -7277,7 +5441,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="27">
         <v>2012</v>
@@ -7285,9 +5449,7 @@
       <c r="C84" s="19">
         <v>2</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D84" s="18"/>
       <c r="E84" s="19">
         <v>2</v>
       </c>
@@ -7300,42 +5462,6 @@
       <c r="H84" s="19">
         <v>2</v>
       </c>
-      <c r="I84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T84" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U84" s="20">
         <v>260393</v>
       </c>
@@ -7351,7 +5477,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="27">
         <v>2013</v>
@@ -7359,9 +5485,7 @@
       <c r="C85" s="19">
         <v>2</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D85" s="18"/>
       <c r="E85" s="19">
         <v>2</v>
       </c>
@@ -7374,42 +5498,6 @@
       <c r="H85" s="19">
         <v>2</v>
       </c>
-      <c r="I85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S85" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T85" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U85" s="20">
         <v>261723</v>
       </c>
@@ -7425,7 +5513,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="27">
         <v>2014</v>
@@ -7433,9 +5521,7 @@
       <c r="C86" s="19">
         <v>2</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D86" s="18"/>
       <c r="E86" s="19">
         <v>2</v>
       </c>
@@ -7448,42 +5534,6 @@
       <c r="H86" s="19">
         <v>4</v>
       </c>
-      <c r="I86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T86" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U86" s="20">
         <v>263093</v>
       </c>
@@ -7499,7 +5549,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="26">
         <v>2015</v>
@@ -7507,9 +5557,7 @@
       <c r="C87" s="19">
         <v>3</v>
       </c>
-      <c r="D87" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D87" s="18"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -7522,42 +5570,6 @@
       <c r="H87" s="19">
         <v>6</v>
       </c>
-      <c r="I87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T87" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U87" s="20">
         <v>264492</v>
       </c>
@@ -7573,7 +5585,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" s="26">
         <v>2016</v>
@@ -7581,9 +5593,7 @@
       <c r="C88" s="19">
         <v>4</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D88" s="18"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -7596,42 +5606,6 @@
       <c r="H88" s="19">
         <v>6</v>
       </c>
-      <c r="I88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T88" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U88" s="20">
         <v>265663</v>
       </c>
@@ -7647,7 +5621,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A89" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="26">
         <v>2017</v>
@@ -7655,9 +5629,7 @@
       <c r="C89" s="19">
         <v>4</v>
       </c>
-      <c r="D89" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D89" s="18"/>
       <c r="E89" s="19">
         <v>3</v>
       </c>
@@ -7670,42 +5642,6 @@
       <c r="H89" s="19">
         <v>6</v>
       </c>
-      <c r="I89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S89" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T89" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U89" s="20">
         <v>266568</v>
       </c>
@@ -7721,7 +5657,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="26">
         <v>2018</v>
@@ -7729,9 +5665,7 @@
       <c r="C90" s="19">
         <v>6</v>
       </c>
-      <c r="D90" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D90" s="18"/>
       <c r="E90" s="19">
         <v>3</v>
       </c>
@@ -7744,42 +5678,6 @@
       <c r="H90" s="19">
         <v>6</v>
       </c>
-      <c r="I90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S90" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T90" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U90" s="20">
         <v>267318</v>
       </c>
@@ -7795,7 +5693,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91" s="26">
         <v>2019</v>
@@ -7803,9 +5701,7 @@
       <c r="C91" s="19">
         <v>6</v>
       </c>
-      <c r="D91" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D91" s="18"/>
       <c r="E91" s="19">
         <v>3</v>
       </c>
@@ -7818,15 +5714,6 @@
       <c r="H91" s="19">
         <v>6</v>
       </c>
-      <c r="I91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L91" s="19">
         <v>92</v>
       </c>
@@ -7836,24 +5723,6 @@
       <c r="N91" s="19">
         <v>478</v>
       </c>
-      <c r="O91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T91" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U91" s="20">
         <v>267971</v>
       </c>
@@ -7869,7 +5738,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="26">
         <v>2020</v>
@@ -7877,9 +5746,7 @@
       <c r="C92" s="19">
         <v>8</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D92" s="18"/>
       <c r="E92" s="19">
         <v>3</v>
       </c>
@@ -7892,15 +5759,6 @@
       <c r="H92" s="19">
         <v>9</v>
       </c>
-      <c r="I92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L92" s="19">
         <v>69</v>
       </c>
@@ -7910,24 +5768,6 @@
       <c r="N92" s="19">
         <v>1462</v>
       </c>
-      <c r="O92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T92" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U92" s="20">
         <v>268441</v>
       </c>
@@ -7943,7 +5783,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A93" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="26">
         <v>2021</v>
@@ -7951,9 +5791,7 @@
       <c r="C93" s="19">
         <v>12</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D93" s="18"/>
       <c r="E93" s="19">
         <v>1</v>
       </c>
@@ -7966,15 +5804,6 @@
       <c r="H93" s="19">
         <v>15</v>
       </c>
-      <c r="I93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L93" s="19">
         <v>5509</v>
       </c>
@@ -7984,24 +5813,6 @@
       <c r="N93" s="19">
         <v>131</v>
       </c>
-      <c r="O93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T93" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U93" s="20">
         <v>268509</v>
       </c>
@@ -8017,7 +5828,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A94" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94" s="26">
         <v>2022</v>
@@ -8040,15 +5851,6 @@
       <c r="H94" s="19">
         <v>17</v>
       </c>
-      <c r="I94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L94" s="19">
         <v>6356</v>
       </c>
@@ -8058,24 +5860,6 @@
       <c r="N94" s="19">
         <v>203</v>
       </c>
-      <c r="O94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T94" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U94" s="20">
         <v>268394</v>
       </c>
@@ -8091,7 +5875,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A95" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="26">
         <v>2023</v>
@@ -8114,15 +5898,6 @@
       <c r="H95" s="19">
         <v>20</v>
       </c>
-      <c r="I95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L95" s="19">
         <v>1431</v>
       </c>
@@ -8132,24 +5907,6 @@
       <c r="N95" s="19">
         <v>938</v>
       </c>
-      <c r="O95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S95" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T95" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U95" s="20">
         <v>268309</v>
       </c>
@@ -8165,7 +5922,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A96" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B96" s="26">
         <v>2024</v>
@@ -8188,15 +5945,6 @@
       <c r="H96" s="19">
         <v>33</v>
       </c>
-      <c r="I96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L96" s="19">
         <v>621</v>
       </c>
@@ -8206,24 +5954,6 @@
       <c r="N96" s="19">
         <v>786</v>
       </c>
-      <c r="O96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T96" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U96" s="20">
         <v>268367</v>
       </c>
@@ -8239,7 +5969,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A97" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B97" s="26">
         <v>2025</v>
@@ -8262,15 +5992,6 @@
       <c r="H97" s="19">
         <v>30</v>
       </c>
-      <c r="I97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L97" s="19">
         <v>653</v>
       </c>
@@ -8280,24 +6001,6 @@
       <c r="N97" s="19">
         <v>56</v>
       </c>
-      <c r="O97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T97" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U97" s="20">
         <v>268425</v>
       </c>
@@ -8313,65 +6016,21 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" s="27">
         <v>2010</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="19">
         <v>21</v>
       </c>
       <c r="F98" s="19">
         <v>28</v>
       </c>
-      <c r="G98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T98" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
       <c r="U98" s="20">
         <v>272073</v>
       </c>
@@ -8387,65 +6046,17 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="27">
         <v>2011</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S99" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T99" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
       <c r="U99" s="20">
         <v>272696</v>
       </c>
@@ -8461,7 +6072,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="27">
         <v>2012</v>
@@ -8484,42 +6095,6 @@
       <c r="H100" s="19">
         <v>29</v>
       </c>
-      <c r="I100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S100" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T100" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U100" s="20">
         <v>273547</v>
       </c>
@@ -8535,7 +6110,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" s="27">
         <v>2013</v>
@@ -8567,33 +6142,6 @@
       <c r="K101" s="19">
         <v>33</v>
       </c>
-      <c r="L101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S101" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T101" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U101" s="20">
         <v>274553</v>
       </c>
@@ -8609,7 +6157,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="27">
         <v>2014</v>
@@ -8641,33 +6189,6 @@
       <c r="K102" s="19">
         <v>62</v>
       </c>
-      <c r="L102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T102" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U102" s="20">
         <v>275586</v>
       </c>
@@ -8683,7 +6204,7 @@
     </row>
     <row r="103" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103" s="26">
         <v>2015</v>
@@ -8715,33 +6236,6 @@
       <c r="K103" s="19">
         <v>63</v>
       </c>
-      <c r="L103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T103" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U103" s="20">
         <v>276580</v>
       </c>
@@ -8757,7 +6251,7 @@
     </row>
     <row r="104" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B104" s="26">
         <v>2016</v>
@@ -8789,33 +6283,6 @@
       <c r="K104" s="19">
         <v>38</v>
       </c>
-      <c r="L104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T104" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U104" s="20">
         <v>277382</v>
       </c>
@@ -8831,7 +6298,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A105" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="26">
         <v>2017</v>
@@ -8863,33 +6330,6 @@
       <c r="K105" s="19">
         <v>69</v>
       </c>
-      <c r="L105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S105" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T105" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U105" s="20">
         <v>277965</v>
       </c>
@@ -8905,7 +6345,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A106" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B106" s="26">
         <v>2018</v>
@@ -8937,33 +6377,6 @@
       <c r="K106" s="19">
         <v>82</v>
       </c>
-      <c r="L106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T106" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U106" s="20">
         <v>278480</v>
       </c>
@@ -8979,7 +6392,7 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A107" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" s="26">
         <v>2019</v>
@@ -9005,33 +6418,6 @@
       <c r="K107" s="19">
         <v>91</v>
       </c>
-      <c r="L107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S107" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T107" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U107" s="20">
         <v>278960</v>
       </c>
@@ -9047,7 +6433,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A108" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B108" s="26">
         <v>2020</v>
@@ -9079,33 +6465,6 @@
       <c r="K108" s="19">
         <v>74</v>
       </c>
-      <c r="L108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T108" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U108" s="20">
         <v>279176</v>
       </c>
@@ -9121,7 +6480,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A109" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B109" s="26">
         <v>2021</v>
@@ -9171,15 +6530,6 @@
       <c r="Q109" s="19">
         <v>1</v>
       </c>
-      <c r="R109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T109" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U109" s="20">
         <v>278865</v>
       </c>
@@ -9195,7 +6545,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A110" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="26">
         <v>2022</v>
@@ -9248,9 +6598,6 @@
       <c r="R110" s="19">
         <v>10</v>
       </c>
-      <c r="S110" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="T110" s="19">
         <v>3</v>
       </c>
@@ -9269,7 +6616,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A111" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" s="26">
         <v>2023</v>
@@ -9319,9 +6666,6 @@
       <c r="Q111" s="19">
         <v>20</v>
       </c>
-      <c r="R111" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="S111" s="19">
         <v>29</v>
       </c>
@@ -9343,7 +6687,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A112" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="26">
         <v>2024</v>
@@ -9393,15 +6737,6 @@
       <c r="Q112" s="19">
         <v>6</v>
       </c>
-      <c r="R112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S112" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T112" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="U112" s="20">
         <v>278069</v>
       </c>
@@ -9417,7 +6752,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A113" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="26">
         <v>2025</v>
@@ -9468,13 +6803,13 @@
         <v>3</v>
       </c>
       <c r="R113" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S113" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T113" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U113" s="20">
         <v>278102</v>
@@ -9539,42 +6874,42 @@
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="104" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -9930,70 +7265,70 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1898</v>
@@ -10031,7 +7366,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1238</v>
@@ -10069,7 +7404,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1238</v>
@@ -10107,7 +7442,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>195</v>
@@ -10145,7 +7480,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>178</v>
@@ -10183,7 +7518,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -10221,7 +7556,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>465</v>
@@ -10259,7 +7594,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>410</v>
@@ -10297,7 +7632,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -10373,47 +7708,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10433,70 +7768,70 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>195</v>
@@ -10534,7 +7869,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>195</v>
@@ -10572,7 +7907,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>178</v>
@@ -10610,7 +7945,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -10686,47 +8021,47 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10746,70 +8081,70 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>5013</v>
@@ -10847,7 +8182,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1358</v>
@@ -10885,7 +8220,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1358</v>
@@ -10923,7 +8258,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>960</v>
@@ -10961,7 +8296,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>960</v>
@@ -10999,7 +8334,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>2695</v>
@@ -11037,7 +8372,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>76</v>
@@ -11075,7 +8410,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>2619</v>
@@ -11151,47 +8486,47 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/mamografias_CA_mama.xlsx
+++ b/mamografias_CA_mama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro.jatoba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F3F85-9978-7647-ABCA-58CEAA05FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7DEC6-48B3-4E0A-A34C-929F1D851F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{1A3EED76-0BA3-4F12-9608-66A62CFBE2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -749,16 +749,16 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1100,15 +1100,15 @@
       <selection activeCell="F4" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -1203,9 +1203,9 @@
       <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -1296,37 +1296,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6937F887-9FCB-4051-9CDF-E572BB71B3A7}">
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="23" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.6640625" style="18"/>
-    <col min="21" max="21" width="14.33203125" style="28" customWidth="1"/>
-    <col min="22" max="22" width="26.1640625" style="18" customWidth="1"/>
-    <col min="23" max="23" width="27.5" style="18" customWidth="1"/>
-    <col min="24" max="24" width="25.6640625" style="18" customWidth="1"/>
-    <col min="25" max="16384" width="8.6640625" style="18"/>
+    <col min="9" max="9" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.7109375" style="18"/>
+    <col min="21" max="21" width="14.28515625" style="26" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="27.42578125" style="18" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" style="18" customWidth="1"/>
+    <col min="25" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="T1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="25" t="s">
         <v>93</v>
       </c>
       <c r="V1" s="19" t="s">
@@ -1400,7 +1400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="U2" s="28">
+      <c r="U2" s="26">
         <v>3515642</v>
       </c>
       <c r="V2" s="18">
@@ -1430,7 +1430,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="U3" s="28">
+      <c r="U3" s="26">
         <v>3524260</v>
       </c>
       <c r="V3" s="18">
@@ -1456,7 +1456,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="H4" s="18">
         <v>261</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="26">
         <v>3536282</v>
       </c>
       <c r="V4" s="18">
@@ -1494,7 +1494,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="K5" s="18">
         <v>928</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="26">
         <v>3549697</v>
       </c>
       <c r="V5" s="18">
@@ -1541,7 +1541,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="T6" s="18">
         <v>17</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="26">
         <v>3563090</v>
       </c>
       <c r="V6" s="18">
@@ -1615,7 +1615,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="T7" s="18">
         <v>5</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="26">
         <v>3575781</v>
       </c>
       <c r="V7" s="18">
@@ -1689,7 +1689,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="T8" s="18">
         <v>3</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="26">
         <v>3585488</v>
       </c>
       <c r="V8" s="18">
@@ -1754,7 +1754,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="T9" s="18">
         <v>4</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="26">
         <v>3592032</v>
       </c>
       <c r="V9" s="18">
@@ -1819,7 +1819,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="T10" s="18">
         <v>2</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="26">
         <v>3596667</v>
       </c>
       <c r="V10" s="18">
@@ -1875,7 +1875,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="T11" s="18">
         <v>26</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="26">
         <v>3600315</v>
       </c>
       <c r="V11" s="18">
@@ -1931,7 +1931,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="T12" s="18">
         <v>1</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="26">
         <v>3600366</v>
       </c>
       <c r="V12" s="18">
@@ -1996,7 +1996,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="T13" s="18">
         <v>9</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="26">
         <v>3594191</v>
       </c>
       <c r="V13" s="18">
@@ -2070,7 +2070,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="T14" s="18">
         <v>1</v>
       </c>
-      <c r="U14" s="28">
+      <c r="U14" s="26">
         <v>3586955</v>
       </c>
       <c r="V14" s="18">
@@ -2144,7 +2144,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="T15" s="18">
         <v>87</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="26">
         <v>3583125</v>
       </c>
       <c r="V15" s="18">
@@ -2218,7 +2218,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="T16" s="18">
         <v>151</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="26">
         <v>3580277</v>
       </c>
       <c r="V16" s="18">
@@ -2292,7 +2292,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="T17" s="18">
         <v>105</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="26">
         <v>3580655</v>
       </c>
       <c r="V17" s="18">
@@ -2366,7 +2366,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="U18" s="28">
+      <c r="U18" s="26">
         <v>551462</v>
       </c>
       <c r="V18" s="18">
@@ -2396,7 +2396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>66</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="U19" s="28">
+      <c r="U19" s="26">
         <v>550616</v>
       </c>
       <c r="V19" s="18">
@@ -2422,7 +2422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
@@ -2445,7 +2445,34 @@
       <c r="H20" s="18">
         <v>21</v>
       </c>
-      <c r="U20" s="28">
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
         <v>548668</v>
       </c>
       <c r="V20" s="18">
@@ -2458,7 +2485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>66</v>
       </c>
@@ -2481,7 +2508,34 @@
       <c r="H21" s="18">
         <v>23</v>
       </c>
-      <c r="U21" s="28">
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="26">
         <v>546182</v>
       </c>
       <c r="V21" s="18">
@@ -2494,7 +2548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>66</v>
       </c>
@@ -2517,6 +2571,15 @@
       <c r="H22" s="18">
         <v>24</v>
       </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
       <c r="L22" s="18">
         <v>224</v>
       </c>
@@ -2526,7 +2589,25 @@
       <c r="N22" s="18">
         <v>2319</v>
       </c>
-      <c r="U22" s="28">
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <v>0</v>
+      </c>
+      <c r="U22" s="26">
         <v>543740</v>
       </c>
       <c r="V22" s="18">
@@ -2539,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>66</v>
       </c>
@@ -2562,6 +2643,15 @@
       <c r="H23" s="18">
         <v>27</v>
       </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
       <c r="L23" s="18">
         <v>322</v>
       </c>
@@ -2571,7 +2661,25 @@
       <c r="N23" s="18">
         <v>3176</v>
       </c>
-      <c r="U23" s="28">
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="26">
         <v>541319</v>
       </c>
       <c r="V23" s="18">
@@ -2584,7 +2692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>66</v>
       </c>
@@ -2607,6 +2715,15 @@
       <c r="H24" s="18">
         <v>30</v>
       </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
       <c r="L24" s="18">
         <v>626</v>
       </c>
@@ -2616,7 +2733,25 @@
       <c r="N24" s="18">
         <v>2358</v>
       </c>
-      <c r="U24" s="28">
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26">
         <v>538527</v>
       </c>
       <c r="V24" s="18">
@@ -2629,7 +2764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>66</v>
       </c>
@@ -2652,6 +2787,15 @@
       <c r="H25" s="18">
         <v>28</v>
       </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
       <c r="L25" s="18">
         <v>1611</v>
       </c>
@@ -2661,7 +2805,25 @@
       <c r="N25" s="18">
         <v>12</v>
       </c>
-      <c r="U25" s="28">
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0</v>
+      </c>
+      <c r="S25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="18">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
         <v>535342</v>
       </c>
       <c r="V25" s="18">
@@ -2674,7 +2836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2697,6 +2859,15 @@
       <c r="H26" s="18">
         <v>31</v>
       </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
       <c r="L26" s="18">
         <v>3975</v>
       </c>
@@ -2706,7 +2877,25 @@
       <c r="N26" s="18">
         <v>1826</v>
       </c>
-      <c r="U26" s="28">
+      <c r="O26" s="18">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <v>0</v>
+      </c>
+      <c r="U26" s="26">
         <v>531965</v>
       </c>
       <c r="V26" s="18">
@@ -2719,7 +2908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>66</v>
       </c>
@@ -2742,6 +2931,15 @@
       <c r="H27" s="18">
         <v>29</v>
       </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
       <c r="L27" s="18">
         <v>9182</v>
       </c>
@@ -2751,7 +2949,25 @@
       <c r="N27" s="18">
         <v>4598</v>
       </c>
-      <c r="U27" s="28">
+      <c r="O27" s="18">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
+        <v>0</v>
+      </c>
+      <c r="T27" s="18">
+        <v>0</v>
+      </c>
+      <c r="U27" s="26">
         <v>528556</v>
       </c>
       <c r="V27" s="18">
@@ -2764,7 +2980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>66</v>
       </c>
@@ -2787,6 +3003,15 @@
       <c r="H28" s="18">
         <v>27</v>
       </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
       <c r="L28" s="18">
         <v>6978</v>
       </c>
@@ -2796,7 +3021,25 @@
       <c r="N28" s="18">
         <v>3190</v>
       </c>
-      <c r="U28" s="28">
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
+      <c r="T28" s="18">
+        <v>0</v>
+      </c>
+      <c r="U28" s="26">
         <v>524809</v>
       </c>
       <c r="V28" s="18">
@@ -2809,7 +3052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>66</v>
       </c>
@@ -2832,6 +3075,15 @@
       <c r="H29" s="18">
         <v>27</v>
       </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
       <c r="L29" s="18">
         <v>3364</v>
       </c>
@@ -2841,7 +3093,25 @@
       <c r="N29" s="18">
         <v>972</v>
       </c>
-      <c r="U29" s="28">
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="18">
+        <v>0</v>
+      </c>
+      <c r="U29" s="26">
         <v>520249</v>
       </c>
       <c r="V29" s="18">
@@ -2854,7 +3124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>66</v>
       </c>
@@ -2879,6 +3149,15 @@
       <c r="H30" s="18">
         <v>24</v>
       </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
       <c r="L30" s="18">
         <v>15321</v>
       </c>
@@ -2888,7 +3167,25 @@
       <c r="N30" s="18">
         <v>638</v>
       </c>
-      <c r="U30" s="28">
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0</v>
+      </c>
+      <c r="S30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="18">
+        <v>0</v>
+      </c>
+      <c r="U30" s="26">
         <v>515418</v>
       </c>
       <c r="V30" s="18">
@@ -2901,7 +3198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>66</v>
       </c>
@@ -2926,6 +3223,15 @@
       <c r="H31" s="18">
         <v>21</v>
       </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
       <c r="L31" s="18">
         <v>11727</v>
       </c>
@@ -2935,7 +3241,25 @@
       <c r="N31" s="18">
         <v>3304</v>
       </c>
-      <c r="U31" s="28">
+      <c r="O31" s="18">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="18">
+        <v>0</v>
+      </c>
+      <c r="U31" s="26">
         <v>510745</v>
       </c>
       <c r="V31" s="18">
@@ -2948,7 +3272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>66</v>
       </c>
@@ -2973,6 +3297,15 @@
       <c r="H32" s="18">
         <v>23</v>
       </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
       <c r="L32" s="18">
         <v>9122</v>
       </c>
@@ -2982,7 +3315,25 @@
       <c r="N32" s="18">
         <v>2470</v>
       </c>
-      <c r="U32" s="28">
+      <c r="O32" s="18">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <v>0</v>
+      </c>
+      <c r="S32" s="18">
+        <v>0</v>
+      </c>
+      <c r="T32" s="18">
+        <v>0</v>
+      </c>
+      <c r="U32" s="26">
         <v>506119</v>
       </c>
       <c r="V32" s="18">
@@ -2995,7 +3346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>66</v>
       </c>
@@ -3020,6 +3371,15 @@
       <c r="H33" s="18">
         <v>33</v>
       </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
       <c r="L33" s="18">
         <v>5761</v>
       </c>
@@ -3035,7 +3395,7 @@
       <c r="S33" s="18">
         <v>179</v>
       </c>
-      <c r="U33" s="28">
+      <c r="U33" s="26">
         <v>505967</v>
       </c>
       <c r="V33" s="18">
@@ -3048,7 +3408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>67</v>
       </c>
@@ -3065,7 +3425,43 @@
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="U34" s="28">
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
+        <v>0</v>
+      </c>
+      <c r="S34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="18">
+        <v>0</v>
+      </c>
+      <c r="U34" s="26">
         <v>465048</v>
       </c>
       <c r="V34" s="18">
@@ -3078,7 +3474,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>67</v>
       </c>
@@ -3091,7 +3487,43 @@
       <c r="F35" s="18"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="U35" s="28">
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0</v>
+      </c>
+      <c r="S35" s="18">
+        <v>0</v>
+      </c>
+      <c r="T35" s="18">
+        <v>0</v>
+      </c>
+      <c r="U35" s="26">
         <v>465201</v>
       </c>
       <c r="V35" s="18">
@@ -3104,7 +3536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>67</v>
       </c>
@@ -3127,7 +3559,43 @@
       <c r="H36" s="18">
         <v>9</v>
       </c>
-      <c r="U36" s="28">
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="R36" s="18">
+        <v>0</v>
+      </c>
+      <c r="S36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
+        <v>0</v>
+      </c>
+      <c r="U36" s="26">
         <v>465173</v>
       </c>
       <c r="V36" s="18">
@@ -3140,7 +3608,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>67</v>
       </c>
@@ -3163,7 +3631,43 @@
       <c r="H37" s="18">
         <v>8</v>
       </c>
-      <c r="U37" s="28">
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>0</v>
+      </c>
+      <c r="R37" s="18">
+        <v>0</v>
+      </c>
+      <c r="S37" s="18">
+        <v>0</v>
+      </c>
+      <c r="T37" s="18">
+        <v>0</v>
+      </c>
+      <c r="U37" s="26">
         <v>465087</v>
       </c>
       <c r="V37" s="18">
@@ -3176,7 +3680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>67</v>
       </c>
@@ -3199,7 +3703,43 @@
       <c r="H38" s="18">
         <v>10</v>
       </c>
-      <c r="U38" s="28">
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18">
+        <v>0</v>
+      </c>
+      <c r="P38" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>0</v>
+      </c>
+      <c r="R38" s="18">
+        <v>0</v>
+      </c>
+      <c r="S38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
+        <v>0</v>
+      </c>
+      <c r="U38" s="26">
         <v>465103</v>
       </c>
       <c r="V38" s="18">
@@ -3212,7 +3752,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>67</v>
       </c>
@@ -3235,10 +3775,43 @@
       <c r="H39" s="18">
         <v>10</v>
       </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
       <c r="K39" s="18">
         <v>1</v>
       </c>
-      <c r="U39" s="28">
+      <c r="L39" s="18">
+        <v>0</v>
+      </c>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="18">
+        <v>0</v>
+      </c>
+      <c r="O39" s="18">
+        <v>0</v>
+      </c>
+      <c r="P39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>0</v>
+      </c>
+      <c r="R39" s="18">
+        <v>0</v>
+      </c>
+      <c r="S39" s="18">
+        <v>0</v>
+      </c>
+      <c r="T39" s="18">
+        <v>0</v>
+      </c>
+      <c r="U39" s="26">
         <v>465159</v>
       </c>
       <c r="V39" s="18">
@@ -3251,7 +3824,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3847,43 @@
       <c r="H40" s="18">
         <v>9</v>
       </c>
-      <c r="U40" s="28">
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>0</v>
+      </c>
+      <c r="R40" s="18">
+        <v>0</v>
+      </c>
+      <c r="S40" s="18">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18">
+        <v>0</v>
+      </c>
+      <c r="U40" s="26">
         <v>464849</v>
       </c>
       <c r="V40" s="18">
@@ -3287,7 +3896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>67</v>
       </c>
@@ -3312,7 +3921,43 @@
       <c r="H41" s="18">
         <v>12</v>
       </c>
-      <c r="U41" s="28">
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>0</v>
+      </c>
+      <c r="R41" s="18">
+        <v>0</v>
+      </c>
+      <c r="S41" s="18">
+        <v>0</v>
+      </c>
+      <c r="T41" s="18">
+        <v>0</v>
+      </c>
+      <c r="U41" s="26">
         <v>464128</v>
       </c>
       <c r="V41" s="18">
@@ -3325,7 +3970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>67</v>
       </c>
@@ -3350,7 +3995,43 @@
       <c r="H42" s="18">
         <v>14</v>
       </c>
-      <c r="U42" s="28">
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
+        <v>0</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>0</v>
+      </c>
+      <c r="R42" s="18">
+        <v>0</v>
+      </c>
+      <c r="S42" s="18">
+        <v>0</v>
+      </c>
+      <c r="T42" s="18">
+        <v>0</v>
+      </c>
+      <c r="U42" s="26">
         <v>463208</v>
       </c>
       <c r="V42" s="18">
@@ -3363,7 +4044,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>67</v>
       </c>
@@ -3388,6 +4069,15 @@
       <c r="H43" s="18">
         <v>13</v>
       </c>
+      <c r="I43" s="18">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
       <c r="L43" s="18">
         <v>9</v>
       </c>
@@ -3397,7 +4087,25 @@
       <c r="N43" s="18">
         <v>510</v>
       </c>
-      <c r="U43" s="28">
+      <c r="O43" s="18">
+        <v>0</v>
+      </c>
+      <c r="P43" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>0</v>
+      </c>
+      <c r="R43" s="18">
+        <v>0</v>
+      </c>
+      <c r="S43" s="18">
+        <v>0</v>
+      </c>
+      <c r="T43" s="18">
+        <v>0</v>
+      </c>
+      <c r="U43" s="26">
         <v>462202</v>
       </c>
       <c r="V43" s="18">
@@ -3410,7 +4118,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>67</v>
       </c>
@@ -3435,6 +4143,15 @@
       <c r="H44" s="18">
         <v>9</v>
       </c>
+      <c r="I44" s="18">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
       <c r="L44" s="18">
         <v>0</v>
       </c>
@@ -3444,7 +4161,25 @@
       <c r="N44" s="18">
         <v>2735</v>
       </c>
-      <c r="U44" s="28">
+      <c r="O44" s="18">
+        <v>0</v>
+      </c>
+      <c r="P44" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>0</v>
+      </c>
+      <c r="R44" s="18">
+        <v>0</v>
+      </c>
+      <c r="S44" s="18">
+        <v>0</v>
+      </c>
+      <c r="T44" s="18">
+        <v>0</v>
+      </c>
+      <c r="U44" s="26">
         <v>460883</v>
       </c>
       <c r="V44" s="18">
@@ -3457,7 +4192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>67</v>
       </c>
@@ -3482,6 +4217,15 @@
       <c r="H45" s="18">
         <v>11</v>
       </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
       <c r="L45" s="18">
         <v>0</v>
       </c>
@@ -3491,7 +4235,25 @@
       <c r="N45" s="18">
         <v>6559</v>
       </c>
-      <c r="U45" s="28">
+      <c r="O45" s="18">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>0</v>
+      </c>
+      <c r="R45" s="18">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18">
+        <v>0</v>
+      </c>
+      <c r="T45" s="18">
+        <v>0</v>
+      </c>
+      <c r="U45" s="26">
         <v>458840</v>
       </c>
       <c r="V45" s="18">
@@ -3504,7 +4266,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>67</v>
       </c>
@@ -3527,6 +4289,15 @@
       <c r="H46" s="18">
         <v>12</v>
       </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
       <c r="L46" s="18">
         <v>15</v>
       </c>
@@ -3536,7 +4307,25 @@
       <c r="N46" s="18">
         <v>6318</v>
       </c>
-      <c r="U46" s="28">
+      <c r="O46" s="18">
+        <v>0</v>
+      </c>
+      <c r="P46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>0</v>
+      </c>
+      <c r="R46" s="18">
+        <v>0</v>
+      </c>
+      <c r="S46" s="18">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18">
+        <v>0</v>
+      </c>
+      <c r="U46" s="26">
         <v>456430</v>
       </c>
       <c r="V46" s="18">
@@ -3549,7 +4338,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>67</v>
       </c>
@@ -3574,6 +4363,15 @@
       <c r="H47" s="18">
         <v>13</v>
       </c>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
       <c r="L47" s="18">
         <v>4437</v>
       </c>
@@ -3583,7 +4381,25 @@
       <c r="N47" s="18">
         <v>2505</v>
       </c>
-      <c r="U47" s="28">
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18">
+        <v>0</v>
+      </c>
+      <c r="S47" s="18">
+        <v>0</v>
+      </c>
+      <c r="T47" s="18">
+        <v>0</v>
+      </c>
+      <c r="U47" s="26">
         <v>454038</v>
       </c>
       <c r="V47" s="18">
@@ -3596,7 +4412,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>67</v>
       </c>
@@ -3619,6 +4435,12 @@
       <c r="H48" s="18">
         <v>11</v>
       </c>
+      <c r="I48" s="18">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
+        <v>0</v>
+      </c>
       <c r="K48" s="18">
         <v>1</v>
       </c>
@@ -3631,7 +4453,25 @@
       <c r="N48" s="18">
         <v>7093</v>
       </c>
-      <c r="U48" s="28">
+      <c r="O48" s="18">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>0</v>
+      </c>
+      <c r="R48" s="18">
+        <v>0</v>
+      </c>
+      <c r="S48" s="18">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18">
+        <v>0</v>
+      </c>
+      <c r="U48" s="26">
         <v>451688</v>
       </c>
       <c r="V48" s="18">
@@ -3644,7 +4484,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>67</v>
       </c>
@@ -3676,7 +4516,25 @@
       <c r="N49" s="18">
         <v>2724</v>
       </c>
-      <c r="U49" s="28">
+      <c r="O49" s="18">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>0</v>
+      </c>
+      <c r="R49" s="18">
+        <v>0</v>
+      </c>
+      <c r="S49" s="18">
+        <v>0</v>
+      </c>
+      <c r="T49" s="18">
+        <v>0</v>
+      </c>
+      <c r="U49" s="26">
         <v>451712</v>
       </c>
       <c r="V49" s="18">
@@ -3689,7 +4547,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>68</v>
       </c>
@@ -3706,7 +4564,25 @@
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="U50" s="28">
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>0</v>
+      </c>
+      <c r="R50" s="18">
+        <v>0</v>
+      </c>
+      <c r="S50" s="18">
+        <v>0</v>
+      </c>
+      <c r="T50" s="18">
+        <v>0</v>
+      </c>
+      <c r="U50" s="26">
         <v>425757</v>
       </c>
       <c r="V50" s="18">
@@ -3719,7 +4595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>68</v>
       </c>
@@ -3732,7 +4608,25 @@
       <c r="F51" s="18"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="U51" s="28">
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>0</v>
+      </c>
+      <c r="R51" s="18">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18">
+        <v>0</v>
+      </c>
+      <c r="U51" s="26">
         <v>426679</v>
       </c>
       <c r="V51" s="18">
@@ -3745,7 +4639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>68</v>
       </c>
@@ -3768,7 +4662,25 @@
       <c r="H52" s="18">
         <v>16</v>
       </c>
-      <c r="U52" s="28">
+      <c r="O52" s="18">
+        <v>0</v>
+      </c>
+      <c r="P52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>0</v>
+      </c>
+      <c r="R52" s="18">
+        <v>0</v>
+      </c>
+      <c r="S52" s="18">
+        <v>0</v>
+      </c>
+      <c r="T52" s="18">
+        <v>0</v>
+      </c>
+      <c r="U52" s="26">
         <v>428279</v>
       </c>
       <c r="V52" s="18">
@@ -3781,7 +4693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>68</v>
       </c>
@@ -3813,7 +4725,25 @@
       <c r="K53" s="18">
         <v>6</v>
       </c>
-      <c r="U53" s="28">
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>0</v>
+      </c>
+      <c r="R53" s="18">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18">
+        <v>0</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0</v>
+      </c>
+      <c r="U53" s="26">
         <v>430209</v>
       </c>
       <c r="V53" s="18">
@@ -3826,7 +4756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>68</v>
       </c>
@@ -3867,7 +4797,25 @@
       <c r="N54" s="18">
         <v>10</v>
       </c>
-      <c r="U54" s="28">
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>0</v>
+      </c>
+      <c r="R54" s="18">
+        <v>0</v>
+      </c>
+      <c r="S54" s="18">
+        <v>0</v>
+      </c>
+      <c r="T54" s="18">
+        <v>0</v>
+      </c>
+      <c r="U54" s="26">
         <v>432194</v>
       </c>
       <c r="V54" s="18">
@@ -3880,7 +4828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>68</v>
       </c>
@@ -3921,7 +4869,25 @@
       <c r="N55" s="18">
         <v>16</v>
       </c>
-      <c r="U55" s="28">
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>0</v>
+      </c>
+      <c r="R55" s="18">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="18">
+        <v>0</v>
+      </c>
+      <c r="U55" s="26">
         <v>434204</v>
       </c>
       <c r="V55" s="18">
@@ -3934,7 +4900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>68</v>
       </c>
@@ -3975,7 +4941,25 @@
       <c r="N56" s="18">
         <v>18</v>
       </c>
-      <c r="U56" s="28">
+      <c r="O56" s="18">
+        <v>0</v>
+      </c>
+      <c r="P56" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>0</v>
+      </c>
+      <c r="R56" s="18">
+        <v>0</v>
+      </c>
+      <c r="S56" s="18">
+        <v>0</v>
+      </c>
+      <c r="T56" s="18">
+        <v>0</v>
+      </c>
+      <c r="U56" s="26">
         <v>435883</v>
       </c>
       <c r="V56" s="18">
@@ -3988,7 +4972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>68</v>
       </c>
@@ -4029,7 +5013,25 @@
       <c r="N57" s="18">
         <v>13</v>
       </c>
-      <c r="U57" s="28">
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <v>0</v>
+      </c>
+      <c r="U57" s="26">
         <v>437176</v>
       </c>
       <c r="V57" s="18">
@@ -4042,7 +5044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>68</v>
       </c>
@@ -4083,7 +5085,25 @@
       <c r="N58" s="18">
         <v>409</v>
       </c>
-      <c r="U58" s="28">
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>0</v>
+      </c>
+      <c r="R58" s="18">
+        <v>0</v>
+      </c>
+      <c r="S58" s="18">
+        <v>0</v>
+      </c>
+      <c r="T58" s="18">
+        <v>0</v>
+      </c>
+      <c r="U58" s="26">
         <v>438271</v>
       </c>
       <c r="V58" s="18">
@@ -4096,7 +5116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>68</v>
       </c>
@@ -4137,7 +5157,25 @@
       <c r="N59" s="18">
         <v>403</v>
       </c>
-      <c r="U59" s="28">
+      <c r="O59" s="18">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>0</v>
+      </c>
+      <c r="R59" s="18">
+        <v>0</v>
+      </c>
+      <c r="S59" s="18">
+        <v>0</v>
+      </c>
+      <c r="T59" s="18">
+        <v>0</v>
+      </c>
+      <c r="U59" s="26">
         <v>439289</v>
       </c>
       <c r="V59" s="18">
@@ -4150,7 +5188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +5229,25 @@
       <c r="N60" s="18">
         <v>79</v>
       </c>
-      <c r="U60" s="28">
+      <c r="O60" s="18">
+        <v>0</v>
+      </c>
+      <c r="P60" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>0</v>
+      </c>
+      <c r="R60" s="18">
+        <v>0</v>
+      </c>
+      <c r="S60" s="18">
+        <v>0</v>
+      </c>
+      <c r="T60" s="18">
+        <v>0</v>
+      </c>
+      <c r="U60" s="26">
         <v>440007</v>
       </c>
       <c r="V60" s="18">
@@ -4204,7 +5260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
@@ -4245,7 +5301,25 @@
       <c r="N61" s="18">
         <v>1734</v>
       </c>
-      <c r="U61" s="28">
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>0</v>
+      </c>
+      <c r="R61" s="18">
+        <v>0</v>
+      </c>
+      <c r="S61" s="18">
+        <v>0</v>
+      </c>
+      <c r="T61" s="18">
+        <v>0</v>
+      </c>
+      <c r="U61" s="26">
         <v>440053</v>
       </c>
       <c r="V61" s="18">
@@ -4258,7 +5332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>68</v>
       </c>
@@ -4299,7 +5373,25 @@
       <c r="N62" s="18">
         <v>2912</v>
       </c>
-      <c r="U62" s="28">
+      <c r="O62" s="18">
+        <v>0</v>
+      </c>
+      <c r="P62" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>0</v>
+      </c>
+      <c r="R62" s="18">
+        <v>0</v>
+      </c>
+      <c r="S62" s="18">
+        <v>0</v>
+      </c>
+      <c r="T62" s="18">
+        <v>0</v>
+      </c>
+      <c r="U62" s="26">
         <v>439785</v>
       </c>
       <c r="V62" s="18">
@@ -4312,7 +5404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>68</v>
       </c>
@@ -4353,7 +5445,25 @@
       <c r="N63" s="18">
         <v>3750</v>
       </c>
-      <c r="U63" s="28">
+      <c r="O63" s="18">
+        <v>0</v>
+      </c>
+      <c r="P63" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="18">
+        <v>0</v>
+      </c>
+      <c r="R63" s="18">
+        <v>0</v>
+      </c>
+      <c r="S63" s="18">
+        <v>0</v>
+      </c>
+      <c r="T63" s="18">
+        <v>0</v>
+      </c>
+      <c r="U63" s="26">
         <v>439605</v>
       </c>
       <c r="V63" s="18">
@@ -4366,7 +5476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +5517,25 @@
       <c r="N64" s="18">
         <v>1752</v>
       </c>
-      <c r="U64" s="28">
+      <c r="O64" s="18">
+        <v>0</v>
+      </c>
+      <c r="P64" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="18">
+        <v>0</v>
+      </c>
+      <c r="R64" s="18">
+        <v>0</v>
+      </c>
+      <c r="S64" s="18">
+        <v>0</v>
+      </c>
+      <c r="T64" s="18">
+        <v>0</v>
+      </c>
+      <c r="U64" s="26">
         <v>439376</v>
       </c>
       <c r="V64" s="18">
@@ -4420,7 +5548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>68</v>
       </c>
@@ -4461,7 +5589,25 @@
       <c r="N65" s="18">
         <v>356</v>
       </c>
-      <c r="U65" s="28">
+      <c r="O65" s="18">
+        <v>0</v>
+      </c>
+      <c r="P65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>0</v>
+      </c>
+      <c r="R65" s="18">
+        <v>0</v>
+      </c>
+      <c r="S65" s="18">
+        <v>0</v>
+      </c>
+      <c r="T65" s="18">
+        <v>0</v>
+      </c>
+      <c r="U65" s="26">
         <v>439467</v>
       </c>
       <c r="V65" s="18">
@@ -4474,7 +5620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>69</v>
       </c>
@@ -4493,7 +5639,25 @@
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
-      <c r="U66" s="28">
+      <c r="O66" s="18">
+        <v>0</v>
+      </c>
+      <c r="P66" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>0</v>
+      </c>
+      <c r="R66" s="18">
+        <v>0</v>
+      </c>
+      <c r="S66" s="18">
+        <v>0</v>
+      </c>
+      <c r="T66" s="18">
+        <v>0</v>
+      </c>
+      <c r="U66" s="26">
         <v>246190</v>
       </c>
       <c r="V66" s="18">
@@ -4506,7 +5670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>69</v>
       </c>
@@ -4521,7 +5685,25 @@
       <c r="F67" s="18"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="U67" s="28">
+      <c r="O67" s="18">
+        <v>0</v>
+      </c>
+      <c r="P67" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="18">
+        <v>0</v>
+      </c>
+      <c r="R67" s="18">
+        <v>0</v>
+      </c>
+      <c r="S67" s="18">
+        <v>0</v>
+      </c>
+      <c r="T67" s="18">
+        <v>0</v>
+      </c>
+      <c r="U67" s="26">
         <v>248112</v>
       </c>
       <c r="V67" s="18">
@@ -4534,7 +5716,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>69</v>
       </c>
@@ -4559,7 +5741,25 @@
       <c r="H68" s="18">
         <v>17</v>
       </c>
-      <c r="U68" s="28">
+      <c r="O68" s="18">
+        <v>0</v>
+      </c>
+      <c r="P68" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>0</v>
+      </c>
+      <c r="R68" s="18">
+        <v>0</v>
+      </c>
+      <c r="S68" s="18">
+        <v>0</v>
+      </c>
+      <c r="T68" s="18">
+        <v>0</v>
+      </c>
+      <c r="U68" s="26">
         <v>250216</v>
       </c>
       <c r="V68" s="18">
@@ -4572,7 +5772,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>69</v>
       </c>
@@ -4606,7 +5806,25 @@
       <c r="K69" s="18">
         <v>67</v>
       </c>
-      <c r="U69" s="28">
+      <c r="O69" s="18">
+        <v>0</v>
+      </c>
+      <c r="P69" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>0</v>
+      </c>
+      <c r="R69" s="18">
+        <v>0</v>
+      </c>
+      <c r="S69" s="18">
+        <v>0</v>
+      </c>
+      <c r="T69" s="18">
+        <v>0</v>
+      </c>
+      <c r="U69" s="26">
         <v>252401</v>
       </c>
       <c r="V69" s="18">
@@ -4619,7 +5837,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>69</v>
       </c>
@@ -4662,7 +5880,25 @@
       <c r="N70" s="18">
         <v>409</v>
       </c>
-      <c r="U70" s="28">
+      <c r="O70" s="18">
+        <v>0</v>
+      </c>
+      <c r="P70" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>0</v>
+      </c>
+      <c r="R70" s="18">
+        <v>0</v>
+      </c>
+      <c r="S70" s="18">
+        <v>0</v>
+      </c>
+      <c r="T70" s="18">
+        <v>0</v>
+      </c>
+      <c r="U70" s="26">
         <v>254639</v>
       </c>
       <c r="V70" s="18">
@@ -4675,7 +5911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>69</v>
       </c>
@@ -4709,7 +5945,25 @@
       <c r="K71" s="18">
         <v>107</v>
       </c>
-      <c r="U71" s="28">
+      <c r="O71" s="18">
+        <v>0</v>
+      </c>
+      <c r="P71" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>0</v>
+      </c>
+      <c r="R71" s="18">
+        <v>0</v>
+      </c>
+      <c r="S71" s="18">
+        <v>0</v>
+      </c>
+      <c r="T71" s="18">
+        <v>0</v>
+      </c>
+      <c r="U71" s="26">
         <v>256889</v>
       </c>
       <c r="V71" s="18">
@@ -4722,7 +5976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>69</v>
       </c>
@@ -4756,7 +6010,25 @@
       <c r="K72" s="18">
         <v>108</v>
       </c>
-      <c r="U72" s="28">
+      <c r="O72" s="18">
+        <v>0</v>
+      </c>
+      <c r="P72" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="18">
+        <v>0</v>
+      </c>
+      <c r="R72" s="18">
+        <v>0</v>
+      </c>
+      <c r="S72" s="18">
+        <v>0</v>
+      </c>
+      <c r="T72" s="18">
+        <v>0</v>
+      </c>
+      <c r="U72" s="26">
         <v>258944</v>
       </c>
       <c r="V72" s="18">
@@ -4769,7 +6041,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>69</v>
       </c>
@@ -4803,7 +6075,25 @@
       <c r="K73" s="18">
         <v>156</v>
       </c>
-      <c r="U73" s="28">
+      <c r="O73" s="18">
+        <v>0</v>
+      </c>
+      <c r="P73" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>0</v>
+      </c>
+      <c r="R73" s="18">
+        <v>0</v>
+      </c>
+      <c r="S73" s="18">
+        <v>0</v>
+      </c>
+      <c r="T73" s="18">
+        <v>0</v>
+      </c>
+      <c r="U73" s="26">
         <v>260773</v>
       </c>
       <c r="V73" s="18">
@@ -4816,7 +6106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>69</v>
       </c>
@@ -4850,7 +6140,25 @@
       <c r="K74" s="18">
         <v>129</v>
       </c>
-      <c r="U74" s="28">
+      <c r="O74" s="18">
+        <v>0</v>
+      </c>
+      <c r="P74" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="18">
+        <v>0</v>
+      </c>
+      <c r="R74" s="18">
+        <v>0</v>
+      </c>
+      <c r="S74" s="18">
+        <v>0</v>
+      </c>
+      <c r="T74" s="18">
+        <v>0</v>
+      </c>
+      <c r="U74" s="26">
         <v>262512</v>
       </c>
       <c r="V74" s="18">
@@ -4863,7 +6171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>69</v>
       </c>
@@ -4924,7 +6232,7 @@
       <c r="T75" s="18">
         <v>17</v>
       </c>
-      <c r="U75" s="28">
+      <c r="U75" s="26">
         <v>264201</v>
       </c>
       <c r="V75" s="18">
@@ -4937,7 +6245,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>69</v>
       </c>
@@ -4998,7 +6306,7 @@
       <c r="T76" s="18">
         <v>29</v>
       </c>
-      <c r="U76" s="28">
+      <c r="U76" s="26">
         <v>265676</v>
       </c>
       <c r="V76" s="18">
@@ -5011,7 +6319,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>69</v>
       </c>
@@ -5072,7 +6380,7 @@
       <c r="T77" s="18">
         <v>85</v>
       </c>
-      <c r="U77" s="28">
+      <c r="U77" s="26">
         <v>266747</v>
       </c>
       <c r="V77" s="18">
@@ -5085,7 +6393,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>69</v>
       </c>
@@ -5146,7 +6454,7 @@
       <c r="T78" s="18">
         <v>13</v>
       </c>
-      <c r="U78" s="28">
+      <c r="U78" s="26">
         <v>267683</v>
       </c>
       <c r="V78" s="18">
@@ -5159,7 +6467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>69</v>
       </c>
@@ -5220,7 +6528,7 @@
       <c r="T79" s="18">
         <v>18</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="26">
         <v>268771</v>
       </c>
       <c r="V79" s="18">
@@ -5233,7 +6541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>69</v>
       </c>
@@ -5294,7 +6602,7 @@
       <c r="T80" s="18">
         <v>84</v>
       </c>
-      <c r="U80" s="28">
+      <c r="U80" s="26">
         <v>269810</v>
       </c>
       <c r="V80" s="18">
@@ -5307,7 +6615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>69</v>
       </c>
@@ -5368,7 +6676,7 @@
       <c r="T81" s="18">
         <v>74</v>
       </c>
-      <c r="U81" s="28">
+      <c r="U81" s="26">
         <v>269934</v>
       </c>
       <c r="V81" s="18">
@@ -5381,7 +6689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>70</v>
       </c>
@@ -5398,7 +6706,7 @@
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="U82" s="28">
+      <c r="U82" s="26">
         <v>258270</v>
       </c>
       <c r="V82" s="18">
@@ -5411,7 +6719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>70</v>
       </c>
@@ -5424,7 +6732,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="U83" s="28">
+      <c r="U83" s="26">
         <v>259186</v>
       </c>
       <c r="V83" s="18">
@@ -5437,7 +6745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>70</v>
       </c>
@@ -5460,7 +6768,40 @@
       <c r="H84" s="18">
         <v>2</v>
       </c>
-      <c r="U84" s="28">
+      <c r="I84" s="18">
+        <v>0</v>
+      </c>
+      <c r="J84" s="18">
+        <v>0</v>
+      </c>
+      <c r="K84" s="18">
+        <v>0</v>
+      </c>
+      <c r="L84" s="18">
+        <v>0</v>
+      </c>
+      <c r="M84" s="18">
+        <v>0</v>
+      </c>
+      <c r="N84" s="18">
+        <v>0</v>
+      </c>
+      <c r="P84" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="18">
+        <v>0</v>
+      </c>
+      <c r="R84" s="18">
+        <v>0</v>
+      </c>
+      <c r="S84" s="18">
+        <v>0</v>
+      </c>
+      <c r="T84" s="18">
+        <v>0</v>
+      </c>
+      <c r="U84" s="26">
         <v>260393</v>
       </c>
       <c r="V84" s="18">
@@ -5473,7 +6814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>70</v>
       </c>
@@ -5496,7 +6837,40 @@
       <c r="H85" s="18">
         <v>2</v>
       </c>
-      <c r="U85" s="28">
+      <c r="I85" s="18">
+        <v>0</v>
+      </c>
+      <c r="J85" s="18">
+        <v>0</v>
+      </c>
+      <c r="K85" s="18">
+        <v>0</v>
+      </c>
+      <c r="L85" s="18">
+        <v>0</v>
+      </c>
+      <c r="M85" s="18">
+        <v>0</v>
+      </c>
+      <c r="N85" s="18">
+        <v>0</v>
+      </c>
+      <c r="P85" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="18">
+        <v>0</v>
+      </c>
+      <c r="R85" s="18">
+        <v>0</v>
+      </c>
+      <c r="S85" s="18">
+        <v>0</v>
+      </c>
+      <c r="T85" s="18">
+        <v>0</v>
+      </c>
+      <c r="U85" s="26">
         <v>261723</v>
       </c>
       <c r="V85" s="18">
@@ -5509,7 +6883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>70</v>
       </c>
@@ -5532,7 +6906,40 @@
       <c r="H86" s="18">
         <v>4</v>
       </c>
-      <c r="U86" s="28">
+      <c r="I86" s="18">
+        <v>0</v>
+      </c>
+      <c r="J86" s="18">
+        <v>0</v>
+      </c>
+      <c r="K86" s="18">
+        <v>0</v>
+      </c>
+      <c r="L86" s="18">
+        <v>0</v>
+      </c>
+      <c r="M86" s="18">
+        <v>0</v>
+      </c>
+      <c r="N86" s="18">
+        <v>0</v>
+      </c>
+      <c r="P86" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="18">
+        <v>0</v>
+      </c>
+      <c r="R86" s="18">
+        <v>0</v>
+      </c>
+      <c r="S86" s="18">
+        <v>0</v>
+      </c>
+      <c r="T86" s="18">
+        <v>0</v>
+      </c>
+      <c r="U86" s="26">
         <v>263093</v>
       </c>
       <c r="V86" s="18">
@@ -5545,7 +6952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>70</v>
       </c>
@@ -5568,7 +6975,40 @@
       <c r="H87" s="18">
         <v>6</v>
       </c>
-      <c r="U87" s="28">
+      <c r="I87" s="18">
+        <v>0</v>
+      </c>
+      <c r="J87" s="18">
+        <v>0</v>
+      </c>
+      <c r="K87" s="18">
+        <v>0</v>
+      </c>
+      <c r="L87" s="18">
+        <v>0</v>
+      </c>
+      <c r="M87" s="18">
+        <v>0</v>
+      </c>
+      <c r="N87" s="18">
+        <v>0</v>
+      </c>
+      <c r="P87" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="18">
+        <v>0</v>
+      </c>
+      <c r="R87" s="18">
+        <v>0</v>
+      </c>
+      <c r="S87" s="18">
+        <v>0</v>
+      </c>
+      <c r="T87" s="18">
+        <v>0</v>
+      </c>
+      <c r="U87" s="26">
         <v>264492</v>
       </c>
       <c r="V87" s="18">
@@ -5581,7 +7021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>70</v>
       </c>
@@ -5604,7 +7044,40 @@
       <c r="H88" s="18">
         <v>6</v>
       </c>
-      <c r="U88" s="28">
+      <c r="I88" s="18">
+        <v>0</v>
+      </c>
+      <c r="J88" s="18">
+        <v>0</v>
+      </c>
+      <c r="K88" s="18">
+        <v>0</v>
+      </c>
+      <c r="L88" s="18">
+        <v>0</v>
+      </c>
+      <c r="M88" s="18">
+        <v>0</v>
+      </c>
+      <c r="N88" s="18">
+        <v>0</v>
+      </c>
+      <c r="P88" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="18">
+        <v>0</v>
+      </c>
+      <c r="R88" s="18">
+        <v>0</v>
+      </c>
+      <c r="S88" s="18">
+        <v>0</v>
+      </c>
+      <c r="T88" s="18">
+        <v>0</v>
+      </c>
+      <c r="U88" s="26">
         <v>265663</v>
       </c>
       <c r="V88" s="18">
@@ -5617,7 +7090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>70</v>
       </c>
@@ -5640,7 +7113,40 @@
       <c r="H89" s="18">
         <v>6</v>
       </c>
-      <c r="U89" s="28">
+      <c r="I89" s="18">
+        <v>0</v>
+      </c>
+      <c r="J89" s="18">
+        <v>0</v>
+      </c>
+      <c r="K89" s="18">
+        <v>0</v>
+      </c>
+      <c r="L89" s="18">
+        <v>0</v>
+      </c>
+      <c r="M89" s="18">
+        <v>0</v>
+      </c>
+      <c r="N89" s="18">
+        <v>0</v>
+      </c>
+      <c r="P89" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="18">
+        <v>0</v>
+      </c>
+      <c r="R89" s="18">
+        <v>0</v>
+      </c>
+      <c r="S89" s="18">
+        <v>0</v>
+      </c>
+      <c r="T89" s="18">
+        <v>0</v>
+      </c>
+      <c r="U89" s="26">
         <v>266568</v>
       </c>
       <c r="V89" s="18">
@@ -5653,7 +7159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>70</v>
       </c>
@@ -5676,7 +7182,40 @@
       <c r="H90" s="18">
         <v>6</v>
       </c>
-      <c r="U90" s="28">
+      <c r="I90" s="18">
+        <v>0</v>
+      </c>
+      <c r="J90" s="18">
+        <v>0</v>
+      </c>
+      <c r="K90" s="18">
+        <v>0</v>
+      </c>
+      <c r="L90" s="18">
+        <v>0</v>
+      </c>
+      <c r="M90" s="18">
+        <v>0</v>
+      </c>
+      <c r="N90" s="18">
+        <v>0</v>
+      </c>
+      <c r="P90" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="18">
+        <v>0</v>
+      </c>
+      <c r="R90" s="18">
+        <v>0</v>
+      </c>
+      <c r="S90" s="18">
+        <v>0</v>
+      </c>
+      <c r="T90" s="18">
+        <v>0</v>
+      </c>
+      <c r="U90" s="26">
         <v>267318</v>
       </c>
       <c r="V90" s="18">
@@ -5689,7 +7228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>70</v>
       </c>
@@ -5712,6 +7251,15 @@
       <c r="H91" s="18">
         <v>6</v>
       </c>
+      <c r="I91" s="18">
+        <v>0</v>
+      </c>
+      <c r="J91" s="18">
+        <v>0</v>
+      </c>
+      <c r="K91" s="18">
+        <v>0</v>
+      </c>
       <c r="L91" s="18">
         <v>92</v>
       </c>
@@ -5721,7 +7269,22 @@
       <c r="N91" s="18">
         <v>478</v>
       </c>
-      <c r="U91" s="28">
+      <c r="P91" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="18">
+        <v>0</v>
+      </c>
+      <c r="R91" s="18">
+        <v>0</v>
+      </c>
+      <c r="S91" s="18">
+        <v>0</v>
+      </c>
+      <c r="T91" s="18">
+        <v>0</v>
+      </c>
+      <c r="U91" s="26">
         <v>267971</v>
       </c>
       <c r="V91" s="18">
@@ -5734,7 +7297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>70</v>
       </c>
@@ -5757,6 +7320,15 @@
       <c r="H92" s="18">
         <v>9</v>
       </c>
+      <c r="I92" s="18">
+        <v>0</v>
+      </c>
+      <c r="J92" s="18">
+        <v>0</v>
+      </c>
+      <c r="K92" s="18">
+        <v>0</v>
+      </c>
       <c r="L92" s="18">
         <v>69</v>
       </c>
@@ -5766,7 +7338,22 @@
       <c r="N92" s="18">
         <v>1462</v>
       </c>
-      <c r="U92" s="28">
+      <c r="P92" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="18">
+        <v>0</v>
+      </c>
+      <c r="R92" s="18">
+        <v>0</v>
+      </c>
+      <c r="S92" s="18">
+        <v>0</v>
+      </c>
+      <c r="T92" s="18">
+        <v>0</v>
+      </c>
+      <c r="U92" s="26">
         <v>268441</v>
       </c>
       <c r="V92" s="18">
@@ -5779,7 +7366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>70</v>
       </c>
@@ -5802,6 +7389,15 @@
       <c r="H93" s="18">
         <v>15</v>
       </c>
+      <c r="I93" s="18">
+        <v>0</v>
+      </c>
+      <c r="J93" s="18">
+        <v>0</v>
+      </c>
+      <c r="K93" s="18">
+        <v>0</v>
+      </c>
       <c r="L93" s="18">
         <v>5509</v>
       </c>
@@ -5811,7 +7407,22 @@
       <c r="N93" s="18">
         <v>131</v>
       </c>
-      <c r="U93" s="28">
+      <c r="P93" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="18">
+        <v>0</v>
+      </c>
+      <c r="R93" s="18">
+        <v>0</v>
+      </c>
+      <c r="S93" s="18">
+        <v>0</v>
+      </c>
+      <c r="T93" s="18">
+        <v>0</v>
+      </c>
+      <c r="U93" s="26">
         <v>268509</v>
       </c>
       <c r="V93" s="18">
@@ -5824,7 +7435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>70</v>
       </c>
@@ -5849,6 +7460,15 @@
       <c r="H94" s="18">
         <v>17</v>
       </c>
+      <c r="I94" s="18">
+        <v>0</v>
+      </c>
+      <c r="J94" s="18">
+        <v>0</v>
+      </c>
+      <c r="K94" s="18">
+        <v>0</v>
+      </c>
       <c r="L94" s="18">
         <v>6356</v>
       </c>
@@ -5858,7 +7478,22 @@
       <c r="N94" s="18">
         <v>203</v>
       </c>
-      <c r="U94" s="28">
+      <c r="P94" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="18">
+        <v>0</v>
+      </c>
+      <c r="R94" s="18">
+        <v>0</v>
+      </c>
+      <c r="S94" s="18">
+        <v>0</v>
+      </c>
+      <c r="T94" s="18">
+        <v>0</v>
+      </c>
+      <c r="U94" s="26">
         <v>268394</v>
       </c>
       <c r="V94" s="18">
@@ -5871,7 +7506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>70</v>
       </c>
@@ -5896,6 +7531,15 @@
       <c r="H95" s="18">
         <v>20</v>
       </c>
+      <c r="I95" s="18">
+        <v>0</v>
+      </c>
+      <c r="J95" s="18">
+        <v>0</v>
+      </c>
+      <c r="K95" s="18">
+        <v>0</v>
+      </c>
       <c r="L95" s="18">
         <v>1431</v>
       </c>
@@ -5905,7 +7549,22 @@
       <c r="N95" s="18">
         <v>938</v>
       </c>
-      <c r="U95" s="28">
+      <c r="P95" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="18">
+        <v>0</v>
+      </c>
+      <c r="R95" s="18">
+        <v>0</v>
+      </c>
+      <c r="S95" s="18">
+        <v>0</v>
+      </c>
+      <c r="T95" s="18">
+        <v>0</v>
+      </c>
+      <c r="U95" s="26">
         <v>268309</v>
       </c>
       <c r="V95" s="18">
@@ -5918,7 +7577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>70</v>
       </c>
@@ -5943,6 +7602,15 @@
       <c r="H96" s="18">
         <v>33</v>
       </c>
+      <c r="I96" s="18">
+        <v>0</v>
+      </c>
+      <c r="J96" s="18">
+        <v>0</v>
+      </c>
+      <c r="K96" s="18">
+        <v>0</v>
+      </c>
       <c r="L96" s="18">
         <v>621</v>
       </c>
@@ -5952,7 +7620,22 @@
       <c r="N96" s="18">
         <v>786</v>
       </c>
-      <c r="U96" s="28">
+      <c r="P96" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="18">
+        <v>0</v>
+      </c>
+      <c r="R96" s="18">
+        <v>0</v>
+      </c>
+      <c r="S96" s="18">
+        <v>0</v>
+      </c>
+      <c r="T96" s="18">
+        <v>0</v>
+      </c>
+      <c r="U96" s="26">
         <v>268367</v>
       </c>
       <c r="V96" s="18">
@@ -5965,7 +7648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>70</v>
       </c>
@@ -5990,6 +7673,15 @@
       <c r="H97" s="18">
         <v>30</v>
       </c>
+      <c r="I97" s="18">
+        <v>0</v>
+      </c>
+      <c r="J97" s="18">
+        <v>0</v>
+      </c>
+      <c r="K97" s="18">
+        <v>0</v>
+      </c>
       <c r="L97" s="18">
         <v>653</v>
       </c>
@@ -5999,7 +7691,22 @@
       <c r="N97" s="18">
         <v>56</v>
       </c>
-      <c r="U97" s="28">
+      <c r="P97" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="18">
+        <v>0</v>
+      </c>
+      <c r="R97" s="18">
+        <v>0</v>
+      </c>
+      <c r="S97" s="18">
+        <v>0</v>
+      </c>
+      <c r="T97" s="18">
+        <v>0</v>
+      </c>
+      <c r="U97" s="26">
         <v>268425</v>
       </c>
       <c r="V97" s="18">
@@ -6012,7 +7719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>71</v>
       </c>
@@ -6029,7 +7736,22 @@
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
-      <c r="U98" s="28">
+      <c r="P98" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="18">
+        <v>0</v>
+      </c>
+      <c r="R98" s="18">
+        <v>0</v>
+      </c>
+      <c r="S98" s="18">
+        <v>0</v>
+      </c>
+      <c r="T98" s="18">
+        <v>0</v>
+      </c>
+      <c r="U98" s="26">
         <v>272073</v>
       </c>
       <c r="V98" s="18">
@@ -6042,7 +7764,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>71</v>
       </c>
@@ -6055,7 +7777,22 @@
       <c r="F99" s="18"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
-      <c r="U99" s="28">
+      <c r="P99" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="18">
+        <v>0</v>
+      </c>
+      <c r="R99" s="18">
+        <v>0</v>
+      </c>
+      <c r="S99" s="18">
+        <v>0</v>
+      </c>
+      <c r="T99" s="18">
+        <v>0</v>
+      </c>
+      <c r="U99" s="26">
         <v>272696</v>
       </c>
       <c r="V99" s="18">
@@ -6068,7 +7805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>71</v>
       </c>
@@ -6093,7 +7830,31 @@
       <c r="H100" s="18">
         <v>29</v>
       </c>
-      <c r="U100" s="28">
+      <c r="L100" s="18">
+        <v>0</v>
+      </c>
+      <c r="M100" s="18">
+        <v>0</v>
+      </c>
+      <c r="N100" s="18">
+        <v>0</v>
+      </c>
+      <c r="P100" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="18">
+        <v>0</v>
+      </c>
+      <c r="R100" s="18">
+        <v>0</v>
+      </c>
+      <c r="S100" s="18">
+        <v>0</v>
+      </c>
+      <c r="T100" s="18">
+        <v>0</v>
+      </c>
+      <c r="U100" s="26">
         <v>273547</v>
       </c>
       <c r="V100" s="18">
@@ -6106,7 +7867,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>71</v>
       </c>
@@ -6140,7 +7901,31 @@
       <c r="K101" s="18">
         <v>33</v>
       </c>
-      <c r="U101" s="28">
+      <c r="L101" s="18">
+        <v>0</v>
+      </c>
+      <c r="M101" s="18">
+        <v>0</v>
+      </c>
+      <c r="N101" s="18">
+        <v>0</v>
+      </c>
+      <c r="P101" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="18">
+        <v>0</v>
+      </c>
+      <c r="R101" s="18">
+        <v>0</v>
+      </c>
+      <c r="S101" s="18">
+        <v>0</v>
+      </c>
+      <c r="T101" s="18">
+        <v>0</v>
+      </c>
+      <c r="U101" s="26">
         <v>274553</v>
       </c>
       <c r="V101" s="18">
@@ -6153,7 +7938,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>71</v>
       </c>
@@ -6187,7 +7972,31 @@
       <c r="K102" s="18">
         <v>62</v>
       </c>
-      <c r="U102" s="28">
+      <c r="L102" s="18">
+        <v>0</v>
+      </c>
+      <c r="M102" s="18">
+        <v>0</v>
+      </c>
+      <c r="N102" s="18">
+        <v>0</v>
+      </c>
+      <c r="P102" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="18">
+        <v>0</v>
+      </c>
+      <c r="R102" s="18">
+        <v>0</v>
+      </c>
+      <c r="S102" s="18">
+        <v>0</v>
+      </c>
+      <c r="T102" s="18">
+        <v>0</v>
+      </c>
+      <c r="U102" s="26">
         <v>275586</v>
       </c>
       <c r="V102" s="18">
@@ -6200,7 +8009,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>71</v>
       </c>
@@ -6234,7 +8043,31 @@
       <c r="K103" s="18">
         <v>63</v>
       </c>
-      <c r="U103" s="28">
+      <c r="L103" s="18">
+        <v>0</v>
+      </c>
+      <c r="M103" s="18">
+        <v>0</v>
+      </c>
+      <c r="N103" s="18">
+        <v>0</v>
+      </c>
+      <c r="P103" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="18">
+        <v>0</v>
+      </c>
+      <c r="R103" s="18">
+        <v>0</v>
+      </c>
+      <c r="S103" s="18">
+        <v>0</v>
+      </c>
+      <c r="T103" s="18">
+        <v>0</v>
+      </c>
+      <c r="U103" s="26">
         <v>276580</v>
       </c>
       <c r="V103" s="18">
@@ -6247,7 +8080,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>71</v>
       </c>
@@ -6281,7 +8114,31 @@
       <c r="K104" s="18">
         <v>38</v>
       </c>
-      <c r="U104" s="28">
+      <c r="L104" s="18">
+        <v>0</v>
+      </c>
+      <c r="M104" s="18">
+        <v>0</v>
+      </c>
+      <c r="N104" s="18">
+        <v>0</v>
+      </c>
+      <c r="P104" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="18">
+        <v>0</v>
+      </c>
+      <c r="R104" s="18">
+        <v>0</v>
+      </c>
+      <c r="S104" s="18">
+        <v>0</v>
+      </c>
+      <c r="T104" s="18">
+        <v>0</v>
+      </c>
+      <c r="U104" s="26">
         <v>277382</v>
       </c>
       <c r="V104" s="18">
@@ -6294,7 +8151,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>71</v>
       </c>
@@ -6328,7 +8185,31 @@
       <c r="K105" s="18">
         <v>69</v>
       </c>
-      <c r="U105" s="28">
+      <c r="L105" s="18">
+        <v>0</v>
+      </c>
+      <c r="M105" s="18">
+        <v>0</v>
+      </c>
+      <c r="N105" s="18">
+        <v>0</v>
+      </c>
+      <c r="P105" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="18">
+        <v>0</v>
+      </c>
+      <c r="R105" s="18">
+        <v>0</v>
+      </c>
+      <c r="S105" s="18">
+        <v>0</v>
+      </c>
+      <c r="T105" s="18">
+        <v>0</v>
+      </c>
+      <c r="U105" s="26">
         <v>277965</v>
       </c>
       <c r="V105" s="18">
@@ -6341,7 +8222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>71</v>
       </c>
@@ -6375,7 +8256,31 @@
       <c r="K106" s="18">
         <v>82</v>
       </c>
-      <c r="U106" s="28">
+      <c r="L106" s="18">
+        <v>0</v>
+      </c>
+      <c r="M106" s="18">
+        <v>0</v>
+      </c>
+      <c r="N106" s="18">
+        <v>0</v>
+      </c>
+      <c r="P106" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="18">
+        <v>0</v>
+      </c>
+      <c r="R106" s="18">
+        <v>0</v>
+      </c>
+      <c r="S106" s="18">
+        <v>0</v>
+      </c>
+      <c r="T106" s="18">
+        <v>0</v>
+      </c>
+      <c r="U106" s="26">
         <v>278480</v>
       </c>
       <c r="V106" s="18">
@@ -6388,7 +8293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>71</v>
       </c>
@@ -6416,7 +8321,31 @@
       <c r="K107" s="18">
         <v>91</v>
       </c>
-      <c r="U107" s="28">
+      <c r="L107" s="18">
+        <v>0</v>
+      </c>
+      <c r="M107" s="18">
+        <v>0</v>
+      </c>
+      <c r="N107" s="18">
+        <v>0</v>
+      </c>
+      <c r="P107" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="18">
+        <v>0</v>
+      </c>
+      <c r="R107" s="18">
+        <v>0</v>
+      </c>
+      <c r="S107" s="18">
+        <v>0</v>
+      </c>
+      <c r="T107" s="18">
+        <v>0</v>
+      </c>
+      <c r="U107" s="26">
         <v>278960</v>
       </c>
       <c r="V107" s="18">
@@ -6429,7 +8358,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>71</v>
       </c>
@@ -6463,7 +8392,31 @@
       <c r="K108" s="18">
         <v>74</v>
       </c>
-      <c r="U108" s="28">
+      <c r="L108" s="18">
+        <v>0</v>
+      </c>
+      <c r="M108" s="18">
+        <v>0</v>
+      </c>
+      <c r="N108" s="18">
+        <v>0</v>
+      </c>
+      <c r="P108" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="18">
+        <v>0</v>
+      </c>
+      <c r="R108" s="18">
+        <v>0</v>
+      </c>
+      <c r="S108" s="18">
+        <v>0</v>
+      </c>
+      <c r="T108" s="18">
+        <v>0</v>
+      </c>
+      <c r="U108" s="26">
         <v>279176</v>
       </c>
       <c r="V108" s="18">
@@ -6476,7 +8429,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>71</v>
       </c>
@@ -6528,7 +8481,7 @@
       <c r="Q109" s="18">
         <v>1</v>
       </c>
-      <c r="U109" s="28">
+      <c r="U109" s="26">
         <v>278865</v>
       </c>
       <c r="V109" s="18">
@@ -6541,7 +8494,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>71</v>
       </c>
@@ -6599,7 +8552,7 @@
       <c r="T110" s="18">
         <v>3</v>
       </c>
-      <c r="U110" s="28">
+      <c r="U110" s="26">
         <v>278431</v>
       </c>
       <c r="V110" s="18">
@@ -6612,7 +8565,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>71</v>
       </c>
@@ -6670,7 +8623,7 @@
       <c r="T111" s="18">
         <v>211</v>
       </c>
-      <c r="U111" s="28">
+      <c r="U111" s="26">
         <v>278204</v>
       </c>
       <c r="V111" s="18">
@@ -6683,7 +8636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>71</v>
       </c>
@@ -6735,7 +8688,7 @@
       <c r="Q112" s="18">
         <v>6</v>
       </c>
-      <c r="U112" s="28">
+      <c r="U112" s="26">
         <v>278069</v>
       </c>
       <c r="V112" s="18">
@@ -6748,7 +8701,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>71</v>
       </c>
@@ -6800,7 +8753,7 @@
       <c r="Q113" s="18">
         <v>3</v>
       </c>
-      <c r="U113" s="28">
+      <c r="U113" s="26">
         <v>278102</v>
       </c>
       <c r="V113" s="18">
@@ -6827,41 +8780,41 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="10" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="20" style="10" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="10" customWidth="1"/>
     <col min="14" max="14" width="13" style="10" customWidth="1"/>
-    <col min="15" max="16" width="13.83203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="10" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="10" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="10" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" style="10" customWidth="1"/>
+    <col min="15" max="16" width="13.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="10" customWidth="1"/>
     <col min="24" max="24" width="15" style="10" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="10" customWidth="1"/>
-    <col min="26" max="27" width="9.1640625" style="10"/>
+    <col min="25" max="25" width="12.7109375" style="10" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
@@ -6875,7 +8828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="104" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6901,13 +8854,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>19246</v>
       </c>
@@ -6933,7 +8886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>21302</v>
       </c>
@@ -6959,7 +8912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>18628</v>
       </c>
@@ -6985,7 +8938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>20979</v>
       </c>
@@ -7011,7 +8964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>20283</v>
       </c>
@@ -7037,7 +8990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>12527</v>
       </c>
@@ -7063,7 +9016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>16711</v>
       </c>
@@ -7089,7 +9042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>18033</v>
       </c>
@@ -7115,7 +9068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>14343</v>
       </c>
@@ -7141,7 +9094,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>17408</v>
       </c>
@@ -7167,7 +9120,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>16236</v>
       </c>
@@ -7193,7 +9146,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" ref="A15:H15" si="0">SUM(A4:A14)</f>
         <v>195696</v>
@@ -7227,7 +9180,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7250,34 +9203,34 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7315,7 +9268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -7353,7 +9306,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -7391,7 +9344,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -7429,7 +9382,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -7467,7 +9420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -7505,7 +9458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -7543,7 +9496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -7581,7 +9534,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -7619,7 +9572,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -7657,7 +9610,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7695,47 +9648,47 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -7753,34 +9706,34 @@
       <selection activeCell="L11" sqref="B11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7818,7 +9771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -7856,7 +9809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -7894,7 +9847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7932,7 +9885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7970,7 +9923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8008,47 +9961,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -8066,34 +10019,34 @@
       <selection activeCell="B15" sqref="B15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -8131,7 +10084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8169,7 +10122,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -8207,7 +10160,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -8245,7 +10198,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -8283,7 +10236,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -8321,7 +10274,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8359,7 +10312,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -8397,7 +10350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -8435,7 +10388,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -8473,47 +10426,47 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
